--- a/SRS/Gantt Chart.xlsx
+++ b/SRS/Gantt Chart.xlsx
@@ -2,19 +2,19 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HDs\Desktop\DACNPM\DACN_CongNghePhanMem\SRS\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\DACN_CongNghePhanMem\SRS\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="16392" windowHeight="5448"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="16395" windowHeight="5445"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="152511"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="50">
   <si>
     <t xml:space="preserve">Mô tả yêu cầu phần mềm
 </t>
@@ -190,7 +190,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -588,7 +588,6 @@
   <cellXfs count="45">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -706,6 +705,9 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -989,313 +991,315 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E24"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" zoomScale="72" zoomScaleNormal="72" workbookViewId="0">
-      <selection activeCell="C17" sqref="C17"/>
+    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="72" zoomScaleNormal="72" workbookViewId="0">
+      <selection activeCell="D17" sqref="D17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="39.33203125" customWidth="1"/>
-    <col min="3" max="3" width="45.44140625" customWidth="1"/>
-    <col min="4" max="4" width="25.109375" customWidth="1"/>
-    <col min="5" max="5" width="12.44140625" customWidth="1"/>
+    <col min="2" max="2" width="39.28515625" customWidth="1"/>
+    <col min="3" max="3" width="45.42578125" customWidth="1"/>
+    <col min="4" max="4" width="25.140625" customWidth="1"/>
+    <col min="5" max="5" width="12.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="29" t="s">
+    <row r="1" spans="1:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="28" t="s">
         <v>4</v>
       </c>
-      <c r="B1" s="30"/>
-      <c r="C1" s="31"/>
-      <c r="D1" s="3"/>
-      <c r="E1" s="3"/>
-    </row>
-    <row r="2" spans="1:5" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="4" t="s">
+      <c r="B1" s="29"/>
+      <c r="C1" s="30"/>
+      <c r="D1" s="2"/>
+      <c r="E1" s="2"/>
+    </row>
+    <row r="2" spans="1:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="B2" s="5" t="s">
+      <c r="B2" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="C2" s="5" t="s">
+      <c r="C2" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="D2" s="5" t="s">
+      <c r="D2" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="E2" s="5" t="s">
+      <c r="E2" s="4" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="3" spans="1:5" s="1" customFormat="1" ht="32.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="6">
+    <row r="3" spans="1:5" s="1" customFormat="1" ht="32.450000000000003" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="5">
         <v>1</v>
       </c>
-      <c r="B3" s="7" t="s">
+      <c r="B3" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="C3" s="8"/>
-      <c r="D3" s="8" t="s">
+      <c r="C3" s="7"/>
+      <c r="D3" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="E3" s="27" t="s">
+      <c r="E3" s="26" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="4" spans="1:5" ht="27.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A4" s="32">
+    <row r="4" spans="1:5" ht="27.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="31">
         <v>2</v>
       </c>
-      <c r="B4" s="33" t="s">
+      <c r="B4" s="32" t="s">
         <v>16</v>
       </c>
-      <c r="C4" s="9" t="s">
+      <c r="C4" s="8" t="s">
         <v>0</v>
       </c>
-      <c r="D4" s="9" t="s">
+      <c r="D4" s="8" t="s">
         <v>1</v>
       </c>
-      <c r="E4" s="28"/>
-    </row>
-    <row r="5" spans="1:5" ht="33.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A5" s="32"/>
-      <c r="B5" s="34"/>
-      <c r="C5" s="9" t="s">
+      <c r="E4" s="27"/>
+    </row>
+    <row r="5" spans="1:5" ht="33.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="31"/>
+      <c r="B5" s="33"/>
+      <c r="C5" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="D5" s="9" t="s">
+      <c r="D5" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="E5" s="28"/>
-    </row>
-    <row r="6" spans="1:5" ht="32.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A6" s="32"/>
-      <c r="B6" s="35"/>
-      <c r="C6" s="10" t="s">
+      <c r="E5" s="27"/>
+    </row>
+    <row r="6" spans="1:5" ht="32.450000000000003" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="31"/>
+      <c r="B6" s="34"/>
+      <c r="C6" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="D6" s="9" t="s">
+      <c r="D6" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="E6" s="28"/>
-    </row>
-    <row r="7" spans="1:5" ht="36" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A7" s="32">
+      <c r="E6" s="27"/>
+    </row>
+    <row r="7" spans="1:5" ht="36" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="31">
         <v>3</v>
       </c>
-      <c r="B7" s="33" t="s">
+      <c r="B7" s="32" t="s">
         <v>11</v>
       </c>
-      <c r="C7" s="10" t="s">
+      <c r="C7" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="D7" s="9" t="s">
+      <c r="D7" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="E7" s="28"/>
-    </row>
-    <row r="8" spans="1:5" ht="33.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A8" s="32"/>
-      <c r="B8" s="34"/>
-      <c r="C8" s="9" t="s">
+      <c r="E7" s="27"/>
+    </row>
+    <row r="8" spans="1:5" ht="33.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="31"/>
+      <c r="B8" s="33"/>
+      <c r="C8" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="D8" s="9" t="s">
+      <c r="D8" s="8" t="s">
         <v>1</v>
       </c>
-      <c r="E8" s="28"/>
-    </row>
-    <row r="9" spans="1:5" ht="25.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A9" s="32"/>
-      <c r="B9" s="34"/>
-      <c r="C9" s="9" t="s">
+      <c r="E8" s="27"/>
+    </row>
+    <row r="9" spans="1:5" ht="25.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="31"/>
+      <c r="B9" s="33"/>
+      <c r="C9" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="D9" s="9" t="s">
+      <c r="D9" s="8" t="s">
         <v>24</v>
       </c>
-      <c r="E9" s="28"/>
-    </row>
-    <row r="10" spans="1:5" ht="23.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A10" s="32"/>
-      <c r="B10" s="34"/>
-      <c r="C10" s="9" t="s">
+      <c r="E9" s="27"/>
+    </row>
+    <row r="10" spans="1:5" ht="23.45" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="31"/>
+      <c r="B10" s="33"/>
+      <c r="C10" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="D10" s="9" t="s">
+      <c r="D10" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="E10" s="28"/>
-    </row>
-    <row r="11" spans="1:5" ht="22.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A11" s="32"/>
-      <c r="B11" s="34"/>
-      <c r="C11" s="11" t="s">
+      <c r="E10" s="27"/>
+    </row>
+    <row r="11" spans="1:5" ht="22.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="31"/>
+      <c r="B11" s="33"/>
+      <c r="C11" s="10" t="s">
         <v>21</v>
       </c>
-      <c r="D11" s="9" t="s">
+      <c r="D11" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="E11" s="28"/>
-    </row>
-    <row r="12" spans="1:5" ht="37.200000000000003" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A12" s="36">
+      <c r="E11" s="27"/>
+    </row>
+    <row r="12" spans="1:5" ht="37.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="35">
         <v>4</v>
       </c>
-      <c r="B12" s="39" t="s">
+      <c r="B12" s="38" t="s">
         <v>31</v>
       </c>
-      <c r="C12" s="14" t="s">
+      <c r="C12" s="13" t="s">
         <v>26</v>
       </c>
-      <c r="D12" s="13" t="s">
+      <c r="D12" s="12" t="s">
         <v>13</v>
       </c>
-      <c r="E12" s="42" t="s">
+      <c r="E12" s="41" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="13" spans="1:5" ht="31.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A13" s="37"/>
-      <c r="B13" s="40"/>
-      <c r="C13" s="12" t="s">
+    <row r="13" spans="1:5" ht="31.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="36"/>
+      <c r="B13" s="39"/>
+      <c r="C13" s="11" t="s">
         <v>27</v>
       </c>
-      <c r="D13" s="13" t="s">
+      <c r="D13" s="12" t="s">
         <v>1</v>
       </c>
-      <c r="E13" s="43"/>
-    </row>
-    <row r="14" spans="1:5" ht="31.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A14" s="37"/>
-      <c r="B14" s="40"/>
-      <c r="C14" s="12" t="s">
+      <c r="E13" s="42"/>
+    </row>
+    <row r="14" spans="1:5" ht="31.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="36"/>
+      <c r="B14" s="39"/>
+      <c r="C14" s="11" t="s">
         <v>28</v>
       </c>
-      <c r="D14" s="13" t="s">
+      <c r="D14" s="12" t="s">
         <v>24</v>
       </c>
-      <c r="E14" s="43"/>
-    </row>
-    <row r="15" spans="1:5" ht="22.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A15" s="37"/>
-      <c r="B15" s="40"/>
-      <c r="C15" s="12" t="s">
+      <c r="E14" s="42"/>
+    </row>
+    <row r="15" spans="1:5" ht="22.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="36"/>
+      <c r="B15" s="39"/>
+      <c r="C15" s="11" t="s">
         <v>29</v>
       </c>
-      <c r="D15" s="13" t="s">
+      <c r="D15" s="12" t="s">
         <v>23</v>
       </c>
-      <c r="E15" s="43"/>
-    </row>
-    <row r="16" spans="1:5" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A16" s="38"/>
-      <c r="B16" s="41"/>
-      <c r="C16" s="12" t="s">
+      <c r="E15" s="42"/>
+    </row>
+    <row r="16" spans="1:5" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="37"/>
+      <c r="B16" s="40"/>
+      <c r="C16" s="11" t="s">
         <v>30</v>
       </c>
-      <c r="D16" s="13" t="s">
+      <c r="D16" s="12" t="s">
         <v>22</v>
       </c>
-      <c r="E16" s="44"/>
-    </row>
-    <row r="17" spans="1:5" ht="52.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="15">
+      <c r="E16" s="43"/>
+    </row>
+    <row r="17" spans="1:5" ht="52.9" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="14">
         <v>5</v>
       </c>
-      <c r="B17" s="16" t="s">
+      <c r="B17" s="15" t="s">
         <v>32</v>
       </c>
-      <c r="C17" s="20" t="s">
+      <c r="C17" s="19" t="s">
         <v>49</v>
       </c>
-      <c r="D17" s="2"/>
-      <c r="E17" s="15" t="s">
+      <c r="D17" s="44" t="s">
+        <v>13</v>
+      </c>
+      <c r="E17" s="14" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="18" spans="1:5" ht="24.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="21">
+    <row r="18" spans="1:5" ht="24.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="20">
         <v>6</v>
       </c>
-      <c r="B18" s="24" t="s">
+      <c r="B18" s="23" t="s">
         <v>44</v>
       </c>
-      <c r="C18" s="15" t="s">
+      <c r="C18" s="14" t="s">
         <v>40</v>
       </c>
-      <c r="D18" s="17"/>
-      <c r="E18" s="15" t="s">
+      <c r="D18" s="16"/>
+      <c r="E18" s="14" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="19" spans="1:5" ht="22.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="22"/>
-      <c r="B19" s="25"/>
-      <c r="C19" s="15" t="s">
+    <row r="19" spans="1:5" ht="22.15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="21"/>
+      <c r="B19" s="24"/>
+      <c r="C19" s="14" t="s">
         <v>34</v>
       </c>
-      <c r="D19" s="15"/>
-      <c r="E19" s="15" t="s">
+      <c r="D19" s="14"/>
+      <c r="E19" s="14" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="20" spans="1:5" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="22"/>
-      <c r="B20" s="25"/>
-      <c r="C20" s="15" t="s">
+    <row r="20" spans="1:5" ht="20.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="21"/>
+      <c r="B20" s="24"/>
+      <c r="C20" s="14" t="s">
         <v>38</v>
       </c>
-      <c r="D20" s="15"/>
-      <c r="E20" s="15" t="s">
+      <c r="D20" s="14"/>
+      <c r="E20" s="14" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="21" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A21" s="22"/>
-      <c r="B21" s="25"/>
-      <c r="C21" s="15" t="s">
+    <row r="21" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A21" s="21"/>
+      <c r="B21" s="24"/>
+      <c r="C21" s="14" t="s">
         <v>42</v>
       </c>
-      <c r="D21" s="15"/>
-      <c r="E21" s="15" t="s">
+      <c r="D21" s="14"/>
+      <c r="E21" s="14" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="22" spans="1:5" ht="24.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="23"/>
-      <c r="B22" s="26"/>
-      <c r="C22" s="15" t="s">
+    <row r="22" spans="1:5" ht="24.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="22"/>
+      <c r="B22" s="25"/>
+      <c r="C22" s="14" t="s">
         <v>41</v>
       </c>
-      <c r="D22" s="15"/>
-      <c r="E22" s="15" t="s">
+      <c r="D22" s="14"/>
+      <c r="E22" s="14" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="23" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A23" s="18">
+    <row r="23" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A23" s="17">
         <v>7</v>
       </c>
-      <c r="B23" s="15" t="s">
+      <c r="B23" s="14" t="s">
         <v>45</v>
       </c>
-      <c r="C23" s="15"/>
-      <c r="D23" s="15"/>
-      <c r="E23" s="15" t="s">
+      <c r="C23" s="14"/>
+      <c r="D23" s="14"/>
+      <c r="E23" s="14" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="24" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A24" s="15">
+    <row r="24" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A24" s="14">
         <v>8</v>
       </c>
-      <c r="B24" s="15" t="s">
+      <c r="B24" s="14" t="s">
         <v>47</v>
       </c>
-      <c r="C24" s="15"/>
-      <c r="D24" s="15"/>
-      <c r="E24" s="19" t="s">
+      <c r="C24" s="14"/>
+      <c r="D24" s="14"/>
+      <c r="E24" s="18" t="s">
         <v>48</v>
       </c>
     </row>

--- a/SRS/Gantt Chart.xlsx
+++ b/SRS/Gantt Chart.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22827"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\DACN_CongNghePhanMem\SRS\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\TrongTuan\Desktop\cn\DACN_CongNghePhanMem\SRS\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{774D9940-4076-4D8E-A60C-915489888240}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="16395" windowHeight="5445"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -24,15 +25,12 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="42">
   <si>
     <t xml:space="preserve">Mô tả yêu cầu phần mềm
 </t>
   </si>
   <si>
-    <t>Triệu Thanh Vân</t>
-  </si>
-  <si>
     <t>Phân tích yêu cầu chức năng,
 phi chức năng</t>
   </si>
@@ -40,9 +38,6 @@
     <t>Xác định Use Case</t>
   </si>
   <si>
-    <t>BẢNG PHÂN CÔNG CÔNG VIỆC</t>
-  </si>
-  <si>
     <t>Công việc</t>
   </si>
   <si>
@@ -55,9 +50,6 @@
     <t>Thời gian</t>
   </si>
   <si>
-    <t>Thành viên</t>
-  </si>
-  <si>
     <t>Tuần 1</t>
   </si>
   <si>
@@ -65,13 +57,6 @@
   </si>
   <si>
     <t>Use Case: Tìm kiếm phòng, Đặt phòng</t>
-  </si>
-  <si>
-    <t>Trần Thị Ngọc Hân</t>
-  </si>
-  <si>
-    <t>Huỳnh Trọng Tuấn
-Hồ Thanh Hiệp</t>
   </si>
   <si>
     <t>Github
@@ -81,10 +66,6 @@
     <t>Phân tích yêu cầu</t>
   </si>
   <si>
-    <t>Trần Thị Ngọc Hân
-Phạm Đức Hiếu</t>
-  </si>
-  <si>
     <t>Use Case: Đăng nhập, Đăng xuất, Thanh toán</t>
   </si>
   <si>
@@ -97,15 +78,6 @@
     <t>Use Case: Quản lý khách hàng</t>
   </si>
   <si>
-    <t>Hồ Thanh Hiệp</t>
-  </si>
-  <si>
-    <t>Phạm Đức Hiếu</t>
-  </si>
-  <si>
-    <t>Huỳnh Trọng Tuấn</t>
-  </si>
-  <si>
     <t>Tuần 2</t>
   </si>
   <si>
@@ -124,74 +96,78 @@
     <t>Chức năng: Quản lý khách hàng</t>
   </si>
   <si>
-    <t>UML Design 
-(Activity Diagram
-Sequence Diagram)</t>
-  </si>
-  <si>
-    <t>Prototype
+    <t>Tuần 3</t>
+  </si>
+  <si>
+    <t>Chức năng đặt phòng,thanh toán</t>
+  </si>
+  <si>
+    <t>Tuần 4</t>
+  </si>
+  <si>
+    <t>Tuần 5</t>
+  </si>
+  <si>
+    <t>Tuần 6</t>
+  </si>
+  <si>
+    <t>Chức năng quản lý đặt phòng</t>
+  </si>
+  <si>
+    <t>Tuần 7</t>
+  </si>
+  <si>
+    <t>Chức năng đăng ký, đăng nhập, tìm kiếm</t>
+  </si>
+  <si>
+    <t>Chức năng quản lý khách hàng</t>
+  </si>
+  <si>
+    <t>Chức năng quản lý thông tin phòng</t>
+  </si>
+  <si>
+    <t>Tuần 8</t>
+  </si>
+  <si>
+    <t>Hiện thực code</t>
+  </si>
+  <si>
+    <t>Debug và hoàn chỉnh code</t>
+  </si>
+  <si>
+    <t>Tuần 9</t>
+  </si>
+  <si>
+    <t>Hoàn thành code và document</t>
+  </si>
+  <si>
+    <t>Tuần 10</t>
+  </si>
+  <si>
+    <t>BẢNG KẾ HOẠCH CÔNG VIỆC</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
 Class Diagram
 Database</t>
   </si>
   <si>
-    <t>Tuần 3</t>
-  </si>
-  <si>
-    <t>Chức năng đặt phòng,thanh toán</t>
-  </si>
-  <si>
-    <t>Tuần 4</t>
-  </si>
-  <si>
-    <t>Tuần 5</t>
-  </si>
-  <si>
-    <t>Tuần 6</t>
-  </si>
-  <si>
-    <t>Chức năng quản lý đặt phòng</t>
-  </si>
-  <si>
-    <t>Tuần 7</t>
-  </si>
-  <si>
-    <t>Chức năng đăng ký, đăng nhập, tìm kiếm</t>
-  </si>
-  <si>
-    <t>Chức năng quản lý khách hàng</t>
-  </si>
-  <si>
-    <t>Chức năng quản lý thông tin phòng</t>
-  </si>
-  <si>
-    <t>Tuần 8</t>
-  </si>
-  <si>
-    <t>Hiện thực code</t>
-  </si>
-  <si>
-    <t>Debug và hoàn chỉnh code</t>
-  </si>
-  <si>
-    <t>Tuần 9</t>
-  </si>
-  <si>
-    <t>Hoàn thành code và document</t>
-  </si>
-  <si>
-    <t>Tuần 10</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Prototype cho từng chức năng
-Class Diagram tổng hợp
+    <t xml:space="preserve">
+Activity Diagram
+Prototype
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+Class Diagram  chức năng đặt phòng
 Thiết kế mô hình Database</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="6" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -225,13 +201,6 @@
       <name val="Arial"/>
       <family val="2"/>
     </font>
-    <font>
-      <sz val="12"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="5">
     <fill>
@@ -259,7 +228,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="27">
+  <borders count="29">
     <border>
       <left/>
       <right/>
@@ -398,28 +367,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right style="medium">
-        <color rgb="FF000000"/>
-      </right>
-      <top style="medium">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="medium">
-        <color rgb="FF000000"/>
-      </right>
-      <top/>
-      <bottom style="medium">
-        <color rgb="FF000000"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="medium">
         <color rgb="FFCCCCCC"/>
       </left>
@@ -549,32 +496,82 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
       <right style="medium">
         <color rgb="FF000000"/>
       </right>
       <top style="medium">
-        <color rgb="FFCCCCCC"/>
-      </top>
+        <color rgb="FF000000"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color rgb="FF000000"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color rgb="FF000000"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color rgb="FF000000"/>
+      </right>
+      <top/>
       <bottom style="medium">
         <color rgb="FF000000"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right/>
+      <left style="medium">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="medium">
+        <color rgb="FF000000"/>
+      </right>
       <top/>
       <bottom style="thin">
         <color indexed="64"/>
@@ -585,7 +582,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="45">
+  <cellXfs count="46">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -612,13 +609,10 @@
     <xf numFmtId="0" fontId="4" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -628,30 +622,29 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -667,28 +660,43 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -697,17 +705,11 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -988,326 +990,269 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E24"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:D24"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="72" zoomScaleNormal="72" workbookViewId="0">
-      <selection activeCell="D17" sqref="D17"/>
+    <sheetView tabSelected="1" zoomScale="72" zoomScaleNormal="72" workbookViewId="0">
+      <selection activeCell="C17" sqref="C17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="39.28515625" customWidth="1"/>
     <col min="3" max="3" width="45.42578125" customWidth="1"/>
-    <col min="4" max="4" width="25.140625" customWidth="1"/>
-    <col min="5" max="5" width="12.42578125" customWidth="1"/>
+    <col min="4" max="4" width="12.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="28" t="s">
+    <row r="1" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="26" t="s">
+        <v>38</v>
+      </c>
+      <c r="B1" s="27"/>
+      <c r="C1" s="28"/>
+      <c r="D1" s="2"/>
+    </row>
+    <row r="2" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="B1" s="29"/>
-      <c r="C1" s="30"/>
-      <c r="D1" s="2"/>
-      <c r="E1" s="2"/>
-    </row>
-    <row r="2" spans="1:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="3" t="s">
+      <c r="B2" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="D2" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="B2" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="C2" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="D2" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="E2" s="4" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" s="1" customFormat="1" ht="32.450000000000003" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="3" spans="1:4" s="1" customFormat="1" ht="32.450000000000003" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="5">
         <v>1</v>
       </c>
       <c r="B3" s="6" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="C3" s="7"/>
-      <c r="D3" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="E3" s="26" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" ht="27.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="31">
+      <c r="D3" s="24" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" ht="27.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="38">
         <v>2</v>
       </c>
-      <c r="B4" s="32" t="s">
-        <v>16</v>
+      <c r="B4" s="41" t="s">
+        <v>11</v>
       </c>
       <c r="C4" s="8" t="s">
         <v>0</v>
       </c>
-      <c r="D4" s="8" t="s">
+      <c r="D4" s="25"/>
+    </row>
+    <row r="5" spans="1:4" ht="33.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="39"/>
+      <c r="B5" s="42"/>
+      <c r="C5" s="8" t="s">
         <v>1</v>
       </c>
-      <c r="E4" s="27"/>
-    </row>
-    <row r="5" spans="1:5" ht="33.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="31"/>
-      <c r="B5" s="33"/>
-      <c r="C5" s="8" t="s">
+      <c r="D5" s="25"/>
+    </row>
+    <row r="6" spans="1:4" ht="32.450000000000003" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="40"/>
+      <c r="B6" s="44"/>
+      <c r="C6" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="D5" s="8" t="s">
+      <c r="D6" s="25"/>
+    </row>
+    <row r="7" spans="1:4" ht="36" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="38">
+        <v>3</v>
+      </c>
+      <c r="B7" s="41" t="s">
+        <v>8</v>
+      </c>
+      <c r="C7" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="D7" s="25"/>
+    </row>
+    <row r="8" spans="1:4" ht="33.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="39"/>
+      <c r="B8" s="42"/>
+      <c r="C8" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="D8" s="25"/>
+    </row>
+    <row r="9" spans="1:4" ht="25.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="39"/>
+      <c r="B9" s="42"/>
+      <c r="C9" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="D9" s="25"/>
+    </row>
+    <row r="10" spans="1:4" ht="23.45" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="39"/>
+      <c r="B10" s="42"/>
+      <c r="C10" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="E5" s="27"/>
-    </row>
-    <row r="6" spans="1:5" ht="32.450000000000003" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="31"/>
-      <c r="B6" s="34"/>
-      <c r="C6" s="9" t="s">
-        <v>3</v>
-      </c>
-      <c r="D6" s="8" t="s">
+      <c r="D10" s="25"/>
+    </row>
+    <row r="11" spans="1:4" ht="22.9" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="40"/>
+      <c r="B11" s="43"/>
+      <c r="C11" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="D11" s="45"/>
+    </row>
+    <row r="12" spans="1:4" ht="37.15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="29">
+        <v>4</v>
+      </c>
+      <c r="B12" s="32" t="s">
+        <v>40</v>
+      </c>
+      <c r="C12" s="12" t="s">
         <v>17</v>
       </c>
-      <c r="E6" s="27"/>
-    </row>
-    <row r="7" spans="1:5" ht="36" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="31">
-        <v>3</v>
-      </c>
-      <c r="B7" s="32" t="s">
-        <v>11</v>
-      </c>
-      <c r="C7" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="D7" s="8" t="s">
-        <v>13</v>
-      </c>
-      <c r="E7" s="27"/>
-    </row>
-    <row r="8" spans="1:5" ht="33.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="31"/>
-      <c r="B8" s="33"/>
-      <c r="C8" s="8" t="s">
+      <c r="D12" s="35" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" ht="31.9" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="30"/>
+      <c r="B13" s="33"/>
+      <c r="C13" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="D8" s="8" t="s">
-        <v>1</v>
-      </c>
-      <c r="E8" s="27"/>
-    </row>
-    <row r="9" spans="1:5" ht="25.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="31"/>
-      <c r="B9" s="33"/>
-      <c r="C9" s="8" t="s">
+      <c r="D13" s="36"/>
+    </row>
+    <row r="14" spans="1:4" ht="31.9" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="30"/>
+      <c r="B14" s="33"/>
+      <c r="C14" s="11" t="s">
         <v>19</v>
       </c>
-      <c r="D9" s="8" t="s">
+      <c r="D14" s="36"/>
+    </row>
+    <row r="15" spans="1:4" ht="22.9" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="30"/>
+      <c r="B15" s="33"/>
+      <c r="C15" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="D15" s="36"/>
+    </row>
+    <row r="16" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="31"/>
+      <c r="B16" s="34"/>
+      <c r="C16" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="D16" s="37"/>
+    </row>
+    <row r="17" spans="1:4" ht="52.9" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="13">
+        <v>5</v>
+      </c>
+      <c r="B17" s="14" t="s">
+        <v>39</v>
+      </c>
+      <c r="C17" s="17" t="s">
+        <v>41</v>
+      </c>
+      <c r="D17" s="13" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" ht="24.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="18">
+        <v>6</v>
+      </c>
+      <c r="B18" s="21" t="s">
+        <v>33</v>
+      </c>
+      <c r="C18" s="13" t="s">
+        <v>29</v>
+      </c>
+      <c r="D18" s="13" t="s">
         <v>24</v>
       </c>
-      <c r="E9" s="27"/>
-    </row>
-    <row r="10" spans="1:5" ht="23.45" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="31"/>
-      <c r="B10" s="33"/>
-      <c r="C10" s="8" t="s">
-        <v>20</v>
-      </c>
-      <c r="D10" s="8" t="s">
+    </row>
+    <row r="19" spans="1:4" ht="22.15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="19"/>
+      <c r="B19" s="22"/>
+      <c r="C19" s="13" t="s">
         <v>23</v>
       </c>
-      <c r="E10" s="27"/>
-    </row>
-    <row r="11" spans="1:5" ht="22.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="31"/>
-      <c r="B11" s="33"/>
-      <c r="C11" s="10" t="s">
-        <v>21</v>
-      </c>
-      <c r="D11" s="8" t="s">
-        <v>22</v>
-      </c>
-      <c r="E11" s="27"/>
-    </row>
-    <row r="12" spans="1:5" ht="37.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="35">
-        <v>4</v>
-      </c>
-      <c r="B12" s="38" t="s">
+      <c r="D19" s="13" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" ht="20.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="19"/>
+      <c r="B20" s="22"/>
+      <c r="C20" s="13" t="s">
+        <v>27</v>
+      </c>
+      <c r="D20" s="13" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A21" s="19"/>
+      <c r="B21" s="22"/>
+      <c r="C21" s="13" t="s">
         <v>31</v>
       </c>
-      <c r="C12" s="13" t="s">
-        <v>26</v>
-      </c>
-      <c r="D12" s="12" t="s">
-        <v>13</v>
-      </c>
-      <c r="E12" s="41" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" ht="31.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="36"/>
-      <c r="B13" s="39"/>
-      <c r="C13" s="11" t="s">
-        <v>27</v>
-      </c>
-      <c r="D13" s="12" t="s">
-        <v>1</v>
-      </c>
-      <c r="E13" s="42"/>
-    </row>
-    <row r="14" spans="1:5" ht="31.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="36"/>
-      <c r="B14" s="39"/>
-      <c r="C14" s="11" t="s">
+      <c r="D21" s="13" t="s">
         <v>28</v>
       </c>
-      <c r="D14" s="12" t="s">
-        <v>24</v>
-      </c>
-      <c r="E14" s="42"/>
-    </row>
-    <row r="15" spans="1:5" ht="22.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="36"/>
-      <c r="B15" s="39"/>
-      <c r="C15" s="11" t="s">
-        <v>29</v>
-      </c>
-      <c r="D15" s="12" t="s">
-        <v>23</v>
-      </c>
-      <c r="E15" s="42"/>
-    </row>
-    <row r="16" spans="1:5" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="37"/>
-      <c r="B16" s="40"/>
-      <c r="C16" s="11" t="s">
+    </row>
+    <row r="22" spans="1:4" ht="24.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="20"/>
+      <c r="B22" s="23"/>
+      <c r="C22" s="13" t="s">
         <v>30</v>
       </c>
-      <c r="D16" s="12" t="s">
-        <v>22</v>
-      </c>
-      <c r="E16" s="43"/>
-    </row>
-    <row r="17" spans="1:5" ht="52.9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="14">
-        <v>5</v>
-      </c>
-      <c r="B17" s="15" t="s">
+      <c r="D22" s="13" t="s">
         <v>32</v>
       </c>
-      <c r="C17" s="19" t="s">
-        <v>49</v>
-      </c>
-      <c r="D17" s="44" t="s">
-        <v>13</v>
-      </c>
-      <c r="E17" s="14" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5" ht="24.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="20">
-        <v>6</v>
-      </c>
-      <c r="B18" s="23" t="s">
-        <v>44</v>
-      </c>
-      <c r="C18" s="14" t="s">
-        <v>40</v>
-      </c>
-      <c r="D18" s="16"/>
-      <c r="E18" s="14" t="s">
+    </row>
+    <row r="23" spans="1:4" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="15">
+        <v>7</v>
+      </c>
+      <c r="B23" s="13" t="s">
+        <v>34</v>
+      </c>
+      <c r="C23" s="13"/>
+      <c r="D23" s="13" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="19" spans="1:5" ht="22.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="21"/>
-      <c r="B19" s="24"/>
-      <c r="C19" s="14" t="s">
-        <v>34</v>
-      </c>
-      <c r="D19" s="14"/>
-      <c r="E19" s="14" t="s">
+    <row r="24" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="13">
+        <v>8</v>
+      </c>
+      <c r="B24" s="13" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="20" spans="1:5" ht="20.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="21"/>
-      <c r="B20" s="24"/>
-      <c r="C20" s="14" t="s">
-        <v>38</v>
-      </c>
-      <c r="D20" s="14"/>
-      <c r="E20" s="14" t="s">
+      <c r="C24" s="13"/>
+      <c r="D24" s="16" t="s">
         <v>37</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A21" s="21"/>
-      <c r="B21" s="24"/>
-      <c r="C21" s="14" t="s">
-        <v>42</v>
-      </c>
-      <c r="D21" s="14"/>
-      <c r="E21" s="14" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5" ht="24.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="22"/>
-      <c r="B22" s="25"/>
-      <c r="C22" s="14" t="s">
-        <v>41</v>
-      </c>
-      <c r="D22" s="14"/>
-      <c r="E22" s="14" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="23" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A23" s="17">
-        <v>7</v>
-      </c>
-      <c r="B23" s="14" t="s">
-        <v>45</v>
-      </c>
-      <c r="C23" s="14"/>
-      <c r="D23" s="14"/>
-      <c r="E23" s="14" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="24" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A24" s="14">
-        <v>8</v>
-      </c>
-      <c r="B24" s="14" t="s">
-        <v>47</v>
-      </c>
-      <c r="C24" s="14"/>
-      <c r="D24" s="14"/>
-      <c r="E24" s="18" t="s">
-        <v>48</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="11">
     <mergeCell ref="A18:A22"/>
     <mergeCell ref="B18:B22"/>
-    <mergeCell ref="E3:E11"/>
+    <mergeCell ref="D3:D11"/>
     <mergeCell ref="A1:C1"/>
     <mergeCell ref="A4:A6"/>
     <mergeCell ref="B4:B6"/>
@@ -1315,7 +1260,7 @@
     <mergeCell ref="A7:A11"/>
     <mergeCell ref="A12:A16"/>
     <mergeCell ref="B12:B16"/>
-    <mergeCell ref="E12:E16"/>
+    <mergeCell ref="D12:D16"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>

--- a/SRS/Gantt Chart.xlsx
+++ b/SRS/Gantt Chart.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\TrongTuan\Desktop\cn\DACN_CongNghePhanMem\SRS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{774D9940-4076-4D8E-A60C-915489888240}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6E05F8D8-71B3-4204-BA62-4563A45BD75F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -153,14 +153,14 @@
   </si>
   <si>
     <t xml:space="preserve">
-Activity Diagram
-Prototype
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">
 Class Diagram  chức năng đặt phòng
 Thiết kế mô hình Database</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+Activity Diagram
+Prototype 
+</t>
   </si>
 </sst>
 </file>
@@ -651,6 +651,9 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -660,6 +663,27 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
@@ -685,30 +709,6 @@
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -993,8 +993,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:D24"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="72" zoomScaleNormal="72" workbookViewId="0">
-      <selection activeCell="C17" sqref="C17"/>
+    <sheetView tabSelected="1" topLeftCell="A10" zoomScale="72" zoomScaleNormal="72" workbookViewId="0">
+      <selection activeCell="B12" sqref="B12:B16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1005,11 +1005,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="26" t="s">
+      <c r="A1" s="27" t="s">
         <v>38</v>
       </c>
-      <c r="B1" s="27"/>
-      <c r="C1" s="28"/>
+      <c r="B1" s="28"/>
+      <c r="C1" s="29"/>
       <c r="D1" s="2"/>
     </row>
     <row r="2" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
@@ -1039,10 +1039,10 @@
       </c>
     </row>
     <row r="4" spans="1:4" ht="27.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="38">
+      <c r="A4" s="30">
         <v>2</v>
       </c>
-      <c r="B4" s="41" t="s">
+      <c r="B4" s="33" t="s">
         <v>11</v>
       </c>
       <c r="C4" s="8" t="s">
@@ -1051,26 +1051,26 @@
       <c r="D4" s="25"/>
     </row>
     <row r="5" spans="1:4" ht="33.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="39"/>
-      <c r="B5" s="42"/>
+      <c r="A5" s="31"/>
+      <c r="B5" s="34"/>
       <c r="C5" s="8" t="s">
         <v>1</v>
       </c>
       <c r="D5" s="25"/>
     </row>
     <row r="6" spans="1:4" ht="32.450000000000003" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="40"/>
-      <c r="B6" s="44"/>
+      <c r="A6" s="32"/>
+      <c r="B6" s="35"/>
       <c r="C6" s="9" t="s">
         <v>2</v>
       </c>
       <c r="D6" s="25"/>
     </row>
     <row r="7" spans="1:4" ht="36" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="38">
+      <c r="A7" s="30">
         <v>3</v>
       </c>
-      <c r="B7" s="41" t="s">
+      <c r="B7" s="33" t="s">
         <v>8</v>
       </c>
       <c r="C7" s="9" t="s">
@@ -1079,82 +1079,82 @@
       <c r="D7" s="25"/>
     </row>
     <row r="8" spans="1:4" ht="33.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="39"/>
-      <c r="B8" s="42"/>
+      <c r="A8" s="31"/>
+      <c r="B8" s="34"/>
       <c r="C8" s="8" t="s">
         <v>12</v>
       </c>
       <c r="D8" s="25"/>
     </row>
     <row r="9" spans="1:4" ht="25.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="39"/>
-      <c r="B9" s="42"/>
+      <c r="A9" s="31"/>
+      <c r="B9" s="34"/>
       <c r="C9" s="8" t="s">
         <v>13</v>
       </c>
       <c r="D9" s="25"/>
     </row>
     <row r="10" spans="1:4" ht="23.45" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="39"/>
-      <c r="B10" s="42"/>
+      <c r="A10" s="31"/>
+      <c r="B10" s="34"/>
       <c r="C10" s="8" t="s">
         <v>14</v>
       </c>
       <c r="D10" s="25"/>
     </row>
     <row r="11" spans="1:4" ht="22.9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="40"/>
-      <c r="B11" s="43"/>
+      <c r="A11" s="32"/>
+      <c r="B11" s="36"/>
       <c r="C11" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="D11" s="45"/>
+      <c r="D11" s="26"/>
     </row>
     <row r="12" spans="1:4" ht="37.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="29">
+      <c r="A12" s="37">
         <v>4</v>
       </c>
-      <c r="B12" s="32" t="s">
-        <v>40</v>
+      <c r="B12" s="40" t="s">
+        <v>41</v>
       </c>
       <c r="C12" s="12" t="s">
         <v>17</v>
       </c>
-      <c r="D12" s="35" t="s">
+      <c r="D12" s="43" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="13" spans="1:4" ht="31.9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="30"/>
-      <c r="B13" s="33"/>
+      <c r="A13" s="38"/>
+      <c r="B13" s="41"/>
       <c r="C13" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="D13" s="36"/>
+      <c r="D13" s="44"/>
     </row>
     <row r="14" spans="1:4" ht="31.9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="30"/>
-      <c r="B14" s="33"/>
+      <c r="A14" s="38"/>
+      <c r="B14" s="41"/>
       <c r="C14" s="11" t="s">
         <v>19</v>
       </c>
-      <c r="D14" s="36"/>
+      <c r="D14" s="44"/>
     </row>
     <row r="15" spans="1:4" ht="22.9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="30"/>
-      <c r="B15" s="33"/>
+      <c r="A15" s="38"/>
+      <c r="B15" s="41"/>
       <c r="C15" s="11" t="s">
         <v>20</v>
       </c>
-      <c r="D15" s="36"/>
+      <c r="D15" s="44"/>
     </row>
     <row r="16" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="31"/>
-      <c r="B16" s="34"/>
+      <c r="A16" s="39"/>
+      <c r="B16" s="42"/>
       <c r="C16" s="11" t="s">
         <v>21</v>
       </c>
-      <c r="D16" s="37"/>
+      <c r="D16" s="45"/>
     </row>
     <row r="17" spans="1:4" ht="52.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="13">
@@ -1164,7 +1164,7 @@
         <v>39</v>
       </c>
       <c r="C17" s="17" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D17" s="13" t="s">
         <v>22</v>

--- a/SRS/Gantt Chart.xlsx
+++ b/SRS/Gantt Chart.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\TrongTuan\Desktop\cn\DACN_CongNghePhanMem\SRS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6E05F8D8-71B3-4204-BA62-4563A45BD75F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CB6084D6-937C-4655-AF3D-A6748D4D4241}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -159,7 +159,7 @@
   <si>
     <t xml:space="preserve">
 Activity Diagram
-Prototype 
+Prototype các chức năng
 </t>
   </si>
 </sst>
@@ -993,7 +993,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:D24"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" zoomScale="72" zoomScaleNormal="72" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="72" zoomScaleNormal="72" workbookViewId="0">
       <selection activeCell="B12" sqref="B12:B16"/>
     </sheetView>
   </sheetViews>

--- a/SRS/Gantt Chart.xlsx
+++ b/SRS/Gantt Chart.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="21">
   <si>
     <t>Công việc</t>
   </si>
@@ -82,13 +82,19 @@
   </si>
   <si>
     <t>Cài đặt website lên server</t>
+  </si>
+  <si>
+    <t>Sơ đồ kiến trúc hệ thống và kiến trúc phần mềm</t>
+  </si>
+  <si>
+    <t>Chức năng xác nhận thông tin đặt phòng và thanh toán</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -111,28 +117,33 @@
     </font>
     <font>
       <b/>
-      <sz val="12"/>
-      <color rgb="FF000000"/>
-      <name val="Arial"/>
+      <sz val="16"/>
+      <color rgb="FFFF0000"/>
+      <name val="Candara"/>
       <family val="2"/>
       <charset val="163"/>
-      <scheme val="minor"/>
     </font>
     <font>
-      <sz val="12"/>
+      <b/>
+      <sz val="16"/>
       <color rgb="FF000000"/>
-      <name val="Arial"/>
+      <name val="Candara"/>
       <family val="2"/>
       <charset val="163"/>
-      <scheme val="minor"/>
     </font>
     <font>
-      <sz val="10"/>
-      <color theme="1"/>
-      <name val="Arial"/>
+      <sz val="16"/>
+      <color rgb="FF000000"/>
+      <name val="Candara"/>
       <family val="2"/>
       <charset val="163"/>
-      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="16"/>
+      <color theme="1"/>
+      <name val="Candara"/>
+      <family val="2"/>
+      <charset val="163"/>
     </font>
   </fonts>
   <fills count="4">
@@ -284,38 +295,38 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -597,141 +608,153 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D18"/>
+  <dimension ref="A1:D20"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="72" zoomScaleNormal="72" workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+      <selection activeCell="B16" sqref="B16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="11.125" customWidth="1"/>
-    <col min="2" max="2" width="64.75" customWidth="1"/>
+    <col min="2" max="2" width="85.875" customWidth="1"/>
     <col min="3" max="3" width="45.375" customWidth="1"/>
     <col min="4" max="4" width="12.375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="2" t="s">
+      <c r="A1" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="B1" s="3"/>
-      <c r="C1" s="12"/>
+      <c r="B1" s="4"/>
+      <c r="C1" s="2"/>
       <c r="D1" s="1"/>
     </row>
-    <row r="2" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="4" t="s">
+    <row r="2" spans="1:4" ht="21.75" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A2" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="5" t="s">
+      <c r="B2" s="6" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:4" ht="30.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="6">
+    <row r="3" spans="1:4" ht="42.75" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A3" s="7">
         <v>1</v>
       </c>
-      <c r="B3" s="7" t="s">
+      <c r="B3" s="8" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:4" ht="25.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="8">
+    <row r="4" spans="1:4" ht="25.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A4" s="9">
         <v>2</v>
       </c>
-      <c r="B4" s="9" t="s">
+      <c r="B4" s="10" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="5" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="10"/>
-      <c r="B5" s="11" t="s">
+    <row r="5" spans="1:4" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A5" s="11"/>
+      <c r="B5" s="12" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="6" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="10"/>
-      <c r="B6" s="11" t="s">
+    <row r="6" spans="1:4" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A6" s="11"/>
+      <c r="B6" s="12" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="7" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="10"/>
-      <c r="B7" s="11" t="s">
+    <row r="7" spans="1:4" ht="25.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A7" s="11"/>
+      <c r="B7" s="12" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="8" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="10"/>
-      <c r="B8" s="11" t="s">
+    <row r="8" spans="1:4" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A8" s="11"/>
+      <c r="B8" s="12" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="9" spans="1:4" ht="23.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="8">
+    <row r="9" spans="1:4" ht="23.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A9" s="9">
         <v>3</v>
       </c>
-      <c r="B9" s="9" t="s">
+      <c r="B9" s="10" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="10" spans="1:4" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="10"/>
-      <c r="B10" s="11" t="s">
+    <row r="10" spans="1:4" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A10" s="11"/>
+      <c r="B10" s="12" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="11" spans="1:4" ht="23.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="10"/>
-      <c r="B11" s="11" t="s">
+    <row r="11" spans="1:4" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A11" s="11"/>
+      <c r="B11" s="12" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" ht="33" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A12" s="11"/>
+      <c r="B12" s="12" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="12" spans="1:4" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="10"/>
-      <c r="B12" s="9" t="s">
+    <row r="13" spans="1:4" ht="28.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A13" s="11"/>
+      <c r="B13" s="12" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="13" spans="1:4" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="10"/>
-      <c r="B13" s="9" t="s">
+    <row r="14" spans="1:4" ht="31.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A14" s="11"/>
+      <c r="B14" s="12" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="14" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="8">
+    <row r="15" spans="1:4" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A15" s="9">
         <v>4</v>
       </c>
-      <c r="B14" s="9" t="s">
+      <c r="B15" s="10" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="15" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="10"/>
-      <c r="B15" s="11" t="s">
+    <row r="16" spans="1:4" ht="21.75" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A16" s="11"/>
+      <c r="B16" s="12" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="16" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="10"/>
-      <c r="B16" s="11" t="s">
+    <row r="17" spans="1:2" ht="21.75" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A17" s="11"/>
+      <c r="B17" s="12" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="17" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="8">
+    <row r="18" spans="1:2" ht="21.75" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A18" s="11"/>
+      <c r="B18" s="12" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" ht="21.75" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A19" s="9">
         <v>5</v>
       </c>
-      <c r="B17" s="9" t="s">
+      <c r="B19" s="10" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="18" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="8">
+    <row r="20" spans="1:2" ht="21.75" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A20" s="9">
         <v>6</v>
       </c>
-      <c r="B18" s="9" t="s">
+      <c r="B20" s="10" t="s">
         <v>18</v>
       </c>
     </row>

--- a/SRS/Gantt Chart.xlsx
+++ b/SRS/Gantt Chart.xlsx
@@ -298,35 +298,35 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -610,8 +610,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D20"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="72" zoomScaleNormal="72" workbookViewId="0">
-      <selection activeCell="B16" sqref="B16"/>
+    <sheetView tabSelected="1" zoomScale="64" zoomScaleNormal="64" workbookViewId="0">
+      <selection activeCell="B20" sqref="B20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -623,138 +623,138 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="3" t="s">
+      <c r="A1" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="B1" s="4"/>
+      <c r="B1" s="10"/>
       <c r="C1" s="2"/>
       <c r="D1" s="1"/>
     </row>
     <row r="2" spans="1:4" ht="21.75" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A2" s="5" t="s">
+      <c r="A2" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="6" t="s">
+      <c r="B2" s="4" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:4" ht="42.75" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A3" s="7">
+      <c r="A3" s="5">
         <v>1</v>
       </c>
-      <c r="B3" s="8" t="s">
+      <c r="B3" s="11" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="4" spans="1:4" ht="25.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A4" s="9">
+      <c r="A4" s="6">
         <v>2</v>
       </c>
-      <c r="B4" s="10" t="s">
+      <c r="B4" s="12" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="5" spans="1:4" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A5" s="11"/>
-      <c r="B5" s="12" t="s">
+      <c r="A5" s="7"/>
+      <c r="B5" s="8" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A6" s="11"/>
-      <c r="B6" s="12" t="s">
+      <c r="A6" s="7"/>
+      <c r="B6" s="8" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="7" spans="1:4" ht="25.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A7" s="11"/>
-      <c r="B7" s="12" t="s">
+      <c r="A7" s="7"/>
+      <c r="B7" s="8" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="8" spans="1:4" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A8" s="11"/>
-      <c r="B8" s="12" t="s">
+      <c r="A8" s="7"/>
+      <c r="B8" s="8" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="9" spans="1:4" ht="23.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A9" s="9">
+      <c r="A9" s="6">
         <v>3</v>
       </c>
-      <c r="B9" s="10" t="s">
+      <c r="B9" s="12" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="10" spans="1:4" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A10" s="11"/>
-      <c r="B10" s="12" t="s">
+      <c r="A10" s="7"/>
+      <c r="B10" s="8" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="11" spans="1:4" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A11" s="11"/>
-      <c r="B11" s="12" t="s">
+      <c r="A11" s="7"/>
+      <c r="B11" s="8" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="12" spans="1:4" ht="33" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A12" s="11"/>
-      <c r="B12" s="12" t="s">
+      <c r="A12" s="7"/>
+      <c r="B12" s="8" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="13" spans="1:4" ht="28.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A13" s="11"/>
-      <c r="B13" s="12" t="s">
+      <c r="A13" s="7"/>
+      <c r="B13" s="8" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="14" spans="1:4" ht="31.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A14" s="11"/>
-      <c r="B14" s="12" t="s">
+      <c r="A14" s="7"/>
+      <c r="B14" s="8" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="15" spans="1:4" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A15" s="9">
+      <c r="A15" s="6">
         <v>4</v>
       </c>
-      <c r="B15" s="10" t="s">
+      <c r="B15" s="12" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="16" spans="1:4" ht="21.75" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A16" s="11"/>
-      <c r="B16" s="12" t="s">
+      <c r="A16" s="7"/>
+      <c r="B16" s="8" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="17" spans="1:2" ht="21.75" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A17" s="11"/>
-      <c r="B17" s="12" t="s">
+      <c r="A17" s="7"/>
+      <c r="B17" s="8" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="18" spans="1:2" ht="21.75" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A18" s="11"/>
-      <c r="B18" s="12" t="s">
+      <c r="A18" s="7"/>
+      <c r="B18" s="8" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="19" spans="1:2" ht="21.75" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A19" s="9">
+      <c r="A19" s="6">
         <v>5</v>
       </c>
-      <c r="B19" s="10" t="s">
+      <c r="B19" s="12" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="20" spans="1:2" ht="21.75" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A20" s="9">
+      <c r="A20" s="6">
         <v>6</v>
       </c>
-      <c r="B20" s="10" t="s">
+      <c r="B20" s="12" t="s">
         <v>18</v>
       </c>
     </row>

--- a/SRS/Gantt Chart.xlsx
+++ b/SRS/Gantt Chart.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="41">
   <si>
     <t>Công việc</t>
   </si>
@@ -45,15 +45,6 @@
     <t>Phân tích chức năng của hệ thống</t>
   </si>
   <si>
-    <t>Lựa chọn công nghệ lập trình</t>
-  </si>
-  <si>
-    <t>Phân tích chi tiết các module chính (đặc tả use case)</t>
-  </si>
-  <si>
-    <t>Phân tích chi tiết các module phụ (đặc tả use case)</t>
-  </si>
-  <si>
     <t>Thiết kế</t>
   </si>
   <si>
@@ -75,19 +66,90 @@
     <t>Chức năng đăng ký,đăng nhập</t>
   </si>
   <si>
-    <t>Chức năng tìm kiếm phòng và đặt phòng</t>
-  </si>
-  <si>
-    <t>Test các chức năng</t>
-  </si>
-  <si>
-    <t>Cài đặt website lên server</t>
-  </si>
-  <si>
     <t>Sơ đồ kiến trúc hệ thống và kiến trúc phần mềm</t>
   </si>
   <si>
-    <t>Chức năng xác nhận thông tin đặt phòng và thanh toán</t>
+    <t>Thành viên</t>
+  </si>
+  <si>
+    <t>Trần Thị Ngọc Hân
+Huỳnh Trọng Tuấn</t>
+  </si>
+  <si>
+    <t>Use Case Đăng nhập, Đăng ký</t>
+  </si>
+  <si>
+    <t>Use Case Tìm kiếm phòng, Đặt phòng</t>
+  </si>
+  <si>
+    <t>Use Case Thanh Toán,Quản lý khách hàng</t>
+  </si>
+  <si>
+    <t>Use Case Quản lý phòng, quản lý khách sạn</t>
+  </si>
+  <si>
+    <t>Phân tích chi tiết  (đặc tả use case)+ Prototype</t>
+  </si>
+  <si>
+    <t>Thời gian</t>
+  </si>
+  <si>
+    <t>Tuần 1,2</t>
+  </si>
+  <si>
+    <t>Tuần 3,4</t>
+  </si>
+  <si>
+    <t>Tuần 5,6</t>
+  </si>
+  <si>
+    <t>Chức năng tìm kiếm phòng trong danh sách phòng theo loại</t>
+  </si>
+  <si>
+    <t>Tuần 10</t>
+  </si>
+  <si>
+    <t>Triệu Thanh Vân</t>
+  </si>
+  <si>
+    <t>Trần Thị Ngọc Hân</t>
+  </si>
+  <si>
+    <t>Huỳnh Trọng Tuấn</t>
+  </si>
+  <si>
+    <t>Hồ Thanh Hiệp</t>
+  </si>
+  <si>
+    <t>Chức năng Đăng nhập, Đăng ký</t>
+  </si>
+  <si>
+    <t>Chức năng  Tìm kiếm phòng, Đặt phòng</t>
+  </si>
+  <si>
+    <t>Chức năng  Thanh Toán,Quản lý khách hàng</t>
+  </si>
+  <si>
+    <t>Chức năng  Quản lý phòng, quản lý khách sạn</t>
+  </si>
+  <si>
+    <t>Triệu Thanh Vân
+Trần Thị Ngọc Hân</t>
+  </si>
+  <si>
+    <t>Cả nhóm</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Test các chức năng </t>
+  </si>
+  <si>
+    <t>Chức năng đặt phòng</t>
+  </si>
+  <si>
+    <t>Chức năng  thanh toán (check-out)</t>
+  </si>
+  <si>
+    <t>Tuần 7,8,9</t>
   </si>
 </sst>
 </file>
@@ -166,7 +228,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="9">
+  <borders count="13">
     <border>
       <left/>
       <right/>
@@ -243,21 +305,6 @@
     </border>
     <border>
       <left style="medium">
-        <color rgb="FFCCCCCC"/>
-      </left>
-      <right style="medium">
-        <color rgb="FF000000"/>
-      </right>
-      <top style="medium">
-        <color rgb="FFCCCCCC"/>
-      </top>
-      <bottom style="medium">
-        <color rgb="FF000000"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
         <color rgb="FF000000"/>
       </left>
       <right style="medium">
@@ -286,11 +333,76 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FFCCCCCC"/>
+      </left>
+      <right style="medium">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="medium">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
@@ -298,12 +410,12 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -313,20 +425,45 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -608,25 +745,25 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D20"/>
+  <dimension ref="A1:D26"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="64" zoomScaleNormal="64" workbookViewId="0">
-      <selection activeCell="B20" sqref="B20"/>
+    <sheetView tabSelected="1" topLeftCell="A3" zoomScale="46" zoomScaleNormal="46" workbookViewId="0">
+      <selection activeCell="S10" sqref="S10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="11.125" customWidth="1"/>
-    <col min="2" max="2" width="85.875" customWidth="1"/>
+    <col min="2" max="2" width="107.375" customWidth="1"/>
     <col min="3" max="3" width="45.375" customWidth="1"/>
-    <col min="4" max="4" width="12.375" customWidth="1"/>
+    <col min="4" max="4" width="17.875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="9" t="s">
+    <row r="1" spans="1:4" ht="26.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="B1" s="10"/>
+      <c r="B1" s="9"/>
       <c r="C1" s="2"/>
       <c r="D1" s="1"/>
     </row>
@@ -637,130 +774,266 @@
       <c r="B2" s="4" t="s">
         <v>0</v>
       </c>
+      <c r="C2" s="15" t="s">
+        <v>14</v>
+      </c>
+      <c r="D2" s="15" t="s">
+        <v>21</v>
+      </c>
     </row>
     <row r="3" spans="1:4" ht="42.75" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A3" s="5">
         <v>1</v>
       </c>
-      <c r="B3" s="11" t="s">
+      <c r="B3" s="10" t="s">
         <v>2</v>
+      </c>
+      <c r="C3" s="16"/>
+      <c r="D3" s="19" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="4" spans="1:4" ht="25.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A4" s="6">
         <v>2</v>
       </c>
-      <c r="B4" s="12" t="s">
+      <c r="B4" s="11" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="5" spans="1:4" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="C4" s="16"/>
+      <c r="D4" s="20"/>
+    </row>
+    <row r="5" spans="1:4" ht="50.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A5" s="7"/>
-      <c r="B5" s="8" t="s">
+      <c r="B5" s="12" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="6" spans="1:4" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="C5" s="17" t="s">
+        <v>15</v>
+      </c>
+      <c r="D5" s="20"/>
+    </row>
+    <row r="6" spans="1:4" ht="37.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A6" s="7"/>
-      <c r="B6" s="8" t="s">
-        <v>6</v>
-      </c>
+      <c r="B6" s="13" t="s">
+        <v>20</v>
+      </c>
+      <c r="C6" s="16"/>
+      <c r="D6" s="20"/>
     </row>
     <row r="7" spans="1:4" ht="25.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A7" s="7"/>
-      <c r="B7" s="8" t="s">
+      <c r="B7" s="14" t="s">
+        <v>16</v>
+      </c>
+      <c r="C7" s="17" t="s">
+        <v>27</v>
+      </c>
+      <c r="D7" s="20"/>
+    </row>
+    <row r="8" spans="1:4" ht="25.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A8" s="7"/>
+      <c r="B8" s="14" t="s">
+        <v>17</v>
+      </c>
+      <c r="C8" s="17" t="s">
+        <v>28</v>
+      </c>
+      <c r="D8" s="20"/>
+    </row>
+    <row r="9" spans="1:4" ht="25.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A9" s="7"/>
+      <c r="B9" s="14" t="s">
+        <v>18</v>
+      </c>
+      <c r="C9" s="17" t="s">
+        <v>29</v>
+      </c>
+      <c r="D9" s="20"/>
+    </row>
+    <row r="10" spans="1:4" ht="25.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A10" s="7"/>
+      <c r="B10" s="14" t="s">
+        <v>19</v>
+      </c>
+      <c r="C10" s="17" t="s">
+        <v>30</v>
+      </c>
+      <c r="D10" s="20"/>
+    </row>
+    <row r="11" spans="1:4" ht="45.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A11" s="7"/>
+      <c r="B11" s="13" t="s">
+        <v>13</v>
+      </c>
+      <c r="C11" s="17" t="s">
+        <v>15</v>
+      </c>
+      <c r="D11" s="21"/>
+    </row>
+    <row r="12" spans="1:4" ht="23.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A12" s="6">
+        <v>3</v>
+      </c>
+      <c r="B12" s="11" t="s">
+        <v>6</v>
+      </c>
+      <c r="C12" s="16"/>
+      <c r="D12" s="19" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A13" s="7"/>
+      <c r="B13" s="13" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="8" spans="1:4" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A8" s="7"/>
-      <c r="B8" s="8" t="s">
+      <c r="C13" s="16"/>
+      <c r="D13" s="20"/>
+    </row>
+    <row r="14" spans="1:4" ht="25.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A14" s="7"/>
+      <c r="B14" s="14" t="s">
+        <v>31</v>
+      </c>
+      <c r="C14" s="17" t="s">
+        <v>27</v>
+      </c>
+      <c r="D14" s="20"/>
+    </row>
+    <row r="15" spans="1:4" ht="25.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A15" s="7"/>
+      <c r="B15" s="14" t="s">
+        <v>32</v>
+      </c>
+      <c r="C15" s="17" t="s">
+        <v>28</v>
+      </c>
+      <c r="D15" s="20"/>
+    </row>
+    <row r="16" spans="1:4" ht="25.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A16" s="7"/>
+      <c r="B16" s="14" t="s">
+        <v>33</v>
+      </c>
+      <c r="C16" s="17" t="s">
+        <v>29</v>
+      </c>
+      <c r="D16" s="20"/>
+    </row>
+    <row r="17" spans="1:4" ht="25.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A17" s="7"/>
+      <c r="B17" s="14" t="s">
+        <v>34</v>
+      </c>
+      <c r="C17" s="17" t="s">
+        <v>30</v>
+      </c>
+      <c r="D17" s="20"/>
+    </row>
+    <row r="18" spans="1:4" ht="48" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A18" s="7"/>
+      <c r="B18" s="13" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="9" spans="1:4" ht="23.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A9" s="6">
-        <v>3</v>
-      </c>
-      <c r="B9" s="12" t="s">
+      <c r="C18" s="17" t="s">
+        <v>28</v>
+      </c>
+      <c r="D18" s="21"/>
+    </row>
+    <row r="19" spans="1:4" ht="42.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A19" s="7"/>
+      <c r="B19" s="13" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="10" spans="1:4" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A10" s="7"/>
-      <c r="B10" s="8" t="s">
+      <c r="C19" s="17" t="s">
+        <v>36</v>
+      </c>
+      <c r="D19" s="19" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" ht="51.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A20" s="7"/>
+      <c r="B20" s="13" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="11" spans="1:4" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A11" s="7"/>
-      <c r="B11" s="8" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" ht="33" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A12" s="7"/>
-      <c r="B12" s="8" t="s">
+      <c r="C20" s="17" t="s">
+        <v>35</v>
+      </c>
+      <c r="D20" s="21"/>
+    </row>
+    <row r="21" spans="1:4" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A21" s="6">
+        <v>4</v>
+      </c>
+      <c r="B21" s="11" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="13" spans="1:4" ht="28.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A13" s="7"/>
-      <c r="B13" s="8" t="s">
+      <c r="C21" s="16"/>
+      <c r="D21" s="19" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" ht="21.75" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A22" s="7"/>
+      <c r="B22" s="14" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="14" spans="1:4" ht="31.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A14" s="7"/>
-      <c r="B14" s="8" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A15" s="6">
-        <v>4</v>
-      </c>
-      <c r="B15" s="12" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4" ht="21.75" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A16" s="7"/>
-      <c r="B16" s="8" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2" ht="21.75" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A17" s="7"/>
-      <c r="B17" s="8" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2" ht="21.75" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A18" s="7"/>
-      <c r="B18" s="8" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2" ht="21.75" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A19" s="6">
+      <c r="C22" s="17" t="s">
+        <v>28</v>
+      </c>
+      <c r="D22" s="20"/>
+    </row>
+    <row r="23" spans="1:4" ht="21.75" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A23" s="7"/>
+      <c r="B23" s="14" t="s">
+        <v>25</v>
+      </c>
+      <c r="C23" s="17" t="s">
+        <v>29</v>
+      </c>
+      <c r="D23" s="20"/>
+    </row>
+    <row r="24" spans="1:4" ht="21.75" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A24" s="7"/>
+      <c r="B24" s="14" t="s">
+        <v>38</v>
+      </c>
+      <c r="C24" s="17" t="s">
+        <v>27</v>
+      </c>
+      <c r="D24" s="20"/>
+    </row>
+    <row r="25" spans="1:4" ht="21.75" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A25" s="7"/>
+      <c r="B25" s="14" t="s">
+        <v>39</v>
+      </c>
+      <c r="C25" s="17" t="s">
+        <v>30</v>
+      </c>
+      <c r="D25" s="21"/>
+    </row>
+    <row r="26" spans="1:4" ht="21.75" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A26" s="6">
         <v>5</v>
       </c>
-      <c r="B19" s="12" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2" ht="21.75" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A20" s="6">
-        <v>6</v>
-      </c>
-      <c r="B20" s="12" t="s">
-        <v>18</v>
+      <c r="B26" s="11" t="s">
+        <v>37</v>
+      </c>
+      <c r="C26" s="16"/>
+      <c r="D26" s="18" t="s">
+        <v>26</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="1">
+  <mergeCells count="5">
+    <mergeCell ref="D21:D25"/>
     <mergeCell ref="A1:B1"/>
+    <mergeCell ref="D3:D11"/>
+    <mergeCell ref="D12:D18"/>
+    <mergeCell ref="D19:D20"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>

--- a/SRS/Gantt Chart.xlsx
+++ b/SRS/Gantt Chart.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="45">
   <si>
     <t>Công việc</t>
   </si>
@@ -32,22 +32,9 @@
     <t>STT</t>
   </si>
   <si>
-    <t>Github
-Outline SRS Document</t>
-  </si>
-  <si>
     <t>BẢNG KẾ HOẠCH CÔNG VIỆC</t>
   </si>
   <si>
-    <t>Phân tích</t>
-  </si>
-  <si>
-    <t>Phân tích chức năng của hệ thống</t>
-  </si>
-  <si>
-    <t>Thiết kế</t>
-  </si>
-  <si>
     <t>UML Design (Activity Diagram, Sequence Diagram)</t>
   </si>
   <si>
@@ -57,25 +44,9 @@
     <t>Thiết kế giao diện sử dụng (giao diện HTML)</t>
   </si>
   <si>
-    <t>Thiết kế dữ liệu (xây dựng cơ sở dữ liệu)</t>
-  </si>
-  <si>
-    <t>Hiện thực (Code)</t>
-  </si>
-  <si>
-    <t>Chức năng đăng ký,đăng nhập</t>
-  </si>
-  <si>
-    <t>Sơ đồ kiến trúc hệ thống và kiến trúc phần mềm</t>
-  </si>
-  <si>
     <t>Thành viên</t>
   </si>
   <si>
-    <t>Trần Thị Ngọc Hân
-Huỳnh Trọng Tuấn</t>
-  </si>
-  <si>
     <t>Use Case Đăng nhập, Đăng ký</t>
   </si>
   <si>
@@ -103,12 +74,6 @@
     <t>Tuần 5,6</t>
   </si>
   <si>
-    <t>Chức năng tìm kiếm phòng trong danh sách phòng theo loại</t>
-  </si>
-  <si>
-    <t>Tuần 10</t>
-  </si>
-  <si>
     <t>Triệu Thanh Vân</t>
   </si>
   <si>
@@ -133,30 +98,107 @@
     <t>Chức năng  Quản lý phòng, quản lý khách sạn</t>
   </si>
   <si>
-    <t>Triệu Thanh Vân
-Trần Thị Ngọc Hân</t>
-  </si>
-  <si>
     <t>Cả nhóm</t>
   </si>
   <si>
     <t xml:space="preserve">Test các chức năng </t>
   </si>
   <si>
-    <t>Chức năng đặt phòng</t>
-  </si>
-  <si>
-    <t>Chức năng  thanh toán (check-out)</t>
-  </si>
-  <si>
-    <t>Tuần 7,8,9</t>
+    <t>Mục tiêu</t>
+  </si>
+  <si>
+    <t>Tài liệu SRS (Đặc tả chức năng)</t>
+  </si>
+  <si>
+    <t>Phân tích chức năng ( vẽ Use Case Diagram)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sơ đồ kiến trúc hệ thống </t>
+  </si>
+  <si>
+    <t>Sơ đồ kiến trúc phần mềm</t>
+  </si>
+  <si>
+    <t>Tài liệu SRS (Thiết kế UML )</t>
+  </si>
+  <si>
+    <t>Giao diện và cơ sở dữ liệu của hệ thống</t>
+  </si>
+  <si>
+    <t>Insert dữ liệu vào cơ sở dữ liệu</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Xây dựng cơ sở dữ liệu </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Giao diện và xử lý </t>
+  </si>
+  <si>
+    <t>Tuần 7</t>
+  </si>
+  <si>
+    <t>Hệ thống hiển thị danh sách phòng trong cơ sở dữ liệu lên trang web</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="16"/>
+        <color rgb="FF000000"/>
+        <rFont val="Candara"/>
+        <family val="2"/>
+        <charset val="163"/>
+      </rPr>
+      <t xml:space="preserve">Hệ thống thực hiện chức năng </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color rgb="FF000000"/>
+        <rFont val="Candara"/>
+        <family val="2"/>
+        <charset val="163"/>
+      </rPr>
+      <t>đăng ký, đăng nhập vào website đặt phòng và trang admin</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Hệ thống hiện danh sách phòng theo kết quả </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="16"/>
+        <color theme="1"/>
+        <rFont val="Candara"/>
+        <family val="2"/>
+        <charset val="163"/>
+      </rPr>
+      <t>tìm kiếm</t>
+    </r>
+  </si>
+  <si>
+    <t>Hệ thống cho phép đặt phòng</t>
+  </si>
+  <si>
+    <t>Tuần 8</t>
+  </si>
+  <si>
+    <t>Hệ thống hoàn thành test các chức năng trong website đặt phòng</t>
+  </si>
+  <si>
+    <t>Hệ thống cho phép admin quản lý đặt phòng</t>
+  </si>
+  <si>
+    <t>Tuần 9,10</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -207,8 +249,16 @@
       <family val="2"/>
       <charset val="163"/>
     </font>
+    <font>
+      <b/>
+      <sz val="16"/>
+      <color theme="1"/>
+      <name val="Candara"/>
+      <family val="2"/>
+      <charset val="163"/>
+    </font>
   </fonts>
-  <fills count="4">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -221,14 +271,8 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFFF"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="13">
+  <borders count="23">
     <border>
       <left/>
       <right/>
@@ -252,19 +296,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="medium">
-        <color rgb="FFCCCCCC"/>
-      </left>
-      <right/>
-      <top style="medium">
-        <color rgb="FFCCCCCC"/>
-      </top>
-      <bottom style="medium">
-        <color rgb="FF000000"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top style="medium">
@@ -289,32 +320,153 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="medium">
-        <color rgb="FF000000"/>
+        <color rgb="FFCCCCCC"/>
       </left>
       <right style="medium">
         <color rgb="FF000000"/>
       </right>
       <top style="medium">
-        <color rgb="FFCCCCCC"/>
-      </top>
-      <bottom style="medium">
         <color rgb="FF000000"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left style="medium">
-        <color rgb="FF000000"/>
-      </left>
+      <left/>
       <right style="medium">
         <color rgb="FF000000"/>
       </right>
       <top style="medium">
         <color rgb="FF000000"/>
       </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
       <bottom style="medium">
-        <color rgb="FF000000"/>
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
       </bottom>
       <diagonal/>
     </border>
@@ -322,63 +474,31 @@
       <left style="medium">
         <color rgb="FFCCCCCC"/>
       </left>
+      <right/>
+      <top style="medium">
+        <color rgb="FFCCCCCC"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
       <right style="medium">
-        <color rgb="FF000000"/>
+        <color indexed="64"/>
       </right>
       <top style="medium">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom style="medium">
-        <color rgb="FF000000"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
+        <color indexed="64"/>
+      </top>
+      <bottom/>
       <diagonal/>
     </border>
     <border>
       <left style="medium">
-        <color rgb="FFCCCCCC"/>
+        <color indexed="64"/>
       </left>
       <right style="medium">
-        <color rgb="FF000000"/>
-      </right>
-      <top style="medium">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
         <color indexed="64"/>
       </right>
       <top/>
@@ -386,14 +506,64 @@
       <diagonal/>
     </border>
     <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color indexed="64"/>
       </left>
       <right style="thin">
         <color indexed="64"/>
       </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
       <top/>
-      <bottom style="thin">
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
         <color indexed="64"/>
       </bottom>
       <diagonal/>
@@ -402,67 +572,140 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="47">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -745,295 +988,351 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D26"/>
+  <dimension ref="A1:E25"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A3" zoomScale="46" zoomScaleNormal="46" workbookViewId="0">
-      <selection activeCell="S10" sqref="S10"/>
+    <sheetView tabSelected="1" zoomScale="57" zoomScaleNormal="57" workbookViewId="0">
+      <selection sqref="A1:C1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="11.125" customWidth="1"/>
-    <col min="2" max="2" width="107.375" customWidth="1"/>
-    <col min="3" max="3" width="45.375" customWidth="1"/>
-    <col min="4" max="4" width="17.875" customWidth="1"/>
+    <col min="2" max="2" width="95.75" customWidth="1"/>
+    <col min="3" max="3" width="107.375" customWidth="1"/>
+    <col min="4" max="4" width="45.375" customWidth="1"/>
+    <col min="5" max="5" width="17.875" customWidth="1"/>
+    <col min="10" max="10" width="30.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="26.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="8" t="s">
+    <row r="1" spans="1:5" ht="26.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="33" t="s">
+        <v>2</v>
+      </c>
+      <c r="B1" s="34"/>
+      <c r="C1" s="34"/>
+      <c r="D1" s="2"/>
+      <c r="E1" s="1"/>
+    </row>
+    <row r="2" spans="1:5" ht="21.75" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A2" s="21" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="10" t="s">
+        <v>26</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="E2" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" ht="25.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A3" s="27">
+        <v>1</v>
+      </c>
+      <c r="B3" s="30" t="s">
+        <v>27</v>
+      </c>
+      <c r="C3" s="17" t="s">
+        <v>28</v>
+      </c>
+      <c r="D3" s="18" t="s">
+        <v>17</v>
+      </c>
+      <c r="E3" s="35" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" ht="21" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A4" s="28"/>
+      <c r="B4" s="31"/>
+      <c r="C4" s="14" t="s">
+        <v>11</v>
+      </c>
+      <c r="D4" s="4"/>
+      <c r="E4" s="36"/>
+    </row>
+    <row r="5" spans="1:5" ht="25.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A5" s="28"/>
+      <c r="B5" s="31"/>
+      <c r="C5" s="15" t="s">
+        <v>7</v>
+      </c>
+      <c r="D5" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="E5" s="36"/>
+    </row>
+    <row r="6" spans="1:5" ht="25.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A6" s="28"/>
+      <c r="B6" s="31"/>
+      <c r="C6" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="D6" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="E6" s="36"/>
+    </row>
+    <row r="7" spans="1:5" ht="25.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A7" s="28"/>
+      <c r="B7" s="31"/>
+      <c r="C7" s="15" t="s">
+        <v>9</v>
+      </c>
+      <c r="D7" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="E7" s="36"/>
+    </row>
+    <row r="8" spans="1:5" ht="25.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A8" s="28"/>
+      <c r="B8" s="31"/>
+      <c r="C8" s="15" t="s">
+        <v>10</v>
+      </c>
+      <c r="D8" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="E8" s="36"/>
+    </row>
+    <row r="9" spans="1:5" ht="25.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A9" s="28"/>
+      <c r="B9" s="31"/>
+      <c r="C9" s="14" t="s">
+        <v>29</v>
+      </c>
+      <c r="D9" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="E9" s="36"/>
+    </row>
+    <row r="10" spans="1:5" ht="26.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A10" s="29"/>
+      <c r="B10" s="32"/>
+      <c r="C10" s="19" t="s">
+        <v>30</v>
+      </c>
+      <c r="D10" s="20" t="s">
+        <v>17</v>
+      </c>
+      <c r="E10" s="37"/>
+    </row>
+    <row r="11" spans="1:5" ht="23.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A11" s="27">
+        <v>2</v>
+      </c>
+      <c r="B11" s="30" t="s">
+        <v>31</v>
+      </c>
+      <c r="C11" s="24" t="s">
         <v>3</v>
       </c>
-      <c r="B1" s="9"/>
-      <c r="C1" s="2"/>
-      <c r="D1" s="1"/>
-    </row>
-    <row r="2" spans="1:4" ht="21.75" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A2" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="B2" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="C2" s="15" t="s">
+      <c r="D11" s="25"/>
+      <c r="E11" s="35" t="s">
         <v>14</v>
       </c>
-      <c r="D2" s="15" t="s">
+    </row>
+    <row r="12" spans="1:5" ht="24.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A12" s="28"/>
+      <c r="B12" s="31"/>
+      <c r="C12" s="15" t="s">
+        <v>20</v>
+      </c>
+      <c r="D12" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="E12" s="36"/>
+    </row>
+    <row r="13" spans="1:5" ht="25.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A13" s="28"/>
+      <c r="B13" s="31"/>
+      <c r="C13" s="15" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="3" spans="1:4" ht="42.75" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A3" s="5">
-        <v>1</v>
-      </c>
-      <c r="B3" s="10" t="s">
-        <v>2</v>
-      </c>
-      <c r="C3" s="16"/>
-      <c r="D3" s="19" t="s">
+      <c r="D13" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="E13" s="36"/>
+    </row>
+    <row r="14" spans="1:5" ht="25.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A14" s="28"/>
+      <c r="B14" s="31"/>
+      <c r="C14" s="15" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="4" spans="1:4" ht="25.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A4" s="6">
-        <v>2</v>
-      </c>
-      <c r="B4" s="11" t="s">
+      <c r="D14" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="E14" s="36"/>
+    </row>
+    <row r="15" spans="1:5" ht="25.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A15" s="28"/>
+      <c r="B15" s="31"/>
+      <c r="C15" s="15" t="s">
+        <v>23</v>
+      </c>
+      <c r="D15" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="E15" s="36"/>
+    </row>
+    <row r="16" spans="1:5" ht="25.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A16" s="29"/>
+      <c r="B16" s="32"/>
+      <c r="C16" s="19" t="s">
         <v>4</v>
       </c>
-      <c r="C4" s="16"/>
-      <c r="D4" s="20"/>
-    </row>
-    <row r="5" spans="1:4" ht="50.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A5" s="7"/>
-      <c r="B5" s="12" t="s">
+      <c r="D16" s="20" t="s">
+        <v>17</v>
+      </c>
+      <c r="E16" s="37"/>
+    </row>
+    <row r="17" spans="1:5" ht="34.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A17" s="43">
+        <v>3</v>
+      </c>
+      <c r="B17" s="40" t="s">
+        <v>32</v>
+      </c>
+      <c r="C17" s="22" t="s">
         <v>5</v>
       </c>
-      <c r="C5" s="17" t="s">
+      <c r="D17" s="23" t="s">
+        <v>24</v>
+      </c>
+      <c r="E17" s="38" t="s">
         <v>15</v>
       </c>
-      <c r="D5" s="20"/>
-    </row>
-    <row r="6" spans="1:4" ht="37.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A6" s="7"/>
-      <c r="B6" s="13" t="s">
-        <v>20</v>
-      </c>
-      <c r="C6" s="16"/>
-      <c r="D6" s="20"/>
-    </row>
-    <row r="7" spans="1:4" ht="25.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A7" s="7"/>
-      <c r="B7" s="14" t="s">
+    </row>
+    <row r="18" spans="1:5" ht="34.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A18" s="44"/>
+      <c r="B18" s="41"/>
+      <c r="C18" s="22" t="s">
+        <v>34</v>
+      </c>
+      <c r="D18" s="23" t="s">
+        <v>17</v>
+      </c>
+      <c r="E18" s="38"/>
+    </row>
+    <row r="19" spans="1:5" ht="27" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A19" s="45"/>
+      <c r="B19" s="42"/>
+      <c r="C19" s="14" t="s">
+        <v>33</v>
+      </c>
+      <c r="D19" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="C7" s="17" t="s">
-        <v>27</v>
-      </c>
-      <c r="D7" s="20"/>
-    </row>
-    <row r="8" spans="1:4" ht="25.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A8" s="7"/>
-      <c r="B8" s="14" t="s">
+      <c r="E19" s="39"/>
+    </row>
+    <row r="20" spans="1:5" ht="46.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A20" s="7">
+        <v>4</v>
+      </c>
+      <c r="B20" s="26" t="s">
+        <v>38</v>
+      </c>
+      <c r="C20" s="16" t="s">
+        <v>35</v>
+      </c>
+      <c r="D20" s="23" t="s">
         <v>17</v>
       </c>
-      <c r="C8" s="17" t="s">
-        <v>28</v>
-      </c>
-      <c r="D8" s="20"/>
-    </row>
-    <row r="9" spans="1:4" ht="25.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A9" s="7"/>
-      <c r="B9" s="14" t="s">
+      <c r="E20" s="39" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" ht="40.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A21" s="8">
+        <v>5</v>
+      </c>
+      <c r="B21" s="12" t="s">
+        <v>37</v>
+      </c>
+      <c r="C21" s="16" t="s">
+        <v>35</v>
+      </c>
+      <c r="D21" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="C9" s="17" t="s">
-        <v>29</v>
-      </c>
-      <c r="D9" s="20"/>
-    </row>
-    <row r="10" spans="1:4" ht="25.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A10" s="7"/>
-      <c r="B10" s="14" t="s">
-        <v>19</v>
-      </c>
-      <c r="C10" s="17" t="s">
-        <v>30</v>
-      </c>
-      <c r="D10" s="20"/>
-    </row>
-    <row r="11" spans="1:4" ht="45.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A11" s="7"/>
-      <c r="B11" s="13" t="s">
-        <v>13</v>
-      </c>
-      <c r="C11" s="17" t="s">
-        <v>15</v>
-      </c>
-      <c r="D11" s="21"/>
-    </row>
-    <row r="12" spans="1:4" ht="23.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A12" s="6">
-        <v>3</v>
-      </c>
-      <c r="B12" s="11" t="s">
+      <c r="E21" s="39"/>
+    </row>
+    <row r="22" spans="1:5" ht="46.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A22" s="8">
         <v>6</v>
       </c>
-      <c r="C12" s="16"/>
-      <c r="D12" s="19" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A13" s="7"/>
-      <c r="B13" s="13" t="s">
+      <c r="B22" s="12" t="s">
+        <v>39</v>
+      </c>
+      <c r="C22" s="16" t="s">
+        <v>35</v>
+      </c>
+      <c r="D22" s="5"/>
+      <c r="E22" s="39"/>
+    </row>
+    <row r="23" spans="1:5" ht="57.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A23" s="8">
         <v>7</v>
       </c>
-      <c r="C13" s="16"/>
-      <c r="D13" s="20"/>
-    </row>
-    <row r="14" spans="1:4" ht="25.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A14" s="7"/>
-      <c r="B14" s="14" t="s">
-        <v>31</v>
-      </c>
-      <c r="C14" s="17" t="s">
-        <v>27</v>
-      </c>
-      <c r="D14" s="20"/>
-    </row>
-    <row r="15" spans="1:4" ht="25.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A15" s="7"/>
-      <c r="B15" s="14" t="s">
-        <v>32</v>
-      </c>
-      <c r="C15" s="17" t="s">
-        <v>28</v>
-      </c>
-      <c r="D15" s="20"/>
-    </row>
-    <row r="16" spans="1:4" ht="25.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A16" s="7"/>
-      <c r="B16" s="14" t="s">
-        <v>33</v>
-      </c>
-      <c r="C16" s="17" t="s">
-        <v>29</v>
-      </c>
-      <c r="D16" s="20"/>
-    </row>
-    <row r="17" spans="1:4" ht="25.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A17" s="7"/>
-      <c r="B17" s="14" t="s">
-        <v>34</v>
-      </c>
-      <c r="C17" s="17" t="s">
-        <v>30</v>
-      </c>
-      <c r="D17" s="20"/>
-    </row>
-    <row r="18" spans="1:4" ht="48" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A18" s="7"/>
-      <c r="B18" s="13" t="s">
+      <c r="B23" s="12" t="s">
+        <v>40</v>
+      </c>
+      <c r="C23" s="16" t="s">
+        <v>35</v>
+      </c>
+      <c r="D23" s="5"/>
+      <c r="E23" s="46" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" ht="59.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A24" s="9">
         <v>8</v>
       </c>
-      <c r="C18" s="17" t="s">
-        <v>28</v>
-      </c>
-      <c r="D18" s="21"/>
-    </row>
-    <row r="19" spans="1:4" ht="42.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A19" s="7"/>
-      <c r="B19" s="13" t="s">
+      <c r="B24" s="12" t="s">
+        <v>42</v>
+      </c>
+      <c r="C24" s="16" t="s">
+        <v>25</v>
+      </c>
+      <c r="D24" s="5"/>
+      <c r="E24" s="38"/>
+    </row>
+    <row r="25" spans="1:5" ht="61.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A25" s="13">
         <v>9</v>
       </c>
-      <c r="C19" s="17" t="s">
-        <v>36</v>
-      </c>
-      <c r="D19" s="19" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4" ht="51.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A20" s="7"/>
-      <c r="B20" s="13" t="s">
-        <v>10</v>
-      </c>
-      <c r="C20" s="17" t="s">
+      <c r="B25" s="11" t="s">
+        <v>43</v>
+      </c>
+      <c r="C25" s="16" t="s">
         <v>35</v>
       </c>
-      <c r="D20" s="21"/>
-    </row>
-    <row r="21" spans="1:4" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A21" s="6">
-        <v>4</v>
-      </c>
-      <c r="B21" s="11" t="s">
-        <v>11</v>
-      </c>
-      <c r="C21" s="16"/>
-      <c r="D21" s="19" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4" ht="21.75" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A22" s="7"/>
-      <c r="B22" s="14" t="s">
-        <v>12</v>
-      </c>
-      <c r="C22" s="17" t="s">
-        <v>28</v>
-      </c>
-      <c r="D22" s="20"/>
-    </row>
-    <row r="23" spans="1:4" ht="21.75" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A23" s="7"/>
-      <c r="B23" s="14" t="s">
-        <v>25</v>
-      </c>
-      <c r="C23" s="17" t="s">
-        <v>29</v>
-      </c>
-      <c r="D23" s="20"/>
-    </row>
-    <row r="24" spans="1:4" ht="21.75" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A24" s="7"/>
-      <c r="B24" s="14" t="s">
-        <v>38</v>
-      </c>
-      <c r="C24" s="17" t="s">
-        <v>27</v>
-      </c>
-      <c r="D24" s="20"/>
-    </row>
-    <row r="25" spans="1:4" ht="21.75" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A25" s="7"/>
-      <c r="B25" s="14" t="s">
-        <v>39</v>
-      </c>
-      <c r="C25" s="17" t="s">
-        <v>30</v>
-      </c>
-      <c r="D25" s="21"/>
-    </row>
-    <row r="26" spans="1:4" ht="21.75" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A26" s="6">
-        <v>5</v>
-      </c>
-      <c r="B26" s="11" t="s">
-        <v>37</v>
-      </c>
-      <c r="C26" s="16"/>
-      <c r="D26" s="18" t="s">
-        <v>26</v>
+      <c r="D25" s="4"/>
+      <c r="E25" s="6" t="s">
+        <v>44</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="5">
-    <mergeCell ref="D21:D25"/>
-    <mergeCell ref="A1:B1"/>
-    <mergeCell ref="D3:D11"/>
-    <mergeCell ref="D12:D18"/>
-    <mergeCell ref="D19:D20"/>
+  <mergeCells count="12">
+    <mergeCell ref="E20:E22"/>
+    <mergeCell ref="E23:E24"/>
+    <mergeCell ref="E3:E10"/>
+    <mergeCell ref="E11:E16"/>
+    <mergeCell ref="E17:E19"/>
+    <mergeCell ref="B17:B19"/>
+    <mergeCell ref="A17:A19"/>
+    <mergeCell ref="A11:A16"/>
+    <mergeCell ref="A3:A10"/>
+    <mergeCell ref="B3:B10"/>
+    <mergeCell ref="B11:B16"/>
+    <mergeCell ref="A1:C1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>

--- a/SRS/Gantt Chart.xlsx
+++ b/SRS/Gantt Chart.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="44">
   <si>
     <t>Công việc</t>
   </si>
@@ -182,16 +182,13 @@
     <t>Hệ thống cho phép đặt phòng</t>
   </si>
   <si>
-    <t>Tuần 8</t>
-  </si>
-  <si>
     <t>Hệ thống hoàn thành test các chức năng trong website đặt phòng</t>
   </si>
   <si>
     <t>Hệ thống cho phép admin quản lý đặt phòng</t>
   </si>
   <si>
-    <t>Tuần 9,10</t>
+    <t>Tuần 8,9,10</t>
   </si>
 </sst>
 </file>
@@ -587,9 +584,6 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -648,6 +642,42 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -672,40 +702,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -990,8 +987,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E25"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="57" zoomScaleNormal="57" workbookViewId="0">
-      <selection sqref="A1:C1"/>
+    <sheetView tabSelected="1" topLeftCell="A14" zoomScale="57" zoomScaleNormal="57" workbookViewId="0">
+      <selection activeCell="C33" sqref="C33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1005,19 +1002,19 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="26.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="33" t="s">
+      <c r="A1" s="44" t="s">
         <v>2</v>
       </c>
-      <c r="B1" s="34"/>
-      <c r="C1" s="34"/>
+      <c r="B1" s="45"/>
+      <c r="C1" s="45"/>
       <c r="D1" s="2"/>
       <c r="E1" s="1"/>
     </row>
     <row r="2" spans="1:5" ht="21.75" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A2" s="21" t="s">
+      <c r="A2" s="20" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="10" t="s">
+      <c r="B2" s="9" t="s">
         <v>26</v>
       </c>
       <c r="C2" s="3" t="s">
@@ -1031,308 +1028,314 @@
       </c>
     </row>
     <row r="3" spans="1:5" ht="25.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="27">
+      <c r="A3" s="38">
         <v>1</v>
       </c>
-      <c r="B3" s="30" t="s">
+      <c r="B3" s="41" t="s">
         <v>27</v>
       </c>
-      <c r="C3" s="17" t="s">
+      <c r="C3" s="16" t="s">
         <v>28</v>
       </c>
-      <c r="D3" s="18" t="s">
+      <c r="D3" s="17" t="s">
         <v>17</v>
       </c>
-      <c r="E3" s="35" t="s">
+      <c r="E3" s="29" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="4" spans="1:5" ht="21" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A4" s="28"/>
-      <c r="B4" s="31"/>
-      <c r="C4" s="14" t="s">
+      <c r="A4" s="39"/>
+      <c r="B4" s="42"/>
+      <c r="C4" s="13" t="s">
         <v>11</v>
       </c>
       <c r="D4" s="4"/>
-      <c r="E4" s="36"/>
+      <c r="E4" s="30"/>
     </row>
     <row r="5" spans="1:5" ht="25.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A5" s="28"/>
-      <c r="B5" s="31"/>
-      <c r="C5" s="15" t="s">
+      <c r="A5" s="39"/>
+      <c r="B5" s="42"/>
+      <c r="C5" s="14" t="s">
         <v>7</v>
       </c>
       <c r="D5" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="E5" s="36"/>
+      <c r="E5" s="30"/>
     </row>
     <row r="6" spans="1:5" ht="25.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A6" s="28"/>
-      <c r="B6" s="31"/>
-      <c r="C6" s="15" t="s">
+      <c r="A6" s="39"/>
+      <c r="B6" s="42"/>
+      <c r="C6" s="14" t="s">
         <v>8</v>
       </c>
       <c r="D6" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="E6" s="36"/>
+      <c r="E6" s="30"/>
     </row>
     <row r="7" spans="1:5" ht="25.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A7" s="28"/>
-      <c r="B7" s="31"/>
-      <c r="C7" s="15" t="s">
+      <c r="A7" s="39"/>
+      <c r="B7" s="42"/>
+      <c r="C7" s="14" t="s">
         <v>9</v>
       </c>
       <c r="D7" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="E7" s="36"/>
+      <c r="E7" s="30"/>
     </row>
     <row r="8" spans="1:5" ht="25.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A8" s="28"/>
-      <c r="B8" s="31"/>
-      <c r="C8" s="15" t="s">
+      <c r="A8" s="39"/>
+      <c r="B8" s="42"/>
+      <c r="C8" s="14" t="s">
         <v>10</v>
       </c>
       <c r="D8" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="E8" s="36"/>
+      <c r="E8" s="30"/>
     </row>
     <row r="9" spans="1:5" ht="25.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A9" s="28"/>
-      <c r="B9" s="31"/>
-      <c r="C9" s="14" t="s">
+      <c r="A9" s="39"/>
+      <c r="B9" s="42"/>
+      <c r="C9" s="13" t="s">
         <v>29</v>
       </c>
       <c r="D9" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="E9" s="36"/>
+      <c r="E9" s="30"/>
     </row>
     <row r="10" spans="1:5" ht="26.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A10" s="29"/>
-      <c r="B10" s="32"/>
-      <c r="C10" s="19" t="s">
+      <c r="A10" s="40"/>
+      <c r="B10" s="43"/>
+      <c r="C10" s="18" t="s">
         <v>30</v>
       </c>
-      <c r="D10" s="20" t="s">
+      <c r="D10" s="19" t="s">
         <v>17</v>
       </c>
-      <c r="E10" s="37"/>
+      <c r="E10" s="31"/>
     </row>
     <row r="11" spans="1:5" ht="23.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A11" s="27">
+      <c r="A11" s="38">
         <v>2</v>
       </c>
-      <c r="B11" s="30" t="s">
+      <c r="B11" s="41" t="s">
         <v>31</v>
       </c>
-      <c r="C11" s="24" t="s">
+      <c r="C11" s="23" t="s">
         <v>3</v>
       </c>
-      <c r="D11" s="25"/>
-      <c r="E11" s="35" t="s">
+      <c r="D11" s="24"/>
+      <c r="E11" s="29" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="12" spans="1:5" ht="24.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A12" s="28"/>
-      <c r="B12" s="31"/>
-      <c r="C12" s="15" t="s">
+      <c r="A12" s="39"/>
+      <c r="B12" s="42"/>
+      <c r="C12" s="14" t="s">
         <v>20</v>
       </c>
       <c r="D12" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="E12" s="36"/>
+      <c r="E12" s="30"/>
     </row>
     <row r="13" spans="1:5" ht="25.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A13" s="28"/>
-      <c r="B13" s="31"/>
-      <c r="C13" s="15" t="s">
+      <c r="A13" s="39"/>
+      <c r="B13" s="42"/>
+      <c r="C13" s="14" t="s">
         <v>21</v>
       </c>
       <c r="D13" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="E13" s="36"/>
+      <c r="E13" s="30"/>
     </row>
     <row r="14" spans="1:5" ht="25.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A14" s="28"/>
-      <c r="B14" s="31"/>
-      <c r="C14" s="15" t="s">
+      <c r="A14" s="39"/>
+      <c r="B14" s="42"/>
+      <c r="C14" s="14" t="s">
         <v>22</v>
       </c>
       <c r="D14" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="E14" s="36"/>
+      <c r="E14" s="30"/>
     </row>
     <row r="15" spans="1:5" ht="25.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A15" s="28"/>
-      <c r="B15" s="31"/>
-      <c r="C15" s="15" t="s">
+      <c r="A15" s="39"/>
+      <c r="B15" s="42"/>
+      <c r="C15" s="14" t="s">
         <v>23</v>
       </c>
       <c r="D15" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="E15" s="36"/>
+      <c r="E15" s="30"/>
     </row>
     <row r="16" spans="1:5" ht="25.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A16" s="29"/>
-      <c r="B16" s="32"/>
-      <c r="C16" s="19" t="s">
+      <c r="A16" s="40"/>
+      <c r="B16" s="43"/>
+      <c r="C16" s="18" t="s">
         <v>4</v>
       </c>
-      <c r="D16" s="20" t="s">
+      <c r="D16" s="19" t="s">
         <v>17</v>
       </c>
-      <c r="E16" s="37"/>
+      <c r="E16" s="31"/>
     </row>
     <row r="17" spans="1:5" ht="34.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A17" s="43">
+      <c r="A17" s="35">
         <v>3</v>
       </c>
-      <c r="B17" s="40" t="s">
+      <c r="B17" s="32" t="s">
         <v>32</v>
       </c>
-      <c r="C17" s="22" t="s">
+      <c r="C17" s="21" t="s">
         <v>5</v>
       </c>
-      <c r="D17" s="23" t="s">
+      <c r="D17" s="22" t="s">
         <v>24</v>
       </c>
-      <c r="E17" s="38" t="s">
+      <c r="E17" s="28" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="18" spans="1:5" ht="34.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A18" s="44"/>
-      <c r="B18" s="41"/>
-      <c r="C18" s="22" t="s">
+      <c r="A18" s="36"/>
+      <c r="B18" s="33"/>
+      <c r="C18" s="21" t="s">
         <v>34</v>
       </c>
-      <c r="D18" s="23" t="s">
+      <c r="D18" s="22" t="s">
         <v>17</v>
       </c>
-      <c r="E18" s="38"/>
+      <c r="E18" s="28"/>
     </row>
     <row r="19" spans="1:5" ht="27" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A19" s="45"/>
-      <c r="B19" s="42"/>
-      <c r="C19" s="14" t="s">
+      <c r="A19" s="37"/>
+      <c r="B19" s="34"/>
+      <c r="C19" s="13" t="s">
         <v>33</v>
       </c>
       <c r="D19" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="E19" s="39"/>
+      <c r="E19" s="26"/>
     </row>
     <row r="20" spans="1:5" ht="46.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A20" s="7">
+      <c r="A20" s="6">
         <v>4</v>
       </c>
-      <c r="B20" s="26" t="s">
+      <c r="B20" s="25" t="s">
         <v>38</v>
       </c>
-      <c r="C20" s="16" t="s">
+      <c r="C20" s="15" t="s">
         <v>35</v>
       </c>
-      <c r="D20" s="23" t="s">
+      <c r="D20" s="22" t="s">
         <v>17</v>
       </c>
-      <c r="E20" s="39" t="s">
+      <c r="E20" s="26" t="s">
         <v>36</v>
       </c>
     </row>
     <row r="21" spans="1:5" ht="40.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A21" s="8">
+      <c r="A21" s="7">
         <v>5</v>
       </c>
-      <c r="B21" s="12" t="s">
+      <c r="B21" s="11" t="s">
         <v>37</v>
       </c>
-      <c r="C21" s="16" t="s">
+      <c r="C21" s="15" t="s">
         <v>35</v>
       </c>
       <c r="D21" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="E21" s="39"/>
+      <c r="E21" s="26"/>
     </row>
     <row r="22" spans="1:5" ht="46.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A22" s="8">
+      <c r="A22" s="7">
         <v>6</v>
       </c>
-      <c r="B22" s="12" t="s">
+      <c r="B22" s="11" t="s">
         <v>39</v>
       </c>
-      <c r="C22" s="16" t="s">
+      <c r="C22" s="15" t="s">
         <v>35</v>
       </c>
-      <c r="D22" s="5"/>
-      <c r="E22" s="39"/>
+      <c r="D22" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="E22" s="26"/>
     </row>
     <row r="23" spans="1:5" ht="57.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A23" s="8">
+      <c r="A23" s="7">
         <v>7</v>
       </c>
-      <c r="B23" s="12" t="s">
+      <c r="B23" s="11" t="s">
         <v>40</v>
       </c>
-      <c r="C23" s="16" t="s">
+      <c r="C23" s="15" t="s">
         <v>35</v>
       </c>
-      <c r="D23" s="5"/>
-      <c r="E23" s="46" t="s">
+      <c r="D23" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="E23" s="27" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" ht="59.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A24" s="8">
+        <v>8</v>
+      </c>
+      <c r="B24" s="11" t="s">
         <v>41</v>
       </c>
-    </row>
-    <row r="24" spans="1:5" ht="59.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A24" s="9">
-        <v>8</v>
-      </c>
-      <c r="B24" s="12" t="s">
+      <c r="C24" s="15" t="s">
+        <v>25</v>
+      </c>
+      <c r="D24" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="E24" s="46"/>
+    </row>
+    <row r="25" spans="1:5" ht="61.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A25" s="12">
+        <v>9</v>
+      </c>
+      <c r="B25" s="10" t="s">
         <v>42</v>
       </c>
-      <c r="C24" s="16" t="s">
-        <v>25</v>
-      </c>
-      <c r="D24" s="5"/>
-      <c r="E24" s="38"/>
-    </row>
-    <row r="25" spans="1:5" ht="61.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A25" s="13">
-        <v>9</v>
-      </c>
-      <c r="B25" s="11" t="s">
-        <v>43</v>
-      </c>
-      <c r="C25" s="16" t="s">
+      <c r="C25" s="15" t="s">
         <v>35</v>
       </c>
-      <c r="D25" s="4"/>
-      <c r="E25" s="6" t="s">
-        <v>44</v>
-      </c>
+      <c r="D25" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="E25" s="28"/>
     </row>
   </sheetData>
   <mergeCells count="12">
-    <mergeCell ref="E20:E22"/>
-    <mergeCell ref="E23:E24"/>
-    <mergeCell ref="E3:E10"/>
-    <mergeCell ref="E11:E16"/>
-    <mergeCell ref="E17:E19"/>
+    <mergeCell ref="A1:C1"/>
+    <mergeCell ref="E23:E25"/>
     <mergeCell ref="B17:B19"/>
     <mergeCell ref="A17:A19"/>
     <mergeCell ref="A11:A16"/>
     <mergeCell ref="A3:A10"/>
     <mergeCell ref="B3:B10"/>
     <mergeCell ref="B11:B16"/>
-    <mergeCell ref="A1:C1"/>
+    <mergeCell ref="E20:E22"/>
+    <mergeCell ref="E3:E10"/>
+    <mergeCell ref="E11:E16"/>
+    <mergeCell ref="E17:E19"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>

--- a/SRS/Gantt Chart.xlsx
+++ b/SRS/Gantt Chart.xlsx
@@ -642,22 +642,19 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -696,13 +693,16 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -987,7 +987,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E25"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A14" zoomScale="57" zoomScaleNormal="57" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A9" zoomScale="57" zoomScaleNormal="57" workbookViewId="0">
       <selection activeCell="C33" sqref="C33"/>
     </sheetView>
   </sheetViews>
@@ -1002,11 +1002,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="26.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="44" t="s">
+      <c r="A1" s="26" t="s">
         <v>2</v>
       </c>
-      <c r="B1" s="45"/>
-      <c r="C1" s="45"/>
+      <c r="B1" s="27"/>
+      <c r="C1" s="27"/>
       <c r="D1" s="2"/>
       <c r="E1" s="1"/>
     </row>
@@ -1028,10 +1028,10 @@
       </c>
     </row>
     <row r="3" spans="1:5" ht="25.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="38">
+      <c r="A3" s="37">
         <v>1</v>
       </c>
-      <c r="B3" s="41" t="s">
+      <c r="B3" s="40" t="s">
         <v>27</v>
       </c>
       <c r="C3" s="16" t="s">
@@ -1040,160 +1040,160 @@
       <c r="D3" s="17" t="s">
         <v>17</v>
       </c>
-      <c r="E3" s="29" t="s">
+      <c r="E3" s="44" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="4" spans="1:5" ht="21" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A4" s="39"/>
-      <c r="B4" s="42"/>
+      <c r="A4" s="38"/>
+      <c r="B4" s="41"/>
       <c r="C4" s="13" t="s">
         <v>11</v>
       </c>
       <c r="D4" s="4"/>
-      <c r="E4" s="30"/>
+      <c r="E4" s="45"/>
     </row>
     <row r="5" spans="1:5" ht="25.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A5" s="39"/>
-      <c r="B5" s="42"/>
+      <c r="A5" s="38"/>
+      <c r="B5" s="41"/>
       <c r="C5" s="14" t="s">
         <v>7</v>
       </c>
       <c r="D5" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="E5" s="30"/>
+      <c r="E5" s="45"/>
     </row>
     <row r="6" spans="1:5" ht="25.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A6" s="39"/>
-      <c r="B6" s="42"/>
+      <c r="A6" s="38"/>
+      <c r="B6" s="41"/>
       <c r="C6" s="14" t="s">
         <v>8</v>
       </c>
       <c r="D6" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="E6" s="30"/>
+      <c r="E6" s="45"/>
     </row>
     <row r="7" spans="1:5" ht="25.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A7" s="39"/>
-      <c r="B7" s="42"/>
+      <c r="A7" s="38"/>
+      <c r="B7" s="41"/>
       <c r="C7" s="14" t="s">
         <v>9</v>
       </c>
       <c r="D7" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="E7" s="30"/>
+      <c r="E7" s="45"/>
     </row>
     <row r="8" spans="1:5" ht="25.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A8" s="39"/>
-      <c r="B8" s="42"/>
+      <c r="A8" s="38"/>
+      <c r="B8" s="41"/>
       <c r="C8" s="14" t="s">
         <v>10</v>
       </c>
       <c r="D8" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="E8" s="30"/>
+      <c r="E8" s="45"/>
     </row>
     <row r="9" spans="1:5" ht="25.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A9" s="39"/>
-      <c r="B9" s="42"/>
+      <c r="A9" s="38"/>
+      <c r="B9" s="41"/>
       <c r="C9" s="13" t="s">
         <v>29</v>
       </c>
       <c r="D9" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="E9" s="30"/>
+      <c r="E9" s="45"/>
     </row>
     <row r="10" spans="1:5" ht="26.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A10" s="40"/>
-      <c r="B10" s="43"/>
+      <c r="A10" s="39"/>
+      <c r="B10" s="42"/>
       <c r="C10" s="18" t="s">
         <v>30</v>
       </c>
       <c r="D10" s="19" t="s">
         <v>17</v>
       </c>
-      <c r="E10" s="31"/>
+      <c r="E10" s="46"/>
     </row>
     <row r="11" spans="1:5" ht="23.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A11" s="38">
+      <c r="A11" s="37">
         <v>2</v>
       </c>
-      <c r="B11" s="41" t="s">
+      <c r="B11" s="40" t="s">
         <v>31</v>
       </c>
       <c r="C11" s="23" t="s">
         <v>3</v>
       </c>
       <c r="D11" s="24"/>
-      <c r="E11" s="29" t="s">
+      <c r="E11" s="44" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="12" spans="1:5" ht="24.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A12" s="39"/>
-      <c r="B12" s="42"/>
+      <c r="A12" s="38"/>
+      <c r="B12" s="41"/>
       <c r="C12" s="14" t="s">
         <v>20</v>
       </c>
       <c r="D12" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="E12" s="30"/>
+      <c r="E12" s="45"/>
     </row>
     <row r="13" spans="1:5" ht="25.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A13" s="39"/>
-      <c r="B13" s="42"/>
+      <c r="A13" s="38"/>
+      <c r="B13" s="41"/>
       <c r="C13" s="14" t="s">
         <v>21</v>
       </c>
       <c r="D13" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="E13" s="30"/>
+      <c r="E13" s="45"/>
     </row>
     <row r="14" spans="1:5" ht="25.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A14" s="39"/>
-      <c r="B14" s="42"/>
+      <c r="A14" s="38"/>
+      <c r="B14" s="41"/>
       <c r="C14" s="14" t="s">
         <v>22</v>
       </c>
       <c r="D14" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="E14" s="30"/>
+      <c r="E14" s="45"/>
     </row>
     <row r="15" spans="1:5" ht="25.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A15" s="39"/>
-      <c r="B15" s="42"/>
+      <c r="A15" s="38"/>
+      <c r="B15" s="41"/>
       <c r="C15" s="14" t="s">
         <v>23</v>
       </c>
       <c r="D15" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="E15" s="30"/>
+      <c r="E15" s="45"/>
     </row>
     <row r="16" spans="1:5" ht="25.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A16" s="40"/>
-      <c r="B16" s="43"/>
+      <c r="A16" s="39"/>
+      <c r="B16" s="42"/>
       <c r="C16" s="18" t="s">
         <v>4</v>
       </c>
       <c r="D16" s="19" t="s">
         <v>17</v>
       </c>
-      <c r="E16" s="31"/>
+      <c r="E16" s="46"/>
     </row>
     <row r="17" spans="1:5" ht="34.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A17" s="35">
+      <c r="A17" s="34">
         <v>3</v>
       </c>
-      <c r="B17" s="32" t="s">
+      <c r="B17" s="31" t="s">
         <v>32</v>
       </c>
       <c r="C17" s="21" t="s">
@@ -1202,31 +1202,31 @@
       <c r="D17" s="22" t="s">
         <v>24</v>
       </c>
-      <c r="E17" s="28" t="s">
+      <c r="E17" s="30" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="18" spans="1:5" ht="34.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A18" s="36"/>
-      <c r="B18" s="33"/>
+      <c r="A18" s="35"/>
+      <c r="B18" s="32"/>
       <c r="C18" s="21" t="s">
         <v>34</v>
       </c>
       <c r="D18" s="22" t="s">
         <v>17</v>
       </c>
-      <c r="E18" s="28"/>
+      <c r="E18" s="30"/>
     </row>
     <row r="19" spans="1:5" ht="27" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A19" s="37"/>
-      <c r="B19" s="34"/>
+      <c r="A19" s="36"/>
+      <c r="B19" s="33"/>
       <c r="C19" s="13" t="s">
         <v>33</v>
       </c>
       <c r="D19" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="E19" s="26"/>
+      <c r="E19" s="43"/>
     </row>
     <row r="20" spans="1:5" ht="46.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A20" s="6">
@@ -1241,7 +1241,7 @@
       <c r="D20" s="22" t="s">
         <v>17</v>
       </c>
-      <c r="E20" s="26" t="s">
+      <c r="E20" s="43" t="s">
         <v>36</v>
       </c>
     </row>
@@ -1258,7 +1258,7 @@
       <c r="D21" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="E21" s="26"/>
+      <c r="E21" s="43"/>
     </row>
     <row r="22" spans="1:5" ht="46.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A22" s="7">
@@ -1273,7 +1273,7 @@
       <c r="D22" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="E22" s="26"/>
+      <c r="E22" s="43"/>
     </row>
     <row r="23" spans="1:5" ht="57.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A23" s="7">
@@ -1288,7 +1288,7 @@
       <c r="D23" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="E23" s="27" t="s">
+      <c r="E23" s="28" t="s">
         <v>43</v>
       </c>
     </row>
@@ -1305,7 +1305,7 @@
       <c r="D24" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="E24" s="46"/>
+      <c r="E24" s="29"/>
     </row>
     <row r="25" spans="1:5" ht="61.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A25" s="12">
@@ -1320,7 +1320,7 @@
       <c r="D25" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="E25" s="28"/>
+      <c r="E25" s="30"/>
     </row>
   </sheetData>
   <mergeCells count="12">

--- a/SRS/Gantt Chart.xlsx
+++ b/SRS/Gantt Chart.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="44">
   <si>
     <t>Công việc</t>
   </si>
@@ -41,9 +41,6 @@
     <t>Thiết kế Class Diagram</t>
   </si>
   <si>
-    <t>Thiết kế giao diện sử dụng (giao diện HTML)</t>
-  </si>
-  <si>
     <t>Thành viên</t>
   </si>
   <si>
@@ -59,9 +56,6 @@
     <t>Use Case Quản lý phòng, quản lý khách sạn</t>
   </si>
   <si>
-    <t>Phân tích chi tiết  (đặc tả use case)+ Prototype</t>
-  </si>
-  <si>
     <t>Thời gian</t>
   </si>
   <si>
@@ -71,9 +65,6 @@
     <t>Tuần 3,4</t>
   </si>
   <si>
-    <t>Tuần 5,6</t>
-  </si>
-  <si>
     <t>Triệu Thanh Vân</t>
   </si>
   <si>
@@ -98,9 +89,6 @@
     <t>Chức năng  Quản lý phòng, quản lý khách sạn</t>
   </si>
   <si>
-    <t>Cả nhóm</t>
-  </si>
-  <si>
     <t xml:space="preserve">Test các chức năng </t>
   </si>
   <si>
@@ -122,9 +110,6 @@
     <t>Tài liệu SRS (Thiết kế UML )</t>
   </si>
   <si>
-    <t>Giao diện và cơ sở dữ liệu của hệ thống</t>
-  </si>
-  <si>
     <t>Insert dữ liệu vào cơ sở dữ liệu</t>
   </si>
   <si>
@@ -132,9 +117,6 @@
   </si>
   <si>
     <t xml:space="preserve">Giao diện và xử lý </t>
-  </si>
-  <si>
-    <t>Tuần 7</t>
   </si>
   <si>
     <t>Hệ thống hiển thị danh sách phòng trong cơ sở dữ liệu lên trang web</t>
@@ -189,6 +171,24 @@
   </si>
   <si>
     <t>Tuần 8,9,10</t>
+  </si>
+  <si>
+    <t>Thiết kế chi tiết giao diện chức năng đặt phòng</t>
+  </si>
+  <si>
+    <t>Tuần 5,6.7</t>
+  </si>
+  <si>
+    <t>Phân tích chi tiết  (đặc tả use case)</t>
+  </si>
+  <si>
+    <t>Giao diện (Prototype) và cơ sở dữ liệu của hệ thống</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Trang giao diện cho người dùng </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Trang giao diện HTML </t>
   </si>
 </sst>
 </file>
@@ -569,7 +569,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="47">
+  <cellXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
@@ -642,6 +642,12 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -693,9 +699,6 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -703,6 +706,9 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -985,10 +991,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E25"/>
+  <dimension ref="A1:E26"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A9" zoomScale="57" zoomScaleNormal="57" workbookViewId="0">
-      <selection activeCell="C33" sqref="C33"/>
+    <sheetView tabSelected="1" topLeftCell="A11" zoomScale="57" zoomScaleNormal="57" workbookViewId="0">
+      <selection activeCell="B20" sqref="B20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1002,11 +1008,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="26.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="26" t="s">
+      <c r="A1" s="28" t="s">
         <v>2</v>
       </c>
-      <c r="B1" s="27"/>
-      <c r="C1" s="27"/>
+      <c r="B1" s="29"/>
+      <c r="C1" s="29"/>
       <c r="D1" s="2"/>
       <c r="E1" s="1"/>
     </row>
@@ -1015,327 +1021,339 @@
         <v>1</v>
       </c>
       <c r="B2" s="9" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="C2" s="3" t="s">
         <v>0</v>
       </c>
       <c r="D2" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="E2" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" ht="25.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A3" s="39">
+        <v>1</v>
+      </c>
+      <c r="B3" s="42" t="s">
+        <v>23</v>
+      </c>
+      <c r="C3" s="16" t="s">
+        <v>24</v>
+      </c>
+      <c r="D3" s="17" t="s">
+        <v>14</v>
+      </c>
+      <c r="E3" s="45" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" ht="21" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A4" s="40"/>
+      <c r="B4" s="43"/>
+      <c r="C4" s="13" t="s">
+        <v>40</v>
+      </c>
+      <c r="D4" s="4"/>
+      <c r="E4" s="46"/>
+    </row>
+    <row r="5" spans="1:5" ht="25.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A5" s="40"/>
+      <c r="B5" s="43"/>
+      <c r="C5" s="14" t="s">
         <v>6</v>
       </c>
-      <c r="E2" s="3" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" ht="25.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="37">
-        <v>1</v>
-      </c>
-      <c r="B3" s="40" t="s">
+      <c r="D5" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="E5" s="46"/>
+    </row>
+    <row r="6" spans="1:5" ht="25.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A6" s="40"/>
+      <c r="B6" s="43"/>
+      <c r="C6" s="14" t="s">
+        <v>7</v>
+      </c>
+      <c r="D6" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="E6" s="46"/>
+    </row>
+    <row r="7" spans="1:5" ht="25.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A7" s="40"/>
+      <c r="B7" s="43"/>
+      <c r="C7" s="14" t="s">
+        <v>8</v>
+      </c>
+      <c r="D7" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="E7" s="46"/>
+    </row>
+    <row r="8" spans="1:5" ht="25.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A8" s="40"/>
+      <c r="B8" s="43"/>
+      <c r="C8" s="14" t="s">
+        <v>9</v>
+      </c>
+      <c r="D8" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="E8" s="46"/>
+    </row>
+    <row r="9" spans="1:5" ht="25.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A9" s="40"/>
+      <c r="B9" s="43"/>
+      <c r="C9" s="13" t="s">
+        <v>25</v>
+      </c>
+      <c r="D9" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="E9" s="46"/>
+    </row>
+    <row r="10" spans="1:5" ht="26.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A10" s="41"/>
+      <c r="B10" s="44"/>
+      <c r="C10" s="18" t="s">
+        <v>26</v>
+      </c>
+      <c r="D10" s="19" t="s">
+        <v>14</v>
+      </c>
+      <c r="E10" s="47"/>
+    </row>
+    <row r="11" spans="1:5" ht="23.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A11" s="39">
+        <v>2</v>
+      </c>
+      <c r="B11" s="42" t="s">
         <v>27</v>
-      </c>
-      <c r="C3" s="16" t="s">
-        <v>28</v>
-      </c>
-      <c r="D3" s="17" t="s">
-        <v>17</v>
-      </c>
-      <c r="E3" s="44" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" ht="21" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A4" s="38"/>
-      <c r="B4" s="41"/>
-      <c r="C4" s="13" t="s">
-        <v>11</v>
-      </c>
-      <c r="D4" s="4"/>
-      <c r="E4" s="45"/>
-    </row>
-    <row r="5" spans="1:5" ht="25.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A5" s="38"/>
-      <c r="B5" s="41"/>
-      <c r="C5" s="14" t="s">
-        <v>7</v>
-      </c>
-      <c r="D5" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="E5" s="45"/>
-    </row>
-    <row r="6" spans="1:5" ht="25.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A6" s="38"/>
-      <c r="B6" s="41"/>
-      <c r="C6" s="14" t="s">
-        <v>8</v>
-      </c>
-      <c r="D6" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="E6" s="45"/>
-    </row>
-    <row r="7" spans="1:5" ht="25.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A7" s="38"/>
-      <c r="B7" s="41"/>
-      <c r="C7" s="14" t="s">
-        <v>9</v>
-      </c>
-      <c r="D7" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="E7" s="45"/>
-    </row>
-    <row r="8" spans="1:5" ht="25.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A8" s="38"/>
-      <c r="B8" s="41"/>
-      <c r="C8" s="14" t="s">
-        <v>10</v>
-      </c>
-      <c r="D8" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="E8" s="45"/>
-    </row>
-    <row r="9" spans="1:5" ht="25.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A9" s="38"/>
-      <c r="B9" s="41"/>
-      <c r="C9" s="13" t="s">
-        <v>29</v>
-      </c>
-      <c r="D9" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="E9" s="45"/>
-    </row>
-    <row r="10" spans="1:5" ht="26.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A10" s="39"/>
-      <c r="B10" s="42"/>
-      <c r="C10" s="18" t="s">
-        <v>30</v>
-      </c>
-      <c r="D10" s="19" t="s">
-        <v>17</v>
-      </c>
-      <c r="E10" s="46"/>
-    </row>
-    <row r="11" spans="1:5" ht="23.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A11" s="37">
-        <v>2</v>
-      </c>
-      <c r="B11" s="40" t="s">
-        <v>31</v>
       </c>
       <c r="C11" s="23" t="s">
         <v>3</v>
       </c>
       <c r="D11" s="24"/>
-      <c r="E11" s="44" t="s">
+      <c r="E11" s="45" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" ht="24.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A12" s="40"/>
+      <c r="B12" s="43"/>
+      <c r="C12" s="14" t="s">
+        <v>17</v>
+      </c>
+      <c r="D12" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="E12" s="46"/>
+    </row>
+    <row r="13" spans="1:5" ht="25.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A13" s="40"/>
+      <c r="B13" s="43"/>
+      <c r="C13" s="14" t="s">
+        <v>18</v>
+      </c>
+      <c r="D13" s="5" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="12" spans="1:5" ht="24.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A12" s="38"/>
-      <c r="B12" s="41"/>
-      <c r="C12" s="14" t="s">
+      <c r="E13" s="46"/>
+    </row>
+    <row r="14" spans="1:5" ht="25.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A14" s="40"/>
+      <c r="B14" s="43"/>
+      <c r="C14" s="14" t="s">
+        <v>19</v>
+      </c>
+      <c r="D14" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="E14" s="46"/>
+    </row>
+    <row r="15" spans="1:5" ht="25.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A15" s="40"/>
+      <c r="B15" s="43"/>
+      <c r="C15" s="14" t="s">
         <v>20</v>
       </c>
-      <c r="D12" s="5" t="s">
+      <c r="D15" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="E12" s="45"/>
-    </row>
-    <row r="13" spans="1:5" ht="25.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A13" s="38"/>
-      <c r="B13" s="41"/>
-      <c r="C13" s="14" t="s">
-        <v>21</v>
-      </c>
-      <c r="D13" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="E13" s="45"/>
-    </row>
-    <row r="14" spans="1:5" ht="25.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A14" s="38"/>
-      <c r="B14" s="41"/>
-      <c r="C14" s="14" t="s">
-        <v>22</v>
-      </c>
-      <c r="D14" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="E14" s="45"/>
-    </row>
-    <row r="15" spans="1:5" ht="25.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A15" s="38"/>
-      <c r="B15" s="41"/>
-      <c r="C15" s="14" t="s">
-        <v>23</v>
-      </c>
-      <c r="D15" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="E15" s="45"/>
+      <c r="E15" s="46"/>
     </row>
     <row r="16" spans="1:5" ht="25.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A16" s="39"/>
-      <c r="B16" s="42"/>
+      <c r="A16" s="41"/>
+      <c r="B16" s="44"/>
       <c r="C16" s="18" t="s">
         <v>4</v>
       </c>
       <c r="D16" s="19" t="s">
-        <v>17</v>
-      </c>
-      <c r="E16" s="46"/>
+        <v>14</v>
+      </c>
+      <c r="E16" s="47"/>
     </row>
     <row r="17" spans="1:5" ht="34.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A17" s="34">
+      <c r="A17" s="36">
         <v>3</v>
       </c>
-      <c r="B17" s="31" t="s">
+      <c r="B17" s="33" t="s">
+        <v>41</v>
+      </c>
+      <c r="C17" s="21" t="s">
+        <v>38</v>
+      </c>
+      <c r="D17" s="22" t="s">
+        <v>13</v>
+      </c>
+      <c r="E17" s="48" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" ht="34.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A18" s="37"/>
+      <c r="B18" s="34"/>
+      <c r="C18" s="21" t="s">
+        <v>29</v>
+      </c>
+      <c r="D18" s="22" t="s">
+        <v>14</v>
+      </c>
+      <c r="E18" s="31"/>
+    </row>
+    <row r="19" spans="1:5" ht="27" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A19" s="38"/>
+      <c r="B19" s="35"/>
+      <c r="C19" s="13" t="s">
+        <v>28</v>
+      </c>
+      <c r="D19" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="E19" s="31"/>
+    </row>
+    <row r="20" spans="1:5" ht="27" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A20" s="27">
+        <v>4</v>
+      </c>
+      <c r="B20" s="26" t="s">
+        <v>43</v>
+      </c>
+      <c r="C20" s="13" t="s">
+        <v>42</v>
+      </c>
+      <c r="D20" s="22" t="s">
+        <v>14</v>
+      </c>
+      <c r="E20" s="31"/>
+    </row>
+    <row r="21" spans="1:5" ht="46.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A21" s="6">
+        <v>5</v>
+      </c>
+      <c r="B21" s="25" t="s">
         <v>32</v>
       </c>
-      <c r="C17" s="21" t="s">
-        <v>5</v>
-      </c>
-      <c r="D17" s="22" t="s">
-        <v>24</v>
-      </c>
-      <c r="E17" s="30" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5" ht="34.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A18" s="35"/>
-      <c r="B18" s="32"/>
-      <c r="C18" s="21" t="s">
-        <v>34</v>
-      </c>
-      <c r="D18" s="22" t="s">
-        <v>17</v>
-      </c>
-      <c r="E18" s="30"/>
-    </row>
-    <row r="19" spans="1:5" ht="27" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A19" s="36"/>
-      <c r="B19" s="33"/>
-      <c r="C19" s="13" t="s">
-        <v>33</v>
-      </c>
-      <c r="D19" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="E19" s="43"/>
-    </row>
-    <row r="20" spans="1:5" ht="46.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A20" s="6">
-        <v>4</v>
-      </c>
-      <c r="B20" s="25" t="s">
-        <v>38</v>
-      </c>
-      <c r="C20" s="15" t="s">
-        <v>35</v>
-      </c>
-      <c r="D20" s="22" t="s">
-        <v>17</v>
-      </c>
-      <c r="E20" s="43" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5" ht="40.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A21" s="7">
-        <v>5</v>
-      </c>
-      <c r="B21" s="11" t="s">
-        <v>37</v>
-      </c>
       <c r="C21" s="15" t="s">
-        <v>35</v>
-      </c>
-      <c r="D21" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="E21" s="43"/>
-    </row>
-    <row r="22" spans="1:5" ht="46.5" customHeight="1" x14ac:dyDescent="0.35">
+        <v>30</v>
+      </c>
+      <c r="D21" s="22" t="s">
+        <v>14</v>
+      </c>
+      <c r="E21" s="31"/>
+    </row>
+    <row r="22" spans="1:5" ht="40.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A22" s="7">
         <v>6</v>
       </c>
       <c r="B22" s="11" t="s">
-        <v>39</v>
+        <v>31</v>
       </c>
       <c r="C22" s="15" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="D22" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="E22" s="43"/>
-    </row>
-    <row r="23" spans="1:5" ht="57.75" customHeight="1" x14ac:dyDescent="0.35">
+        <v>15</v>
+      </c>
+      <c r="E22" s="31"/>
+    </row>
+    <row r="23" spans="1:5" ht="46.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A23" s="7">
         <v>7</v>
       </c>
       <c r="B23" s="11" t="s">
-        <v>40</v>
+        <v>33</v>
       </c>
       <c r="C23" s="15" t="s">
+        <v>30</v>
+      </c>
+      <c r="D23" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="E23" s="32"/>
+    </row>
+    <row r="24" spans="1:5" ht="42" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A24" s="7">
+        <v>8</v>
+      </c>
+      <c r="B24" s="11" t="s">
+        <v>34</v>
+      </c>
+      <c r="C24" s="15" t="s">
+        <v>30</v>
+      </c>
+      <c r="D24" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="E24" s="30" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" ht="59.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A25" s="8">
+        <v>9</v>
+      </c>
+      <c r="B25" s="11" t="s">
         <v>35</v>
       </c>
-      <c r="D23" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="E23" s="28" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="24" spans="1:5" ht="59.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A24" s="8">
-        <v>8</v>
-      </c>
-      <c r="B24" s="11" t="s">
-        <v>41</v>
-      </c>
-      <c r="C24" s="15" t="s">
-        <v>25</v>
-      </c>
-      <c r="D24" s="5" t="s">
+      <c r="C25" s="15" t="s">
+        <v>21</v>
+      </c>
+      <c r="D25" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="E25" s="31"/>
+    </row>
+    <row r="26" spans="1:5" ht="61.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A26" s="12">
+        <v>10</v>
+      </c>
+      <c r="B26" s="10" t="s">
+        <v>36</v>
+      </c>
+      <c r="C26" s="15" t="s">
+        <v>30</v>
+      </c>
+      <c r="D26" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="E24" s="29"/>
-    </row>
-    <row r="25" spans="1:5" ht="61.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A25" s="12">
-        <v>9</v>
-      </c>
-      <c r="B25" s="10" t="s">
-        <v>42</v>
-      </c>
-      <c r="C25" s="15" t="s">
-        <v>35</v>
-      </c>
-      <c r="D25" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="E25" s="30"/>
+      <c r="E26" s="32"/>
     </row>
   </sheetData>
-  <mergeCells count="12">
+  <mergeCells count="11">
     <mergeCell ref="A1:C1"/>
-    <mergeCell ref="E23:E25"/>
+    <mergeCell ref="E24:E26"/>
     <mergeCell ref="B17:B19"/>
     <mergeCell ref="A17:A19"/>
     <mergeCell ref="A11:A16"/>
     <mergeCell ref="A3:A10"/>
     <mergeCell ref="B3:B10"/>
     <mergeCell ref="B11:B16"/>
-    <mergeCell ref="E20:E22"/>
     <mergeCell ref="E3:E10"/>
     <mergeCell ref="E11:E16"/>
-    <mergeCell ref="E17:E19"/>
+    <mergeCell ref="E17:E23"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>

--- a/SRS/Gantt Chart.xlsx
+++ b/SRS/Gantt Chart.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="48">
   <si>
     <t>Công việc</t>
   </si>
@@ -122,63 +122,15 @@
     <t>Hệ thống hiển thị danh sách phòng trong cơ sở dữ liệu lên trang web</t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="16"/>
-        <color rgb="FF000000"/>
-        <rFont val="Candara"/>
-        <family val="2"/>
-        <charset val="163"/>
-      </rPr>
-      <t xml:space="preserve">Hệ thống thực hiện chức năng </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="16"/>
-        <color rgb="FF000000"/>
-        <rFont val="Candara"/>
-        <family val="2"/>
-        <charset val="163"/>
-      </rPr>
-      <t>đăng ký, đăng nhập vào website đặt phòng và trang admin</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Hệ thống hiện danh sách phòng theo kết quả </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="16"/>
-        <color theme="1"/>
-        <rFont val="Candara"/>
-        <family val="2"/>
-        <charset val="163"/>
-      </rPr>
-      <t>tìm kiếm</t>
-    </r>
-  </si>
-  <si>
     <t>Hệ thống cho phép đặt phòng</t>
   </si>
   <si>
     <t>Hệ thống hoàn thành test các chức năng trong website đặt phòng</t>
   </si>
   <si>
-    <t>Hệ thống cho phép admin quản lý đặt phòng</t>
-  </si>
-  <si>
-    <t>Tuần 8,9,10</t>
-  </si>
-  <si>
     <t>Thiết kế chi tiết giao diện chức năng đặt phòng</t>
   </si>
   <si>
-    <t>Tuần 5,6.7</t>
-  </si>
-  <si>
     <t>Phân tích chi tiết  (đặc tả use case)</t>
   </si>
   <si>
@@ -189,6 +141,33 @@
   </si>
   <si>
     <t xml:space="preserve">Trang giao diện HTML </t>
+  </si>
+  <si>
+    <t>Xử lý chức năng đăng ký thông tin người dùng</t>
+  </si>
+  <si>
+    <t>Xử lý chức năng đăng nhập, đăng xuất thông tin người dùng</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Xử lý chức năng hiển thị thông tin người dùng </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Hệ thống thực hiện chức năng đăng ký, đăng nhập vào website đặt phòng </t>
+  </si>
+  <si>
+    <t>Tuần 5,6</t>
+  </si>
+  <si>
+    <t>Tuần 7,8</t>
+  </si>
+  <si>
+    <t>Tuần 11,12</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Xử lý chức năng hiển thị danh sách phòng </t>
+  </si>
+  <si>
+    <t>Xử lý chức năng hiển thị danh sách phòng theo từng loại phòng</t>
   </si>
 </sst>
 </file>
@@ -569,7 +548,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="49">
+  <cellXfs count="55">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
@@ -584,12 +563,6 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -639,15 +612,18 @@
       <alignment horizontal="left" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -710,6 +686,27 @@
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -991,10 +988,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E26"/>
+  <dimension ref="A1:E27"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A11" zoomScale="57" zoomScaleNormal="57" workbookViewId="0">
-      <selection activeCell="B20" sqref="B20"/>
+    <sheetView tabSelected="1" topLeftCell="A12" zoomScale="57" zoomScaleNormal="57" workbookViewId="0">
+      <selection activeCell="D21" sqref="D21:D23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1008,19 +1005,19 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="26.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="28" t="s">
+      <c r="A1" s="27" t="s">
         <v>2</v>
       </c>
-      <c r="B1" s="29"/>
-      <c r="C1" s="29"/>
+      <c r="B1" s="28"/>
+      <c r="C1" s="28"/>
       <c r="D1" s="2"/>
       <c r="E1" s="1"/>
     </row>
     <row r="2" spans="1:5" ht="21.75" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A2" s="20" t="s">
+      <c r="A2" s="18" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="9" t="s">
+      <c r="B2" s="7" t="s">
         <v>22</v>
       </c>
       <c r="C2" s="3" t="s">
@@ -1034,317 +1031,321 @@
       </c>
     </row>
     <row r="3" spans="1:5" ht="25.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="39">
+      <c r="A3" s="38">
         <v>1</v>
       </c>
-      <c r="B3" s="42" t="s">
+      <c r="B3" s="41" t="s">
         <v>23</v>
       </c>
-      <c r="C3" s="16" t="s">
+      <c r="C3" s="14" t="s">
         <v>24</v>
       </c>
-      <c r="D3" s="17" t="s">
+      <c r="D3" s="15" t="s">
         <v>14</v>
       </c>
-      <c r="E3" s="45" t="s">
+      <c r="E3" s="44" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="4" spans="1:5" ht="21" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A4" s="40"/>
-      <c r="B4" s="43"/>
-      <c r="C4" s="13" t="s">
-        <v>40</v>
+      <c r="A4" s="39"/>
+      <c r="B4" s="42"/>
+      <c r="C4" s="11" t="s">
+        <v>35</v>
       </c>
       <c r="D4" s="4"/>
-      <c r="E4" s="46"/>
+      <c r="E4" s="45"/>
     </row>
     <row r="5" spans="1:5" ht="25.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A5" s="40"/>
-      <c r="B5" s="43"/>
-      <c r="C5" s="14" t="s">
+      <c r="A5" s="39"/>
+      <c r="B5" s="42"/>
+      <c r="C5" s="12" t="s">
         <v>6</v>
       </c>
       <c r="D5" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="E5" s="46"/>
+      <c r="E5" s="45"/>
     </row>
     <row r="6" spans="1:5" ht="25.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A6" s="40"/>
-      <c r="B6" s="43"/>
-      <c r="C6" s="14" t="s">
+      <c r="A6" s="39"/>
+      <c r="B6" s="42"/>
+      <c r="C6" s="12" t="s">
         <v>7</v>
       </c>
       <c r="D6" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="E6" s="46"/>
+      <c r="E6" s="45"/>
     </row>
     <row r="7" spans="1:5" ht="25.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A7" s="40"/>
-      <c r="B7" s="43"/>
-      <c r="C7" s="14" t="s">
+      <c r="A7" s="39"/>
+      <c r="B7" s="42"/>
+      <c r="C7" s="12" t="s">
         <v>8</v>
       </c>
       <c r="D7" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="E7" s="46"/>
+      <c r="E7" s="45"/>
     </row>
     <row r="8" spans="1:5" ht="25.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A8" s="40"/>
-      <c r="B8" s="43"/>
-      <c r="C8" s="14" t="s">
+      <c r="A8" s="39"/>
+      <c r="B8" s="42"/>
+      <c r="C8" s="12" t="s">
         <v>9</v>
       </c>
       <c r="D8" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="E8" s="46"/>
+      <c r="E8" s="45"/>
     </row>
     <row r="9" spans="1:5" ht="25.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A9" s="40"/>
-      <c r="B9" s="43"/>
-      <c r="C9" s="13" t="s">
+      <c r="A9" s="39"/>
+      <c r="B9" s="42"/>
+      <c r="C9" s="11" t="s">
         <v>25</v>
       </c>
       <c r="D9" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="E9" s="46"/>
+      <c r="E9" s="45"/>
     </row>
     <row r="10" spans="1:5" ht="26.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A10" s="41"/>
-      <c r="B10" s="44"/>
-      <c r="C10" s="18" t="s">
+      <c r="A10" s="40"/>
+      <c r="B10" s="43"/>
+      <c r="C10" s="16" t="s">
         <v>26</v>
       </c>
-      <c r="D10" s="19" t="s">
+      <c r="D10" s="17" t="s">
         <v>14</v>
       </c>
-      <c r="E10" s="47"/>
+      <c r="E10" s="46"/>
     </row>
     <row r="11" spans="1:5" ht="23.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A11" s="39">
+      <c r="A11" s="38">
         <v>2</v>
       </c>
-      <c r="B11" s="42" t="s">
+      <c r="B11" s="41" t="s">
         <v>27</v>
       </c>
-      <c r="C11" s="23" t="s">
+      <c r="C11" s="21" t="s">
         <v>3</v>
       </c>
-      <c r="D11" s="24"/>
-      <c r="E11" s="45" t="s">
+      <c r="D11" s="22"/>
+      <c r="E11" s="44" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="12" spans="1:5" ht="24.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A12" s="40"/>
-      <c r="B12" s="43"/>
-      <c r="C12" s="14" t="s">
+      <c r="A12" s="39"/>
+      <c r="B12" s="42"/>
+      <c r="C12" s="12" t="s">
         <v>17</v>
       </c>
       <c r="D12" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="E12" s="46"/>
+      <c r="E12" s="45"/>
     </row>
     <row r="13" spans="1:5" ht="25.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A13" s="40"/>
-      <c r="B13" s="43"/>
-      <c r="C13" s="14" t="s">
+      <c r="A13" s="39"/>
+      <c r="B13" s="42"/>
+      <c r="C13" s="12" t="s">
         <v>18</v>
       </c>
       <c r="D13" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="E13" s="46"/>
+      <c r="E13" s="45"/>
     </row>
     <row r="14" spans="1:5" ht="25.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A14" s="40"/>
-      <c r="B14" s="43"/>
-      <c r="C14" s="14" t="s">
+      <c r="A14" s="39"/>
+      <c r="B14" s="42"/>
+      <c r="C14" s="12" t="s">
         <v>19</v>
       </c>
       <c r="D14" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="E14" s="46"/>
+      <c r="E14" s="45"/>
     </row>
     <row r="15" spans="1:5" ht="25.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A15" s="40"/>
-      <c r="B15" s="43"/>
-      <c r="C15" s="14" t="s">
+      <c r="A15" s="39"/>
+      <c r="B15" s="42"/>
+      <c r="C15" s="12" t="s">
         <v>20</v>
       </c>
       <c r="D15" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="E15" s="46"/>
+      <c r="E15" s="45"/>
     </row>
     <row r="16" spans="1:5" ht="25.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A16" s="41"/>
-      <c r="B16" s="44"/>
-      <c r="C16" s="18" t="s">
+      <c r="A16" s="40"/>
+      <c r="B16" s="43"/>
+      <c r="C16" s="16" t="s">
         <v>4</v>
       </c>
-      <c r="D16" s="19" t="s">
+      <c r="D16" s="17" t="s">
         <v>14</v>
       </c>
-      <c r="E16" s="47"/>
+      <c r="E16" s="46"/>
     </row>
     <row r="17" spans="1:5" ht="34.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A17" s="36">
+      <c r="A17" s="35">
         <v>3</v>
       </c>
-      <c r="B17" s="33" t="s">
-        <v>41</v>
-      </c>
-      <c r="C17" s="21" t="s">
-        <v>38</v>
-      </c>
-      <c r="D17" s="22" t="s">
+      <c r="B17" s="32" t="s">
+        <v>36</v>
+      </c>
+      <c r="C17" s="19" t="s">
+        <v>34</v>
+      </c>
+      <c r="D17" s="20" t="s">
         <v>13</v>
       </c>
-      <c r="E17" s="48" t="s">
-        <v>39</v>
+      <c r="E17" s="47" t="s">
+        <v>43</v>
       </c>
     </row>
     <row r="18" spans="1:5" ht="34.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A18" s="37"/>
-      <c r="B18" s="34"/>
-      <c r="C18" s="21" t="s">
+      <c r="A18" s="36"/>
+      <c r="B18" s="33"/>
+      <c r="C18" s="19" t="s">
         <v>29</v>
       </c>
-      <c r="D18" s="22" t="s">
+      <c r="D18" s="20" t="s">
         <v>14</v>
       </c>
-      <c r="E18" s="31"/>
+      <c r="E18" s="30"/>
     </row>
     <row r="19" spans="1:5" ht="27" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A19" s="38"/>
-      <c r="B19" s="35"/>
-      <c r="C19" s="13" t="s">
+      <c r="A19" s="37"/>
+      <c r="B19" s="34"/>
+      <c r="C19" s="11" t="s">
         <v>28</v>
       </c>
       <c r="D19" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="E19" s="31"/>
+      <c r="E19" s="30"/>
     </row>
     <row r="20" spans="1:5" ht="27" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A20" s="27">
+      <c r="A20" s="24">
         <v>4</v>
       </c>
-      <c r="B20" s="26" t="s">
-        <v>43</v>
-      </c>
-      <c r="C20" s="13" t="s">
+      <c r="B20" s="23" t="s">
+        <v>38</v>
+      </c>
+      <c r="C20" s="11" t="s">
+        <v>37</v>
+      </c>
+      <c r="D20" s="20" t="s">
+        <v>14</v>
+      </c>
+      <c r="E20" s="30"/>
+    </row>
+    <row r="21" spans="1:5" ht="46.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A21" s="29">
+        <v>5</v>
+      </c>
+      <c r="B21" s="49" t="s">
         <v>42</v>
       </c>
-      <c r="D20" s="22" t="s">
+      <c r="C21" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="D21" s="29" t="s">
         <v>14</v>
       </c>
-      <c r="E20" s="31"/>
-    </row>
-    <row r="21" spans="1:5" ht="46.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A21" s="6">
-        <v>5</v>
-      </c>
-      <c r="B21" s="25" t="s">
-        <v>32</v>
-      </c>
-      <c r="C21" s="15" t="s">
-        <v>30</v>
-      </c>
-      <c r="D21" s="22" t="s">
-        <v>14</v>
-      </c>
-      <c r="E21" s="31"/>
-    </row>
-    <row r="22" spans="1:5" ht="40.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A22" s="7">
+      <c r="E21" s="30" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" ht="46.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A22" s="30"/>
+      <c r="B22" s="50"/>
+      <c r="C22" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="D22" s="30"/>
+      <c r="E22" s="30"/>
+    </row>
+    <row r="23" spans="1:5" ht="46.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A23" s="30"/>
+      <c r="B23" s="51"/>
+      <c r="C23" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="D23" s="31"/>
+      <c r="E23" s="30"/>
+    </row>
+    <row r="24" spans="1:5" ht="40.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A24" s="48">
         <v>6</v>
       </c>
-      <c r="B22" s="11" t="s">
+      <c r="B24" s="52" t="s">
         <v>31</v>
       </c>
-      <c r="C22" s="15" t="s">
-        <v>30</v>
-      </c>
-      <c r="D22" s="5" t="s">
+      <c r="C24" s="8" t="s">
+        <v>46</v>
+      </c>
+      <c r="D24" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="E22" s="31"/>
-    </row>
-    <row r="23" spans="1:5" ht="46.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A23" s="7">
-        <v>7</v>
-      </c>
-      <c r="B23" s="11" t="s">
-        <v>33</v>
-      </c>
-      <c r="C23" s="15" t="s">
-        <v>30</v>
-      </c>
-      <c r="D23" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="E23" s="32"/>
-    </row>
-    <row r="24" spans="1:5" ht="42" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A24" s="7">
-        <v>8</v>
-      </c>
-      <c r="B24" s="11" t="s">
-        <v>34</v>
-      </c>
-      <c r="C24" s="15" t="s">
-        <v>30</v>
-      </c>
-      <c r="D24" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="E24" s="30" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="25" spans="1:5" ht="59.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A25" s="8">
-        <v>9</v>
-      </c>
-      <c r="B25" s="11" t="s">
-        <v>35</v>
-      </c>
-      <c r="C25" s="15" t="s">
-        <v>21</v>
+      <c r="E24" s="30"/>
+    </row>
+    <row r="25" spans="1:5" ht="40.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A25" s="48"/>
+      <c r="B25" s="53"/>
+      <c r="C25" s="8" t="s">
+        <v>47</v>
       </c>
       <c r="D25" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="E25" s="31"/>
-    </row>
-    <row r="26" spans="1:5" ht="61.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A26" s="12">
-        <v>10</v>
-      </c>
-      <c r="B26" s="10" t="s">
-        <v>36</v>
-      </c>
-      <c r="C26" s="15" t="s">
+      <c r="E25" s="25"/>
+    </row>
+    <row r="26" spans="1:5" ht="42" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A26" s="10">
+        <v>8</v>
+      </c>
+      <c r="B26" s="54" t="s">
+        <v>32</v>
+      </c>
+      <c r="C26" s="13" t="s">
         <v>30</v>
       </c>
       <c r="D26" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="E26" s="32"/>
+        <v>14</v>
+      </c>
+      <c r="E26" s="25"/>
+    </row>
+    <row r="27" spans="1:5" ht="59.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A27" s="6">
+        <v>9</v>
+      </c>
+      <c r="B27" s="9" t="s">
+        <v>33</v>
+      </c>
+      <c r="C27" s="13" t="s">
+        <v>21</v>
+      </c>
+      <c r="D27" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="E27" s="26" t="s">
+        <v>45</v>
+      </c>
     </row>
   </sheetData>
-  <mergeCells count="11">
+  <mergeCells count="16">
+    <mergeCell ref="D21:D23"/>
+    <mergeCell ref="A21:A23"/>
+    <mergeCell ref="B24:B25"/>
+    <mergeCell ref="A24:A25"/>
     <mergeCell ref="A1:C1"/>
-    <mergeCell ref="E24:E26"/>
     <mergeCell ref="B17:B19"/>
     <mergeCell ref="A17:A19"/>
     <mergeCell ref="A11:A16"/>
@@ -1353,7 +1354,9 @@
     <mergeCell ref="B11:B16"/>
     <mergeCell ref="E3:E10"/>
     <mergeCell ref="E11:E16"/>
-    <mergeCell ref="E17:E23"/>
+    <mergeCell ref="B21:B23"/>
+    <mergeCell ref="E17:E20"/>
+    <mergeCell ref="E21:E24"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>

--- a/SRS/Gantt Chart.xlsx
+++ b/SRS/Gantt Chart.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="50">
   <si>
     <t>Công việc</t>
   </si>
@@ -168,6 +168,12 @@
   </si>
   <si>
     <t>Xử lý chức năng hiển thị danh sách phòng theo từng loại phòng</t>
+  </si>
+  <si>
+    <t>Hệ thống cho phép admin quản lý thông tin về đặt phòng</t>
+  </si>
+  <si>
+    <t>Tuần 9,10</t>
   </si>
 </sst>
 </file>
@@ -548,7 +554,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="55">
+  <cellXfs count="54">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
@@ -584,9 +590,6 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -618,25 +621,37 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -684,12 +699,6 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
@@ -699,14 +708,8 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -988,10 +991,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E27"/>
+  <dimension ref="A1:E28"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A12" zoomScale="57" zoomScaleNormal="57" workbookViewId="0">
-      <selection activeCell="D21" sqref="D21:D23"/>
+      <selection activeCell="C26" sqref="C26:C28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1005,16 +1008,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="26.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="27" t="s">
+      <c r="A1" s="33" t="s">
         <v>2</v>
       </c>
-      <c r="B1" s="28"/>
-      <c r="C1" s="28"/>
+      <c r="B1" s="34"/>
+      <c r="C1" s="34"/>
       <c r="D1" s="2"/>
       <c r="E1" s="1"/>
     </row>
     <row r="2" spans="1:5" ht="21.75" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A2" s="18" t="s">
+      <c r="A2" s="17" t="s">
         <v>1</v>
       </c>
       <c r="B2" s="7" t="s">
@@ -1031,316 +1034,337 @@
       </c>
     </row>
     <row r="3" spans="1:5" ht="25.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="38">
+      <c r="A3" s="41">
         <v>1</v>
       </c>
-      <c r="B3" s="41" t="s">
+      <c r="B3" s="44" t="s">
         <v>23</v>
       </c>
-      <c r="C3" s="14" t="s">
+      <c r="C3" s="13" t="s">
         <v>24</v>
       </c>
-      <c r="D3" s="15" t="s">
+      <c r="D3" s="14" t="s">
         <v>14</v>
       </c>
-      <c r="E3" s="44" t="s">
+      <c r="E3" s="47" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="4" spans="1:5" ht="21" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A4" s="39"/>
-      <c r="B4" s="42"/>
+      <c r="A4" s="42"/>
+      <c r="B4" s="45"/>
       <c r="C4" s="11" t="s">
         <v>35</v>
       </c>
       <c r="D4" s="4"/>
-      <c r="E4" s="45"/>
+      <c r="E4" s="48"/>
     </row>
     <row r="5" spans="1:5" ht="25.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A5" s="39"/>
-      <c r="B5" s="42"/>
+      <c r="A5" s="42"/>
+      <c r="B5" s="45"/>
       <c r="C5" s="12" t="s">
         <v>6</v>
       </c>
       <c r="D5" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="E5" s="45"/>
+      <c r="E5" s="48"/>
     </row>
     <row r="6" spans="1:5" ht="25.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A6" s="39"/>
-      <c r="B6" s="42"/>
+      <c r="A6" s="42"/>
+      <c r="B6" s="45"/>
       <c r="C6" s="12" t="s">
         <v>7</v>
       </c>
       <c r="D6" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="E6" s="45"/>
+      <c r="E6" s="48"/>
     </row>
     <row r="7" spans="1:5" ht="25.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A7" s="39"/>
-      <c r="B7" s="42"/>
+      <c r="A7" s="42"/>
+      <c r="B7" s="45"/>
       <c r="C7" s="12" t="s">
         <v>8</v>
       </c>
       <c r="D7" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="E7" s="45"/>
+      <c r="E7" s="48"/>
     </row>
     <row r="8" spans="1:5" ht="25.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A8" s="39"/>
-      <c r="B8" s="42"/>
+      <c r="A8" s="42"/>
+      <c r="B8" s="45"/>
       <c r="C8" s="12" t="s">
         <v>9</v>
       </c>
       <c r="D8" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="E8" s="45"/>
+      <c r="E8" s="48"/>
     </row>
     <row r="9" spans="1:5" ht="25.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A9" s="39"/>
-      <c r="B9" s="42"/>
+      <c r="A9" s="42"/>
+      <c r="B9" s="45"/>
       <c r="C9" s="11" t="s">
         <v>25</v>
       </c>
       <c r="D9" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="E9" s="45"/>
+      <c r="E9" s="48"/>
     </row>
     <row r="10" spans="1:5" ht="26.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A10" s="40"/>
-      <c r="B10" s="43"/>
-      <c r="C10" s="16" t="s">
+      <c r="A10" s="43"/>
+      <c r="B10" s="46"/>
+      <c r="C10" s="15" t="s">
         <v>26</v>
       </c>
-      <c r="D10" s="17" t="s">
+      <c r="D10" s="16" t="s">
         <v>14</v>
       </c>
-      <c r="E10" s="46"/>
+      <c r="E10" s="49"/>
     </row>
     <row r="11" spans="1:5" ht="23.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A11" s="38">
+      <c r="A11" s="41">
         <v>2</v>
       </c>
-      <c r="B11" s="41" t="s">
+      <c r="B11" s="44" t="s">
         <v>27</v>
       </c>
-      <c r="C11" s="21" t="s">
+      <c r="C11" s="20" t="s">
         <v>3</v>
       </c>
-      <c r="D11" s="22"/>
-      <c r="E11" s="44" t="s">
+      <c r="D11" s="21"/>
+      <c r="E11" s="47" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="12" spans="1:5" ht="24.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A12" s="39"/>
-      <c r="B12" s="42"/>
+      <c r="A12" s="42"/>
+      <c r="B12" s="45"/>
       <c r="C12" s="12" t="s">
         <v>17</v>
       </c>
       <c r="D12" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="E12" s="45"/>
+      <c r="E12" s="48"/>
     </row>
     <row r="13" spans="1:5" ht="25.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A13" s="39"/>
-      <c r="B13" s="42"/>
+      <c r="A13" s="42"/>
+      <c r="B13" s="45"/>
       <c r="C13" s="12" t="s">
         <v>18</v>
       </c>
       <c r="D13" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="E13" s="45"/>
+      <c r="E13" s="48"/>
     </row>
     <row r="14" spans="1:5" ht="25.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A14" s="39"/>
-      <c r="B14" s="42"/>
+      <c r="A14" s="42"/>
+      <c r="B14" s="45"/>
       <c r="C14" s="12" t="s">
         <v>19</v>
       </c>
       <c r="D14" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="E14" s="45"/>
+      <c r="E14" s="48"/>
     </row>
     <row r="15" spans="1:5" ht="25.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A15" s="39"/>
-      <c r="B15" s="42"/>
+      <c r="A15" s="42"/>
+      <c r="B15" s="45"/>
       <c r="C15" s="12" t="s">
         <v>20</v>
       </c>
       <c r="D15" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="E15" s="45"/>
+      <c r="E15" s="48"/>
     </row>
     <row r="16" spans="1:5" ht="25.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A16" s="40"/>
-      <c r="B16" s="43"/>
-      <c r="C16" s="16" t="s">
+      <c r="A16" s="43"/>
+      <c r="B16" s="46"/>
+      <c r="C16" s="15" t="s">
         <v>4</v>
       </c>
-      <c r="D16" s="17" t="s">
+      <c r="D16" s="16" t="s">
         <v>14</v>
       </c>
-      <c r="E16" s="46"/>
+      <c r="E16" s="49"/>
     </row>
     <row r="17" spans="1:5" ht="34.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A17" s="35">
+      <c r="A17" s="38">
         <v>3</v>
       </c>
-      <c r="B17" s="32" t="s">
+      <c r="B17" s="35" t="s">
         <v>36</v>
       </c>
-      <c r="C17" s="19" t="s">
+      <c r="C17" s="18" t="s">
         <v>34</v>
       </c>
-      <c r="D17" s="20" t="s">
+      <c r="D17" s="19" t="s">
         <v>13</v>
       </c>
-      <c r="E17" s="47" t="s">
+      <c r="E17" s="53" t="s">
         <v>43</v>
       </c>
     </row>
     <row r="18" spans="1:5" ht="34.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A18" s="36"/>
-      <c r="B18" s="33"/>
-      <c r="C18" s="19" t="s">
+      <c r="A18" s="39"/>
+      <c r="B18" s="36"/>
+      <c r="C18" s="18" t="s">
         <v>29</v>
       </c>
-      <c r="D18" s="20" t="s">
+      <c r="D18" s="19" t="s">
         <v>14</v>
       </c>
-      <c r="E18" s="30"/>
+      <c r="E18" s="28"/>
     </row>
     <row r="19" spans="1:5" ht="27" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A19" s="37"/>
-      <c r="B19" s="34"/>
+      <c r="A19" s="40"/>
+      <c r="B19" s="37"/>
       <c r="C19" s="11" t="s">
         <v>28</v>
       </c>
       <c r="D19" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="E19" s="30"/>
+      <c r="E19" s="28"/>
     </row>
     <row r="20" spans="1:5" ht="27" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A20" s="24">
+      <c r="A20" s="23">
         <v>4</v>
       </c>
-      <c r="B20" s="23" t="s">
+      <c r="B20" s="22" t="s">
         <v>38</v>
       </c>
       <c r="C20" s="11" t="s">
         <v>37</v>
       </c>
-      <c r="D20" s="20" t="s">
+      <c r="D20" s="19" t="s">
         <v>14</v>
       </c>
-      <c r="E20" s="30"/>
+      <c r="E20" s="28"/>
     </row>
     <row r="21" spans="1:5" ht="46.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A21" s="29">
+      <c r="A21" s="27">
         <v>5</v>
       </c>
-      <c r="B21" s="49" t="s">
+      <c r="B21" s="50" t="s">
         <v>42</v>
       </c>
       <c r="C21" s="8" t="s">
         <v>39</v>
       </c>
-      <c r="D21" s="29" t="s">
+      <c r="D21" s="27" t="s">
         <v>14</v>
       </c>
-      <c r="E21" s="30" t="s">
+      <c r="E21" s="27" t="s">
         <v>44</v>
       </c>
     </row>
     <row r="22" spans="1:5" ht="46.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A22" s="30"/>
-      <c r="B22" s="50"/>
+      <c r="A22" s="28"/>
+      <c r="B22" s="51"/>
       <c r="C22" s="8" t="s">
         <v>40</v>
       </c>
-      <c r="D22" s="30"/>
-      <c r="E22" s="30"/>
+      <c r="D22" s="28"/>
+      <c r="E22" s="28"/>
     </row>
     <row r="23" spans="1:5" ht="46.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A23" s="30"/>
-      <c r="B23" s="51"/>
+      <c r="A23" s="28"/>
+      <c r="B23" s="52"/>
       <c r="C23" s="8" t="s">
         <v>41</v>
       </c>
-      <c r="D23" s="31"/>
-      <c r="E23" s="30"/>
+      <c r="D23" s="29"/>
+      <c r="E23" s="29"/>
     </row>
     <row r="24" spans="1:5" ht="40.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A24" s="48">
+      <c r="A24" s="32">
         <v>6</v>
       </c>
-      <c r="B24" s="52" t="s">
+      <c r="B24" s="30" t="s">
         <v>31</v>
       </c>
       <c r="C24" s="8" t="s">
         <v>46</v>
       </c>
       <c r="D24" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="E24" s="30"/>
+        <v>14</v>
+      </c>
+      <c r="E24" s="27" t="s">
+        <v>49</v>
+      </c>
     </row>
     <row r="25" spans="1:5" ht="40.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A25" s="48"/>
-      <c r="B25" s="53"/>
+      <c r="A25" s="32"/>
+      <c r="B25" s="31"/>
       <c r="C25" s="8" t="s">
         <v>47</v>
       </c>
       <c r="D25" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="E25" s="25"/>
+      <c r="E25" s="28"/>
     </row>
     <row r="26" spans="1:5" ht="42" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A26" s="10">
         <v>8</v>
       </c>
-      <c r="B26" s="54" t="s">
+      <c r="B26" s="26" t="s">
         <v>32</v>
       </c>
-      <c r="C26" s="13" t="s">
+      <c r="C26" s="8" t="s">
         <v>30</v>
       </c>
       <c r="D26" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="E26" s="25"/>
-    </row>
-    <row r="27" spans="1:5" ht="59.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A27" s="6">
+        <v>15</v>
+      </c>
+      <c r="E26" s="28"/>
+    </row>
+    <row r="27" spans="1:5" ht="42" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A27" s="25"/>
+      <c r="B27" s="26" t="s">
+        <v>48</v>
+      </c>
+      <c r="C27" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="D27" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="E27" s="28"/>
+    </row>
+    <row r="28" spans="1:5" ht="59.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A28" s="6">
         <v>9</v>
       </c>
-      <c r="B27" s="9" t="s">
+      <c r="B28" s="9" t="s">
         <v>33</v>
       </c>
-      <c r="C27" s="13" t="s">
+      <c r="C28" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="D27" s="5" t="s">
+      <c r="D28" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="E27" s="26" t="s">
+      <c r="E28" s="24" t="s">
         <v>45</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="16">
+  <mergeCells count="17">
+    <mergeCell ref="E21:E23"/>
+    <mergeCell ref="E24:E27"/>
+    <mergeCell ref="E3:E10"/>
+    <mergeCell ref="E11:E16"/>
+    <mergeCell ref="B21:B23"/>
+    <mergeCell ref="E17:E20"/>
     <mergeCell ref="D21:D23"/>
     <mergeCell ref="A21:A23"/>
     <mergeCell ref="B24:B25"/>
@@ -1352,11 +1376,6 @@
     <mergeCell ref="A3:A10"/>
     <mergeCell ref="B3:B10"/>
     <mergeCell ref="B11:B16"/>
-    <mergeCell ref="E3:E10"/>
-    <mergeCell ref="E11:E16"/>
-    <mergeCell ref="B21:B23"/>
-    <mergeCell ref="E17:E20"/>
-    <mergeCell ref="E21:E24"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>

--- a/SRS/Gantt Chart.xlsx
+++ b/SRS/Gantt Chart.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="55">
   <si>
     <t>Công việc</t>
   </si>
@@ -89,9 +89,6 @@
     <t>Chức năng  Quản lý phòng, quản lý khách sạn</t>
   </si>
   <si>
-    <t xml:space="preserve">Test các chức năng </t>
-  </si>
-  <si>
     <t>Mục tiêu</t>
   </si>
   <si>
@@ -116,9 +113,6 @@
     <t xml:space="preserve">Xây dựng cơ sở dữ liệu </t>
   </si>
   <si>
-    <t xml:space="preserve">Giao diện và xử lý </t>
-  </si>
-  <si>
     <t>Hệ thống hiển thị danh sách phòng trong cơ sở dữ liệu lên trang web</t>
   </si>
   <si>
@@ -174,6 +168,27 @@
   </si>
   <si>
     <t>Tuần 9,10</t>
+  </si>
+  <si>
+    <t>Xử lý chọn phòng để vào Your Room của user</t>
+  </si>
+  <si>
+    <t>Xử lý thay đổi thông tin đặt phòng (số lượng, ngày check-in, check-out)</t>
+  </si>
+  <si>
+    <t>Xử lý thanh toán phòng đặt</t>
+  </si>
+  <si>
+    <t>Giao diện và xử lý thêm, xóa, sửa thông tin đặt phòng</t>
+  </si>
+  <si>
+    <t>Unit Test chức năng đặt phòng</t>
+  </si>
+  <si>
+    <t>Spring Test chức năng đặt phòng</t>
+  </si>
+  <si>
+    <t>Tuần 13,14</t>
   </si>
 </sst>
 </file>
@@ -554,7 +569,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="54">
+  <cellXfs count="53">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
@@ -569,20 +584,11 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
@@ -627,8 +633,8 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -637,6 +643,27 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -690,26 +717,11 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -991,10 +1003,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E28"/>
+  <dimension ref="A1:E31"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A12" zoomScale="57" zoomScaleNormal="57" workbookViewId="0">
-      <selection activeCell="C26" sqref="C26:C28"/>
+    <sheetView tabSelected="1" topLeftCell="A19" zoomScale="57" zoomScaleNormal="57" workbookViewId="0">
+      <selection activeCell="C28" sqref="C28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1008,20 +1020,20 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="26.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="33" t="s">
+      <c r="A1" s="37" t="s">
         <v>2</v>
       </c>
-      <c r="B1" s="34"/>
-      <c r="C1" s="34"/>
+      <c r="B1" s="38"/>
+      <c r="C1" s="38"/>
       <c r="D1" s="2"/>
       <c r="E1" s="1"/>
     </row>
     <row r="2" spans="1:5" ht="21.75" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A2" s="17" t="s">
+      <c r="A2" s="14" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="7" t="s">
-        <v>22</v>
+      <c r="B2" s="6" t="s">
+        <v>21</v>
       </c>
       <c r="C2" s="3" t="s">
         <v>0</v>
@@ -1034,338 +1046,371 @@
       </c>
     </row>
     <row r="3" spans="1:5" ht="25.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="41">
+      <c r="A3" s="45">
         <v>1</v>
       </c>
-      <c r="B3" s="44" t="s">
+      <c r="B3" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="C3" s="10" t="s">
         <v>23</v>
       </c>
-      <c r="C3" s="13" t="s">
-        <v>24</v>
-      </c>
-      <c r="D3" s="14" t="s">
+      <c r="D3" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="E3" s="47" t="s">
+      <c r="E3" s="27" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="4" spans="1:5" ht="21" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A4" s="42"/>
-      <c r="B4" s="45"/>
-      <c r="C4" s="11" t="s">
-        <v>35</v>
+      <c r="A4" s="46"/>
+      <c r="B4" s="49"/>
+      <c r="C4" s="8" t="s">
+        <v>33</v>
       </c>
       <c r="D4" s="4"/>
-      <c r="E4" s="48"/>
+      <c r="E4" s="28"/>
     </row>
     <row r="5" spans="1:5" ht="25.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A5" s="42"/>
-      <c r="B5" s="45"/>
-      <c r="C5" s="12" t="s">
+      <c r="A5" s="46"/>
+      <c r="B5" s="49"/>
+      <c r="C5" s="9" t="s">
         <v>6</v>
       </c>
       <c r="D5" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="E5" s="48"/>
+      <c r="E5" s="28"/>
     </row>
     <row r="6" spans="1:5" ht="25.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A6" s="42"/>
-      <c r="B6" s="45"/>
-      <c r="C6" s="12" t="s">
+      <c r="A6" s="46"/>
+      <c r="B6" s="49"/>
+      <c r="C6" s="9" t="s">
         <v>7</v>
       </c>
       <c r="D6" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="E6" s="48"/>
+      <c r="E6" s="28"/>
     </row>
     <row r="7" spans="1:5" ht="25.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A7" s="42"/>
-      <c r="B7" s="45"/>
-      <c r="C7" s="12" t="s">
+      <c r="A7" s="46"/>
+      <c r="B7" s="49"/>
+      <c r="C7" s="9" t="s">
         <v>8</v>
       </c>
       <c r="D7" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="E7" s="48"/>
+      <c r="E7" s="28"/>
     </row>
     <row r="8" spans="1:5" ht="25.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A8" s="42"/>
-      <c r="B8" s="45"/>
-      <c r="C8" s="12" t="s">
+      <c r="A8" s="46"/>
+      <c r="B8" s="49"/>
+      <c r="C8" s="9" t="s">
         <v>9</v>
       </c>
       <c r="D8" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="E8" s="48"/>
+      <c r="E8" s="28"/>
     </row>
     <row r="9" spans="1:5" ht="25.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A9" s="42"/>
-      <c r="B9" s="45"/>
-      <c r="C9" s="11" t="s">
-        <v>25</v>
+      <c r="A9" s="46"/>
+      <c r="B9" s="49"/>
+      <c r="C9" s="8" t="s">
+        <v>24</v>
       </c>
       <c r="D9" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="E9" s="48"/>
+      <c r="E9" s="28"/>
     </row>
     <row r="10" spans="1:5" ht="26.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A10" s="43"/>
-      <c r="B10" s="46"/>
-      <c r="C10" s="15" t="s">
+      <c r="A10" s="47"/>
+      <c r="B10" s="50"/>
+      <c r="C10" s="12" t="s">
+        <v>25</v>
+      </c>
+      <c r="D10" s="13" t="s">
+        <v>14</v>
+      </c>
+      <c r="E10" s="29"/>
+    </row>
+    <row r="11" spans="1:5" ht="23.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A11" s="45">
+        <v>2</v>
+      </c>
+      <c r="B11" s="48" t="s">
         <v>26</v>
       </c>
-      <c r="D10" s="16" t="s">
-        <v>14</v>
-      </c>
-      <c r="E10" s="49"/>
-    </row>
-    <row r="11" spans="1:5" ht="23.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A11" s="41">
-        <v>2</v>
-      </c>
-      <c r="B11" s="44" t="s">
-        <v>27</v>
-      </c>
-      <c r="C11" s="20" t="s">
+      <c r="C11" s="17" t="s">
         <v>3</v>
       </c>
-      <c r="D11" s="21"/>
-      <c r="E11" s="47" t="s">
+      <c r="D11" s="18"/>
+      <c r="E11" s="27" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="12" spans="1:5" ht="24.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A12" s="42"/>
-      <c r="B12" s="45"/>
-      <c r="C12" s="12" t="s">
+      <c r="A12" s="46"/>
+      <c r="B12" s="49"/>
+      <c r="C12" s="9" t="s">
         <v>17</v>
       </c>
       <c r="D12" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="E12" s="48"/>
+      <c r="E12" s="28"/>
     </row>
     <row r="13" spans="1:5" ht="25.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A13" s="42"/>
-      <c r="B13" s="45"/>
-      <c r="C13" s="12" t="s">
+      <c r="A13" s="46"/>
+      <c r="B13" s="49"/>
+      <c r="C13" s="9" t="s">
         <v>18</v>
       </c>
       <c r="D13" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="E13" s="48"/>
+      <c r="E13" s="28"/>
     </row>
     <row r="14" spans="1:5" ht="25.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A14" s="42"/>
-      <c r="B14" s="45"/>
-      <c r="C14" s="12" t="s">
+      <c r="A14" s="46"/>
+      <c r="B14" s="49"/>
+      <c r="C14" s="9" t="s">
         <v>19</v>
       </c>
       <c r="D14" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="E14" s="48"/>
+      <c r="E14" s="28"/>
     </row>
     <row r="15" spans="1:5" ht="25.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A15" s="42"/>
-      <c r="B15" s="45"/>
-      <c r="C15" s="12" t="s">
+      <c r="A15" s="46"/>
+      <c r="B15" s="49"/>
+      <c r="C15" s="9" t="s">
         <v>20</v>
       </c>
       <c r="D15" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="E15" s="48"/>
+      <c r="E15" s="28"/>
     </row>
     <row r="16" spans="1:5" ht="25.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A16" s="43"/>
-      <c r="B16" s="46"/>
-      <c r="C16" s="15" t="s">
+      <c r="A16" s="47"/>
+      <c r="B16" s="50"/>
+      <c r="C16" s="12" t="s">
         <v>4</v>
       </c>
-      <c r="D16" s="16" t="s">
+      <c r="D16" s="13" t="s">
         <v>14</v>
       </c>
-      <c r="E16" s="49"/>
+      <c r="E16" s="29"/>
     </row>
     <row r="17" spans="1:5" ht="34.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A17" s="38">
+      <c r="A17" s="42">
         <v>3</v>
       </c>
-      <c r="B17" s="35" t="s">
-        <v>36</v>
-      </c>
-      <c r="C17" s="18" t="s">
+      <c r="B17" s="39" t="s">
         <v>34</v>
       </c>
-      <c r="D17" s="19" t="s">
+      <c r="C17" s="15" t="s">
+        <v>32</v>
+      </c>
+      <c r="D17" s="16" t="s">
         <v>13</v>
       </c>
-      <c r="E17" s="53" t="s">
-        <v>43</v>
+      <c r="E17" s="33" t="s">
+        <v>41</v>
       </c>
     </row>
     <row r="18" spans="1:5" ht="34.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A18" s="39"/>
-      <c r="B18" s="36"/>
-      <c r="C18" s="18" t="s">
-        <v>29</v>
-      </c>
-      <c r="D18" s="19" t="s">
+      <c r="A18" s="43"/>
+      <c r="B18" s="40"/>
+      <c r="C18" s="15" t="s">
+        <v>28</v>
+      </c>
+      <c r="D18" s="16" t="s">
         <v>14</v>
       </c>
-      <c r="E18" s="28"/>
+      <c r="E18" s="25"/>
     </row>
     <row r="19" spans="1:5" ht="27" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A19" s="40"/>
-      <c r="B19" s="37"/>
-      <c r="C19" s="11" t="s">
-        <v>28</v>
+      <c r="A19" s="44"/>
+      <c r="B19" s="41"/>
+      <c r="C19" s="8" t="s">
+        <v>27</v>
       </c>
       <c r="D19" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="E19" s="28"/>
+      <c r="E19" s="25"/>
     </row>
     <row r="20" spans="1:5" ht="27" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A20" s="23">
+      <c r="A20" s="20">
         <v>4</v>
       </c>
-      <c r="B20" s="22" t="s">
+      <c r="B20" s="19" t="s">
+        <v>36</v>
+      </c>
+      <c r="C20" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="D20" s="16" t="s">
+        <v>14</v>
+      </c>
+      <c r="E20" s="25"/>
+    </row>
+    <row r="21" spans="1:5" ht="46.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A21" s="24">
+        <v>5</v>
+      </c>
+      <c r="B21" s="30" t="s">
+        <v>40</v>
+      </c>
+      <c r="C21" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="D21" s="24" t="s">
+        <v>14</v>
+      </c>
+      <c r="E21" s="24" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" ht="46.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A22" s="25"/>
+      <c r="B22" s="31"/>
+      <c r="C22" s="7" t="s">
         <v>38</v>
       </c>
-      <c r="C20" s="11" t="s">
-        <v>37</v>
-      </c>
-      <c r="D20" s="19" t="s">
-        <v>14</v>
-      </c>
-      <c r="E20" s="28"/>
-    </row>
-    <row r="21" spans="1:5" ht="46.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A21" s="27">
-        <v>5</v>
-      </c>
-      <c r="B21" s="50" t="s">
-        <v>42</v>
-      </c>
-      <c r="C21" s="8" t="s">
+      <c r="D22" s="25"/>
+      <c r="E22" s="25"/>
+    </row>
+    <row r="23" spans="1:5" ht="46.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A23" s="25"/>
+      <c r="B23" s="32"/>
+      <c r="C23" s="7" t="s">
         <v>39</v>
       </c>
-      <c r="D21" s="27" t="s">
-        <v>14</v>
-      </c>
-      <c r="E21" s="27" t="s">
+      <c r="D23" s="26"/>
+      <c r="E23" s="26"/>
+    </row>
+    <row r="24" spans="1:5" ht="40.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A24" s="36">
+        <v>6</v>
+      </c>
+      <c r="B24" s="34" t="s">
+        <v>29</v>
+      </c>
+      <c r="C24" s="7" t="s">
         <v>44</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5" ht="46.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A22" s="28"/>
-      <c r="B22" s="51"/>
-      <c r="C22" s="8" t="s">
-        <v>40</v>
-      </c>
-      <c r="D22" s="28"/>
-      <c r="E22" s="28"/>
-    </row>
-    <row r="23" spans="1:5" ht="46.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A23" s="28"/>
-      <c r="B23" s="52"/>
-      <c r="C23" s="8" t="s">
-        <v>41</v>
-      </c>
-      <c r="D23" s="29"/>
-      <c r="E23" s="29"/>
-    </row>
-    <row r="24" spans="1:5" ht="40.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A24" s="32">
-        <v>6</v>
-      </c>
-      <c r="B24" s="30" t="s">
-        <v>31</v>
-      </c>
-      <c r="C24" s="8" t="s">
-        <v>46</v>
       </c>
       <c r="D24" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="E24" s="27" t="s">
-        <v>49</v>
+      <c r="E24" s="36" t="s">
+        <v>47</v>
       </c>
     </row>
     <row r="25" spans="1:5" ht="40.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A25" s="32"/>
-      <c r="B25" s="31"/>
-      <c r="C25" s="8" t="s">
-        <v>47</v>
+      <c r="A25" s="36"/>
+      <c r="B25" s="35"/>
+      <c r="C25" s="7" t="s">
+        <v>45</v>
       </c>
       <c r="D25" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="E25" s="28"/>
+      <c r="E25" s="36"/>
     </row>
     <row r="26" spans="1:5" ht="42" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A26" s="10">
+      <c r="A26" s="24">
         <v>8</v>
       </c>
-      <c r="B26" s="26" t="s">
-        <v>32</v>
-      </c>
-      <c r="C26" s="8" t="s">
+      <c r="B26" s="34" t="s">
         <v>30</v>
+      </c>
+      <c r="C26" s="7" t="s">
+        <v>48</v>
       </c>
       <c r="D26" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="E26" s="28"/>
+      <c r="E26" s="36"/>
     </row>
     <row r="27" spans="1:5" ht="42" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A27" s="25"/>
-      <c r="B27" s="26" t="s">
-        <v>48</v>
-      </c>
-      <c r="C27" s="8" t="s">
-        <v>30</v>
+      <c r="B27" s="51"/>
+      <c r="C27" s="7" t="s">
+        <v>49</v>
       </c>
       <c r="D27" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="E27" s="28"/>
-    </row>
-    <row r="28" spans="1:5" ht="59.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A28" s="6">
-        <v>9</v>
-      </c>
-      <c r="B28" s="9" t="s">
-        <v>33</v>
-      </c>
-      <c r="C28" s="8" t="s">
-        <v>21</v>
+        <v>14</v>
+      </c>
+      <c r="E27" s="36"/>
+    </row>
+    <row r="28" spans="1:5" ht="42" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A28" s="26"/>
+      <c r="B28" s="35"/>
+      <c r="C28" s="7" t="s">
+        <v>50</v>
       </c>
       <c r="D28" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="E28" s="24" t="s">
-        <v>45</v>
+      <c r="E28" s="36"/>
+    </row>
+    <row r="29" spans="1:5" ht="69.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A29" s="22">
+        <v>9</v>
+      </c>
+      <c r="B29" s="52" t="s">
+        <v>46</v>
+      </c>
+      <c r="C29" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="D29" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="E29" s="36"/>
+    </row>
+    <row r="30" spans="1:5" ht="59.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A30" s="24">
+        <v>10</v>
+      </c>
+      <c r="B30" s="34" t="s">
+        <v>31</v>
+      </c>
+      <c r="C30" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="D30" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="E30" s="21" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" ht="59.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A31" s="26"/>
+      <c r="B31" s="35"/>
+      <c r="C31" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="D31" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="E31" s="23" t="s">
+        <v>54</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="17">
-    <mergeCell ref="E21:E23"/>
-    <mergeCell ref="E24:E27"/>
-    <mergeCell ref="E3:E10"/>
-    <mergeCell ref="E11:E16"/>
-    <mergeCell ref="B21:B23"/>
-    <mergeCell ref="E17:E20"/>
-    <mergeCell ref="D21:D23"/>
+  <mergeCells count="21">
+    <mergeCell ref="A26:A28"/>
+    <mergeCell ref="B30:B31"/>
+    <mergeCell ref="A30:A31"/>
     <mergeCell ref="A21:A23"/>
     <mergeCell ref="B24:B25"/>
     <mergeCell ref="A24:A25"/>
@@ -1376,6 +1421,14 @@
     <mergeCell ref="A3:A10"/>
     <mergeCell ref="B3:B10"/>
     <mergeCell ref="B11:B16"/>
+    <mergeCell ref="E21:E23"/>
+    <mergeCell ref="E24:E29"/>
+    <mergeCell ref="E3:E10"/>
+    <mergeCell ref="E11:E16"/>
+    <mergeCell ref="B21:B23"/>
+    <mergeCell ref="E17:E20"/>
+    <mergeCell ref="D21:D23"/>
+    <mergeCell ref="B26:B28"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>

--- a/SRS/Gantt Chart.xlsx
+++ b/SRS/Gantt Chart.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="55">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="55">
   <si>
     <t>Công việc</t>
   </si>
@@ -176,9 +176,6 @@
     <t>Xử lý thay đổi thông tin đặt phòng (số lượng, ngày check-in, check-out)</t>
   </si>
   <si>
-    <t>Xử lý thanh toán phòng đặt</t>
-  </si>
-  <si>
     <t>Giao diện và xử lý thêm, xóa, sửa thông tin đặt phòng</t>
   </si>
   <si>
@@ -189,6 +186,9 @@
   </si>
   <si>
     <t>Tuần 13,14</t>
+  </si>
+  <si>
+    <t>Xử lý thanh toán phòng đặt phòng</t>
   </si>
 </sst>
 </file>
@@ -636,6 +636,9 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -644,6 +647,57 @@
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -666,61 +720,7 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1020,11 +1020,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="26.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="37" t="s">
+      <c r="A1" s="31" t="s">
         <v>2</v>
       </c>
-      <c r="B1" s="38"/>
-      <c r="C1" s="38"/>
+      <c r="B1" s="32"/>
+      <c r="C1" s="32"/>
       <c r="D1" s="2"/>
       <c r="E1" s="1"/>
     </row>
@@ -1046,10 +1046,10 @@
       </c>
     </row>
     <row r="3" spans="1:5" ht="25.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="45">
+      <c r="A3" s="39">
         <v>1</v>
       </c>
-      <c r="B3" s="48" t="s">
+      <c r="B3" s="42" t="s">
         <v>22</v>
       </c>
       <c r="C3" s="10" t="s">
@@ -1058,160 +1058,160 @@
       <c r="D3" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="E3" s="27" t="s">
+      <c r="E3" s="45" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="4" spans="1:5" ht="21" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A4" s="46"/>
-      <c r="B4" s="49"/>
+      <c r="A4" s="40"/>
+      <c r="B4" s="43"/>
       <c r="C4" s="8" t="s">
         <v>33</v>
       </c>
       <c r="D4" s="4"/>
-      <c r="E4" s="28"/>
+      <c r="E4" s="46"/>
     </row>
     <row r="5" spans="1:5" ht="25.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A5" s="46"/>
-      <c r="B5" s="49"/>
+      <c r="A5" s="40"/>
+      <c r="B5" s="43"/>
       <c r="C5" s="9" t="s">
         <v>6</v>
       </c>
       <c r="D5" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="E5" s="28"/>
+      <c r="E5" s="46"/>
     </row>
     <row r="6" spans="1:5" ht="25.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A6" s="46"/>
-      <c r="B6" s="49"/>
+      <c r="A6" s="40"/>
+      <c r="B6" s="43"/>
       <c r="C6" s="9" t="s">
         <v>7</v>
       </c>
       <c r="D6" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="E6" s="28"/>
+      <c r="E6" s="46"/>
     </row>
     <row r="7" spans="1:5" ht="25.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A7" s="46"/>
-      <c r="B7" s="49"/>
+      <c r="A7" s="40"/>
+      <c r="B7" s="43"/>
       <c r="C7" s="9" t="s">
         <v>8</v>
       </c>
       <c r="D7" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="E7" s="28"/>
+      <c r="E7" s="46"/>
     </row>
     <row r="8" spans="1:5" ht="25.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A8" s="46"/>
-      <c r="B8" s="49"/>
+      <c r="A8" s="40"/>
+      <c r="B8" s="43"/>
       <c r="C8" s="9" t="s">
         <v>9</v>
       </c>
       <c r="D8" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="E8" s="28"/>
+      <c r="E8" s="46"/>
     </row>
     <row r="9" spans="1:5" ht="25.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A9" s="46"/>
-      <c r="B9" s="49"/>
+      <c r="A9" s="40"/>
+      <c r="B9" s="43"/>
       <c r="C9" s="8" t="s">
         <v>24</v>
       </c>
       <c r="D9" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="E9" s="28"/>
+      <c r="E9" s="46"/>
     </row>
     <row r="10" spans="1:5" ht="26.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A10" s="47"/>
-      <c r="B10" s="50"/>
+      <c r="A10" s="41"/>
+      <c r="B10" s="44"/>
       <c r="C10" s="12" t="s">
         <v>25</v>
       </c>
       <c r="D10" s="13" t="s">
         <v>14</v>
       </c>
-      <c r="E10" s="29"/>
+      <c r="E10" s="47"/>
     </row>
     <row r="11" spans="1:5" ht="23.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A11" s="45">
+      <c r="A11" s="39">
         <v>2</v>
       </c>
-      <c r="B11" s="48" t="s">
+      <c r="B11" s="42" t="s">
         <v>26</v>
       </c>
       <c r="C11" s="17" t="s">
         <v>3</v>
       </c>
       <c r="D11" s="18"/>
-      <c r="E11" s="27" t="s">
+      <c r="E11" s="45" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="12" spans="1:5" ht="24.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A12" s="46"/>
-      <c r="B12" s="49"/>
+      <c r="A12" s="40"/>
+      <c r="B12" s="43"/>
       <c r="C12" s="9" t="s">
         <v>17</v>
       </c>
       <c r="D12" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="E12" s="28"/>
+      <c r="E12" s="46"/>
     </row>
     <row r="13" spans="1:5" ht="25.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A13" s="46"/>
-      <c r="B13" s="49"/>
+      <c r="A13" s="40"/>
+      <c r="B13" s="43"/>
       <c r="C13" s="9" t="s">
         <v>18</v>
       </c>
       <c r="D13" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="E13" s="28"/>
+      <c r="E13" s="46"/>
     </row>
     <row r="14" spans="1:5" ht="25.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A14" s="46"/>
-      <c r="B14" s="49"/>
+      <c r="A14" s="40"/>
+      <c r="B14" s="43"/>
       <c r="C14" s="9" t="s">
         <v>19</v>
       </c>
       <c r="D14" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="E14" s="28"/>
+      <c r="E14" s="46"/>
     </row>
     <row r="15" spans="1:5" ht="25.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A15" s="46"/>
-      <c r="B15" s="49"/>
+      <c r="A15" s="40"/>
+      <c r="B15" s="43"/>
       <c r="C15" s="9" t="s">
         <v>20</v>
       </c>
       <c r="D15" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="E15" s="28"/>
+      <c r="E15" s="46"/>
     </row>
     <row r="16" spans="1:5" ht="25.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A16" s="47"/>
-      <c r="B16" s="50"/>
+      <c r="A16" s="41"/>
+      <c r="B16" s="44"/>
       <c r="C16" s="12" t="s">
         <v>4</v>
       </c>
       <c r="D16" s="13" t="s">
         <v>14</v>
       </c>
-      <c r="E16" s="29"/>
+      <c r="E16" s="47"/>
     </row>
     <row r="17" spans="1:5" ht="34.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A17" s="42">
+      <c r="A17" s="36">
         <v>3</v>
       </c>
-      <c r="B17" s="39" t="s">
+      <c r="B17" s="33" t="s">
         <v>34</v>
       </c>
       <c r="C17" s="15" t="s">
@@ -1220,31 +1220,31 @@
       <c r="D17" s="16" t="s">
         <v>13</v>
       </c>
-      <c r="E17" s="33" t="s">
+      <c r="E17" s="51" t="s">
         <v>41</v>
       </c>
     </row>
     <row r="18" spans="1:5" ht="34.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A18" s="43"/>
-      <c r="B18" s="40"/>
+      <c r="A18" s="37"/>
+      <c r="B18" s="34"/>
       <c r="C18" s="15" t="s">
         <v>28</v>
       </c>
       <c r="D18" s="16" t="s">
         <v>14</v>
       </c>
-      <c r="E18" s="25"/>
+      <c r="E18" s="26"/>
     </row>
     <row r="19" spans="1:5" ht="27" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A19" s="44"/>
-      <c r="B19" s="41"/>
+      <c r="A19" s="38"/>
+      <c r="B19" s="35"/>
       <c r="C19" s="8" t="s">
         <v>27</v>
       </c>
       <c r="D19" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="E19" s="25"/>
+      <c r="E19" s="26"/>
     </row>
     <row r="20" spans="1:5" ht="27" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A20" s="20">
@@ -1259,76 +1259,74 @@
       <c r="D20" s="16" t="s">
         <v>14</v>
       </c>
-      <c r="E20" s="25"/>
+      <c r="E20" s="26"/>
     </row>
     <row r="21" spans="1:5" ht="46.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A21" s="24">
+      <c r="A21" s="25">
         <v>5</v>
       </c>
-      <c r="B21" s="30" t="s">
+      <c r="B21" s="48" t="s">
         <v>40</v>
       </c>
       <c r="C21" s="7" t="s">
         <v>37</v>
       </c>
-      <c r="D21" s="24" t="s">
+      <c r="D21" s="25" t="s">
         <v>14</v>
       </c>
-      <c r="E21" s="24" t="s">
+      <c r="E21" s="25" t="s">
         <v>42</v>
       </c>
     </row>
     <row r="22" spans="1:5" ht="46.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A22" s="25"/>
-      <c r="B22" s="31"/>
+      <c r="A22" s="26"/>
+      <c r="B22" s="49"/>
       <c r="C22" s="7" t="s">
         <v>38</v>
       </c>
-      <c r="D22" s="25"/>
-      <c r="E22" s="25"/>
+      <c r="D22" s="26"/>
+      <c r="E22" s="26"/>
     </row>
     <row r="23" spans="1:5" ht="46.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A23" s="25"/>
-      <c r="B23" s="32"/>
+      <c r="A23" s="26"/>
+      <c r="B23" s="50"/>
       <c r="C23" s="7" t="s">
         <v>39</v>
       </c>
-      <c r="D23" s="26"/>
-      <c r="E23" s="26"/>
+      <c r="D23" s="27"/>
+      <c r="E23" s="27"/>
     </row>
     <row r="24" spans="1:5" ht="40.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A24" s="36">
+      <c r="A24" s="30">
         <v>6</v>
       </c>
-      <c r="B24" s="34" t="s">
+      <c r="B24" s="28" t="s">
         <v>29</v>
       </c>
       <c r="C24" s="7" t="s">
         <v>44</v>
       </c>
-      <c r="D24" s="5" t="s">
+      <c r="D24" s="25" t="s">
         <v>14</v>
       </c>
-      <c r="E24" s="36" t="s">
+      <c r="E24" s="30" t="s">
         <v>47</v>
       </c>
     </row>
     <row r="25" spans="1:5" ht="40.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A25" s="36"/>
-      <c r="B25" s="35"/>
+      <c r="A25" s="30"/>
+      <c r="B25" s="29"/>
       <c r="C25" s="7" t="s">
         <v>45</v>
       </c>
-      <c r="D25" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="E25" s="36"/>
+      <c r="D25" s="27"/>
+      <c r="E25" s="30"/>
     </row>
     <row r="26" spans="1:5" ht="42" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A26" s="24">
+      <c r="A26" s="25">
         <v>8</v>
       </c>
-      <c r="B26" s="34" t="s">
+      <c r="B26" s="28" t="s">
         <v>30</v>
       </c>
       <c r="C26" s="7" t="s">
@@ -1337,54 +1335,54 @@
       <c r="D26" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="E26" s="36"/>
+      <c r="E26" s="30"/>
     </row>
     <row r="27" spans="1:5" ht="42" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A27" s="25"/>
-      <c r="B27" s="51"/>
+      <c r="A27" s="26"/>
+      <c r="B27" s="52"/>
       <c r="C27" s="7" t="s">
         <v>49</v>
       </c>
       <c r="D27" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="E27" s="36"/>
+      <c r="E27" s="30"/>
     </row>
     <row r="28" spans="1:5" ht="42" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A28" s="26"/>
-      <c r="B28" s="35"/>
+      <c r="A28" s="27"/>
+      <c r="B28" s="29"/>
       <c r="C28" s="7" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="D28" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="E28" s="36"/>
-    </row>
-    <row r="29" spans="1:5" ht="69.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="E28" s="30"/>
+    </row>
+    <row r="29" spans="1:5" ht="39.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A29" s="22">
         <v>9</v>
       </c>
-      <c r="B29" s="52" t="s">
+      <c r="B29" s="24" t="s">
         <v>46</v>
       </c>
       <c r="C29" s="7" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D29" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="E29" s="36"/>
+      <c r="E29" s="30"/>
     </row>
     <row r="30" spans="1:5" ht="59.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A30" s="24">
+      <c r="A30" s="25">
         <v>10</v>
       </c>
-      <c r="B30" s="34" t="s">
+      <c r="B30" s="28" t="s">
         <v>31</v>
       </c>
       <c r="C30" s="7" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="D30" s="5" t="s">
         <v>13</v>
@@ -1394,33 +1392,20 @@
       </c>
     </row>
     <row r="31" spans="1:5" ht="59.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A31" s="26"/>
-      <c r="B31" s="35"/>
+      <c r="A31" s="27"/>
+      <c r="B31" s="29"/>
       <c r="C31" s="7" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D31" s="5" t="s">
         <v>13</v>
       </c>
       <c r="E31" s="23" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="21">
-    <mergeCell ref="A26:A28"/>
-    <mergeCell ref="B30:B31"/>
-    <mergeCell ref="A30:A31"/>
-    <mergeCell ref="A21:A23"/>
-    <mergeCell ref="B24:B25"/>
-    <mergeCell ref="A24:A25"/>
-    <mergeCell ref="A1:C1"/>
-    <mergeCell ref="B17:B19"/>
-    <mergeCell ref="A17:A19"/>
-    <mergeCell ref="A11:A16"/>
-    <mergeCell ref="A3:A10"/>
-    <mergeCell ref="B3:B10"/>
-    <mergeCell ref="B11:B16"/>
+  <mergeCells count="22">
     <mergeCell ref="E21:E23"/>
     <mergeCell ref="E24:E29"/>
     <mergeCell ref="E3:E10"/>
@@ -1429,6 +1414,20 @@
     <mergeCell ref="E17:E20"/>
     <mergeCell ref="D21:D23"/>
     <mergeCell ref="B26:B28"/>
+    <mergeCell ref="D24:D25"/>
+    <mergeCell ref="A1:C1"/>
+    <mergeCell ref="B17:B19"/>
+    <mergeCell ref="A17:A19"/>
+    <mergeCell ref="A11:A16"/>
+    <mergeCell ref="A3:A10"/>
+    <mergeCell ref="B3:B10"/>
+    <mergeCell ref="B11:B16"/>
+    <mergeCell ref="A26:A28"/>
+    <mergeCell ref="B30:B31"/>
+    <mergeCell ref="A30:A31"/>
+    <mergeCell ref="A21:A23"/>
+    <mergeCell ref="B24:B25"/>
+    <mergeCell ref="A24:A25"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>

--- a/SRS/Gantt Chart.xlsx
+++ b/SRS/Gantt Chart.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="55">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="55">
   <si>
     <t>Công việc</t>
   </si>
@@ -155,9 +155,6 @@
     <t>Tuần 7,8</t>
   </si>
   <si>
-    <t>Tuần 11,12</t>
-  </si>
-  <si>
     <t xml:space="preserve">Xử lý chức năng hiển thị danh sách phòng </t>
   </si>
   <si>
@@ -170,9 +167,6 @@
     <t>Tuần 9,10</t>
   </si>
   <si>
-    <t>Xử lý chọn phòng để vào Your Room của user</t>
-  </si>
-  <si>
     <t>Xử lý thay đổi thông tin đặt phòng (số lượng, ngày check-in, check-out)</t>
   </si>
   <si>
@@ -182,13 +176,19 @@
     <t>Unit Test chức năng đặt phòng</t>
   </si>
   <si>
-    <t>Spring Test chức năng đặt phòng</t>
-  </si>
-  <si>
-    <t>Tuần 13,14</t>
-  </si>
-  <si>
     <t>Xử lý thanh toán phòng đặt phòng</t>
+  </si>
+  <si>
+    <t>Xử lý chọn phòng để vào Your Booking</t>
+  </si>
+  <si>
+    <t>Hệ thống thực hiện thanh toán trực tuyến</t>
+  </si>
+  <si>
+    <t>Tuần 11,12,13</t>
+  </si>
+  <si>
+    <t>Tuần 14</t>
   </si>
 </sst>
 </file>
@@ -215,14 +215,6 @@
       <color rgb="FFFF0000"/>
       <name val="Arial"/>
       <family val="2"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="16"/>
-      <color rgb="FFFF0000"/>
-      <name val="Candara"/>
-      <family val="2"/>
-      <charset val="163"/>
     </font>
     <font>
       <b/>
@@ -254,6 +246,14 @@
       <family val="2"/>
       <charset val="163"/>
     </font>
+    <font>
+      <b/>
+      <sz val="20"/>
+      <color rgb="FFFF0000"/>
+      <name val="Candara"/>
+      <family val="2"/>
+      <charset val="163"/>
+    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -269,7 +269,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="23">
+  <borders count="31">
     <border>
       <left/>
       <right/>
@@ -565,11 +565,111 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="53">
+  <cellXfs count="68">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
@@ -577,151 +677,196 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1003,10 +1148,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E31"/>
+  <dimension ref="A1:E30"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" zoomScale="57" zoomScaleNormal="57" workbookViewId="0">
-      <selection activeCell="C28" sqref="C28"/>
+    <sheetView tabSelected="1" zoomScale="57" zoomScaleNormal="57" workbookViewId="0">
+      <selection sqref="A1:C1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1020,11 +1165,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="26.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="31" t="s">
+      <c r="A1" s="66" t="s">
         <v>2</v>
       </c>
-      <c r="B1" s="32"/>
-      <c r="C1" s="32"/>
+      <c r="B1" s="67"/>
+      <c r="C1" s="67"/>
       <c r="D1" s="2"/>
       <c r="E1" s="1"/>
     </row>
@@ -1046,10 +1191,10 @@
       </c>
     </row>
     <row r="3" spans="1:5" ht="25.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="39">
+      <c r="A3" s="46">
         <v>1</v>
       </c>
-      <c r="B3" s="42" t="s">
+      <c r="B3" s="49" t="s">
         <v>22</v>
       </c>
       <c r="C3" s="10" t="s">
@@ -1058,160 +1203,160 @@
       <c r="D3" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="E3" s="45" t="s">
+      <c r="E3" s="55" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="4" spans="1:5" ht="21" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A4" s="40"/>
-      <c r="B4" s="43"/>
+      <c r="A4" s="47"/>
+      <c r="B4" s="50"/>
       <c r="C4" s="8" t="s">
         <v>33</v>
       </c>
       <c r="D4" s="4"/>
-      <c r="E4" s="46"/>
+      <c r="E4" s="56"/>
     </row>
     <row r="5" spans="1:5" ht="25.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A5" s="40"/>
-      <c r="B5" s="43"/>
+      <c r="A5" s="47"/>
+      <c r="B5" s="50"/>
       <c r="C5" s="9" t="s">
         <v>6</v>
       </c>
       <c r="D5" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="E5" s="46"/>
+      <c r="E5" s="56"/>
     </row>
     <row r="6" spans="1:5" ht="25.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A6" s="40"/>
-      <c r="B6" s="43"/>
+      <c r="A6" s="47"/>
+      <c r="B6" s="50"/>
       <c r="C6" s="9" t="s">
         <v>7</v>
       </c>
       <c r="D6" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="E6" s="46"/>
+      <c r="E6" s="56"/>
     </row>
     <row r="7" spans="1:5" ht="25.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A7" s="40"/>
-      <c r="B7" s="43"/>
+      <c r="A7" s="47"/>
+      <c r="B7" s="50"/>
       <c r="C7" s="9" t="s">
         <v>8</v>
       </c>
       <c r="D7" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="E7" s="46"/>
+      <c r="E7" s="56"/>
     </row>
     <row r="8" spans="1:5" ht="25.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A8" s="40"/>
-      <c r="B8" s="43"/>
+      <c r="A8" s="47"/>
+      <c r="B8" s="50"/>
       <c r="C8" s="9" t="s">
         <v>9</v>
       </c>
       <c r="D8" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="E8" s="46"/>
+      <c r="E8" s="56"/>
     </row>
     <row r="9" spans="1:5" ht="25.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A9" s="40"/>
-      <c r="B9" s="43"/>
+      <c r="A9" s="47"/>
+      <c r="B9" s="50"/>
       <c r="C9" s="8" t="s">
         <v>24</v>
       </c>
       <c r="D9" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="E9" s="46"/>
+      <c r="E9" s="56"/>
     </row>
     <row r="10" spans="1:5" ht="26.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A10" s="41"/>
-      <c r="B10" s="44"/>
+      <c r="A10" s="48"/>
+      <c r="B10" s="51"/>
       <c r="C10" s="12" t="s">
         <v>25</v>
       </c>
       <c r="D10" s="13" t="s">
         <v>14</v>
       </c>
-      <c r="E10" s="47"/>
+      <c r="E10" s="57"/>
     </row>
     <row r="11" spans="1:5" ht="23.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A11" s="39">
+      <c r="A11" s="46">
         <v>2</v>
       </c>
-      <c r="B11" s="42" t="s">
+      <c r="B11" s="49" t="s">
         <v>26</v>
       </c>
       <c r="C11" s="17" t="s">
         <v>3</v>
       </c>
       <c r="D11" s="18"/>
-      <c r="E11" s="45" t="s">
+      <c r="E11" s="55" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="12" spans="1:5" ht="24.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A12" s="40"/>
-      <c r="B12" s="43"/>
+      <c r="A12" s="47"/>
+      <c r="B12" s="50"/>
       <c r="C12" s="9" t="s">
         <v>17</v>
       </c>
       <c r="D12" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="E12" s="46"/>
+      <c r="E12" s="56"/>
     </row>
     <row r="13" spans="1:5" ht="25.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A13" s="40"/>
-      <c r="B13" s="43"/>
+      <c r="A13" s="47"/>
+      <c r="B13" s="50"/>
       <c r="C13" s="9" t="s">
         <v>18</v>
       </c>
       <c r="D13" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="E13" s="46"/>
+      <c r="E13" s="56"/>
     </row>
     <row r="14" spans="1:5" ht="25.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A14" s="40"/>
-      <c r="B14" s="43"/>
+      <c r="A14" s="47"/>
+      <c r="B14" s="50"/>
       <c r="C14" s="9" t="s">
         <v>19</v>
       </c>
       <c r="D14" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="E14" s="46"/>
+      <c r="E14" s="56"/>
     </row>
     <row r="15" spans="1:5" ht="25.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A15" s="40"/>
-      <c r="B15" s="43"/>
+      <c r="A15" s="47"/>
+      <c r="B15" s="50"/>
       <c r="C15" s="9" t="s">
         <v>20</v>
       </c>
       <c r="D15" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="E15" s="46"/>
+      <c r="E15" s="56"/>
     </row>
     <row r="16" spans="1:5" ht="25.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A16" s="41"/>
-      <c r="B16" s="44"/>
+      <c r="A16" s="48"/>
+      <c r="B16" s="51"/>
       <c r="C16" s="12" t="s">
         <v>4</v>
       </c>
       <c r="D16" s="13" t="s">
         <v>14</v>
       </c>
-      <c r="E16" s="47"/>
+      <c r="E16" s="57"/>
     </row>
     <row r="17" spans="1:5" ht="34.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A17" s="36">
+      <c r="A17" s="43">
         <v>3</v>
       </c>
-      <c r="B17" s="33" t="s">
+      <c r="B17" s="40" t="s">
         <v>34</v>
       </c>
       <c r="C17" s="15" t="s">
@@ -1220,201 +1365,202 @@
       <c r="D17" s="16" t="s">
         <v>13</v>
       </c>
-      <c r="E17" s="51" t="s">
+      <c r="E17" s="61" t="s">
         <v>41</v>
       </c>
     </row>
     <row r="18" spans="1:5" ht="34.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A18" s="37"/>
-      <c r="B18" s="34"/>
+      <c r="A18" s="44"/>
+      <c r="B18" s="41"/>
       <c r="C18" s="15" t="s">
         <v>28</v>
       </c>
       <c r="D18" s="16" t="s">
         <v>14</v>
       </c>
-      <c r="E18" s="26"/>
+      <c r="E18" s="62"/>
     </row>
     <row r="19" spans="1:5" ht="27" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A19" s="38"/>
-      <c r="B19" s="35"/>
+      <c r="A19" s="45"/>
+      <c r="B19" s="42"/>
       <c r="C19" s="8" t="s">
         <v>27</v>
       </c>
       <c r="D19" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="E19" s="26"/>
-    </row>
-    <row r="20" spans="1:5" ht="27" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A20" s="20">
+      <c r="E19" s="62"/>
+    </row>
+    <row r="20" spans="1:5" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A20" s="19">
         <v>4</v>
       </c>
-      <c r="B20" s="19" t="s">
+      <c r="B20" s="25" t="s">
         <v>36</v>
       </c>
-      <c r="C20" s="8" t="s">
+      <c r="C20" s="31" t="s">
         <v>35</v>
       </c>
-      <c r="D20" s="16" t="s">
+      <c r="D20" s="32" t="s">
         <v>14</v>
       </c>
-      <c r="E20" s="26"/>
-    </row>
-    <row r="21" spans="1:5" ht="46.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A21" s="25">
+      <c r="E20" s="62"/>
+    </row>
+    <row r="21" spans="1:5" ht="46.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A21" s="33">
         <v>5</v>
       </c>
-      <c r="B21" s="48" t="s">
+      <c r="B21" s="58" t="s">
         <v>40</v>
       </c>
-      <c r="C21" s="7" t="s">
+      <c r="C21" s="10" t="s">
         <v>37</v>
       </c>
-      <c r="D21" s="25" t="s">
-        <v>14</v>
-      </c>
-      <c r="E21" s="25" t="s">
+      <c r="D21" s="27" t="s">
+        <v>13</v>
+      </c>
+      <c r="E21" s="52" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="22" spans="1:5" ht="46.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A22" s="26"/>
-      <c r="B22" s="49"/>
+    <row r="22" spans="1:5" ht="46.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A22" s="34"/>
+      <c r="B22" s="59"/>
       <c r="C22" s="7" t="s">
         <v>38</v>
       </c>
-      <c r="D22" s="26"/>
-      <c r="E22" s="26"/>
-    </row>
-    <row r="23" spans="1:5" ht="46.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A23" s="26"/>
-      <c r="B23" s="50"/>
-      <c r="C23" s="7" t="s">
+      <c r="D22" s="27" t="s">
+        <v>13</v>
+      </c>
+      <c r="E22" s="53"/>
+    </row>
+    <row r="23" spans="1:5" ht="46.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A23" s="35"/>
+      <c r="B23" s="60"/>
+      <c r="C23" s="29" t="s">
         <v>39</v>
       </c>
-      <c r="D23" s="27"/>
-      <c r="E23" s="27"/>
+      <c r="D23" s="27" t="s">
+        <v>13</v>
+      </c>
+      <c r="E23" s="54"/>
     </row>
     <row r="24" spans="1:5" ht="40.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A24" s="30">
+      <c r="A24" s="38">
         <v>6</v>
       </c>
-      <c r="B24" s="28" t="s">
+      <c r="B24" s="36" t="s">
         <v>29</v>
       </c>
-      <c r="C24" s="7" t="s">
+      <c r="C24" s="10" t="s">
+        <v>43</v>
+      </c>
+      <c r="D24" s="27" t="s">
+        <v>14</v>
+      </c>
+      <c r="E24" s="64" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" ht="40.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A25" s="39"/>
+      <c r="B25" s="37"/>
+      <c r="C25" s="29" t="s">
         <v>44</v>
       </c>
-      <c r="D24" s="25" t="s">
+      <c r="D25" s="30" t="s">
+        <v>15</v>
+      </c>
+      <c r="E25" s="65"/>
+    </row>
+    <row r="26" spans="1:5" ht="42" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A26" s="33">
+        <v>8</v>
+      </c>
+      <c r="B26" s="36" t="s">
+        <v>30</v>
+      </c>
+      <c r="C26" s="10" t="s">
+        <v>51</v>
+      </c>
+      <c r="D26" s="27" t="s">
         <v>14</v>
       </c>
-      <c r="E24" s="30" t="s">
+      <c r="E26" s="52" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" ht="42" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A27" s="34"/>
+      <c r="B27" s="63"/>
+      <c r="C27" s="7" t="s">
         <v>47</v>
       </c>
-    </row>
-    <row r="25" spans="1:5" ht="40.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A25" s="30"/>
-      <c r="B25" s="29"/>
-      <c r="C25" s="7" t="s">
+      <c r="D27" s="28" t="s">
+        <v>14</v>
+      </c>
+      <c r="E27" s="53"/>
+    </row>
+    <row r="28" spans="1:5" ht="56.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A28" s="24">
+        <v>9</v>
+      </c>
+      <c r="B28" s="22" t="s">
+        <v>52</v>
+      </c>
+      <c r="C28" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="D28" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="E28" s="53"/>
+    </row>
+    <row r="29" spans="1:5" ht="39.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A29" s="21">
+        <v>10</v>
+      </c>
+      <c r="B29" s="23" t="s">
         <v>45</v>
       </c>
-      <c r="D25" s="27"/>
-      <c r="E25" s="30"/>
-    </row>
-    <row r="26" spans="1:5" ht="42" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A26" s="25">
-        <v>8</v>
-      </c>
-      <c r="B26" s="28" t="s">
-        <v>30</v>
-      </c>
-      <c r="C26" s="7" t="s">
+      <c r="C29" s="26" t="s">
         <v>48</v>
       </c>
-      <c r="D26" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="E26" s="30"/>
-    </row>
-    <row r="27" spans="1:5" ht="42" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A27" s="26"/>
-      <c r="B27" s="52"/>
-      <c r="C27" s="7" t="s">
+      <c r="D29" s="16" t="s">
+        <v>16</v>
+      </c>
+      <c r="E29" s="54"/>
+    </row>
+    <row r="30" spans="1:5" ht="59.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A30" s="24">
+        <v>11</v>
+      </c>
+      <c r="B30" s="22" t="s">
+        <v>31</v>
+      </c>
+      <c r="C30" s="7" t="s">
         <v>49</v>
-      </c>
-      <c r="D27" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="E27" s="30"/>
-    </row>
-    <row r="28" spans="1:5" ht="42" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A28" s="27"/>
-      <c r="B28" s="29"/>
-      <c r="C28" s="7" t="s">
-        <v>54</v>
-      </c>
-      <c r="D28" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="E28" s="30"/>
-    </row>
-    <row r="29" spans="1:5" ht="39.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A29" s="22">
-        <v>9</v>
-      </c>
-      <c r="B29" s="24" t="s">
-        <v>46</v>
-      </c>
-      <c r="C29" s="7" t="s">
-        <v>50</v>
-      </c>
-      <c r="D29" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="E29" s="30"/>
-    </row>
-    <row r="30" spans="1:5" ht="59.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A30" s="25">
-        <v>10</v>
-      </c>
-      <c r="B30" s="28" t="s">
-        <v>31</v>
-      </c>
-      <c r="C30" s="7" t="s">
-        <v>51</v>
       </c>
       <c r="D30" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="E30" s="21" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="31" spans="1:5" ht="59.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A31" s="27"/>
-      <c r="B31" s="29"/>
-      <c r="C31" s="7" t="s">
-        <v>52</v>
-      </c>
-      <c r="D31" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="E31" s="23" t="s">
-        <v>53</v>
+      <c r="E30" s="20" t="s">
+        <v>54</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="22">
+  <mergeCells count="19">
+    <mergeCell ref="E24:E25"/>
+    <mergeCell ref="E26:E29"/>
     <mergeCell ref="E21:E23"/>
-    <mergeCell ref="E24:E29"/>
     <mergeCell ref="E3:E10"/>
     <mergeCell ref="E11:E16"/>
     <mergeCell ref="B21:B23"/>
     <mergeCell ref="E17:E20"/>
-    <mergeCell ref="D21:D23"/>
-    <mergeCell ref="B26:B28"/>
-    <mergeCell ref="D24:D25"/>
+    <mergeCell ref="A26:A27"/>
+    <mergeCell ref="A21:A23"/>
+    <mergeCell ref="B24:B25"/>
+    <mergeCell ref="A24:A25"/>
     <mergeCell ref="A1:C1"/>
     <mergeCell ref="B17:B19"/>
     <mergeCell ref="A17:A19"/>
@@ -1422,12 +1568,7 @@
     <mergeCell ref="A3:A10"/>
     <mergeCell ref="B3:B10"/>
     <mergeCell ref="B11:B16"/>
-    <mergeCell ref="A26:A28"/>
-    <mergeCell ref="B30:B31"/>
-    <mergeCell ref="A30:A31"/>
-    <mergeCell ref="A21:A23"/>
-    <mergeCell ref="B24:B25"/>
-    <mergeCell ref="A24:A25"/>
+    <mergeCell ref="B26:B27"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>

--- a/SRS/Gantt Chart.xlsx
+++ b/SRS/Gantt Chart.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\MyPC\Desktop\DACN_CongNghePhanMem\SRS\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\MyPC\Desktop\phanmem\DACN_CongNghePhanMem\SRS\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="55">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79" uniqueCount="56">
   <si>
     <t>Công việc</t>
   </si>
@@ -189,6 +189,9 @@
   </si>
   <si>
     <t>Tuần 14</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Xử lý điền thông tin khách hàng đặt phòng </t>
   </si>
 </sst>
 </file>
@@ -269,7 +272,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="31">
+  <borders count="32">
     <border>
       <left/>
       <right/>
@@ -665,11 +668,24 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="68">
+  <cellXfs count="69">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
@@ -763,6 +779,45 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -784,6 +839,12 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
@@ -820,53 +881,11 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1148,10 +1167,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E30"/>
+  <dimension ref="A1:E31"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="57" zoomScaleNormal="57" workbookViewId="0">
-      <selection sqref="A1:C1"/>
+    <sheetView tabSelected="1" topLeftCell="A17" zoomScale="57" zoomScaleNormal="57" workbookViewId="0">
+      <selection activeCell="D27" sqref="D27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1165,11 +1184,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="26.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="66" t="s">
+      <c r="A1" s="53" t="s">
         <v>2</v>
       </c>
-      <c r="B1" s="67"/>
-      <c r="C1" s="67"/>
+      <c r="B1" s="54"/>
+      <c r="C1" s="54"/>
       <c r="D1" s="2"/>
       <c r="E1" s="1"/>
     </row>
@@ -1191,10 +1210,10 @@
       </c>
     </row>
     <row r="3" spans="1:5" ht="25.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="46">
+      <c r="A3" s="61">
         <v>1</v>
       </c>
-      <c r="B3" s="49" t="s">
+      <c r="B3" s="64" t="s">
         <v>22</v>
       </c>
       <c r="C3" s="10" t="s">
@@ -1203,160 +1222,160 @@
       <c r="D3" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="E3" s="55" t="s">
+      <c r="E3" s="38" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="4" spans="1:5" ht="21" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A4" s="47"/>
-      <c r="B4" s="50"/>
+      <c r="A4" s="62"/>
+      <c r="B4" s="65"/>
       <c r="C4" s="8" t="s">
         <v>33</v>
       </c>
       <c r="D4" s="4"/>
-      <c r="E4" s="56"/>
+      <c r="E4" s="39"/>
     </row>
     <row r="5" spans="1:5" ht="25.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A5" s="47"/>
-      <c r="B5" s="50"/>
+      <c r="A5" s="62"/>
+      <c r="B5" s="65"/>
       <c r="C5" s="9" t="s">
         <v>6</v>
       </c>
       <c r="D5" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="E5" s="56"/>
+      <c r="E5" s="39"/>
     </row>
     <row r="6" spans="1:5" ht="25.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A6" s="47"/>
-      <c r="B6" s="50"/>
+      <c r="A6" s="62"/>
+      <c r="B6" s="65"/>
       <c r="C6" s="9" t="s">
         <v>7</v>
       </c>
       <c r="D6" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="E6" s="56"/>
+      <c r="E6" s="39"/>
     </row>
     <row r="7" spans="1:5" ht="25.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A7" s="47"/>
-      <c r="B7" s="50"/>
+      <c r="A7" s="62"/>
+      <c r="B7" s="65"/>
       <c r="C7" s="9" t="s">
         <v>8</v>
       </c>
       <c r="D7" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="E7" s="56"/>
+      <c r="E7" s="39"/>
     </row>
     <row r="8" spans="1:5" ht="25.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A8" s="47"/>
-      <c r="B8" s="50"/>
+      <c r="A8" s="62"/>
+      <c r="B8" s="65"/>
       <c r="C8" s="9" t="s">
         <v>9</v>
       </c>
       <c r="D8" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="E8" s="56"/>
+      <c r="E8" s="39"/>
     </row>
     <row r="9" spans="1:5" ht="25.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A9" s="47"/>
-      <c r="B9" s="50"/>
+      <c r="A9" s="62"/>
+      <c r="B9" s="65"/>
       <c r="C9" s="8" t="s">
         <v>24</v>
       </c>
       <c r="D9" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="E9" s="56"/>
+      <c r="E9" s="39"/>
     </row>
     <row r="10" spans="1:5" ht="26.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A10" s="48"/>
-      <c r="B10" s="51"/>
+      <c r="A10" s="63"/>
+      <c r="B10" s="66"/>
       <c r="C10" s="12" t="s">
         <v>25</v>
       </c>
       <c r="D10" s="13" t="s">
         <v>14</v>
       </c>
-      <c r="E10" s="57"/>
+      <c r="E10" s="40"/>
     </row>
     <row r="11" spans="1:5" ht="23.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A11" s="46">
+      <c r="A11" s="61">
         <v>2</v>
       </c>
-      <c r="B11" s="49" t="s">
+      <c r="B11" s="64" t="s">
         <v>26</v>
       </c>
       <c r="C11" s="17" t="s">
         <v>3</v>
       </c>
       <c r="D11" s="18"/>
-      <c r="E11" s="55" t="s">
+      <c r="E11" s="38" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="12" spans="1:5" ht="24.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A12" s="47"/>
-      <c r="B12" s="50"/>
+      <c r="A12" s="62"/>
+      <c r="B12" s="65"/>
       <c r="C12" s="9" t="s">
         <v>17</v>
       </c>
       <c r="D12" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="E12" s="56"/>
+      <c r="E12" s="39"/>
     </row>
     <row r="13" spans="1:5" ht="25.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A13" s="47"/>
-      <c r="B13" s="50"/>
+      <c r="A13" s="62"/>
+      <c r="B13" s="65"/>
       <c r="C13" s="9" t="s">
         <v>18</v>
       </c>
       <c r="D13" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="E13" s="56"/>
+      <c r="E13" s="39"/>
     </row>
     <row r="14" spans="1:5" ht="25.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A14" s="47"/>
-      <c r="B14" s="50"/>
+      <c r="A14" s="62"/>
+      <c r="B14" s="65"/>
       <c r="C14" s="9" t="s">
         <v>19</v>
       </c>
       <c r="D14" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="E14" s="56"/>
+      <c r="E14" s="39"/>
     </row>
     <row r="15" spans="1:5" ht="25.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A15" s="47"/>
-      <c r="B15" s="50"/>
+      <c r="A15" s="62"/>
+      <c r="B15" s="65"/>
       <c r="C15" s="9" t="s">
         <v>20</v>
       </c>
       <c r="D15" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="E15" s="56"/>
+      <c r="E15" s="39"/>
     </row>
     <row r="16" spans="1:5" ht="25.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A16" s="48"/>
-      <c r="B16" s="51"/>
+      <c r="A16" s="63"/>
+      <c r="B16" s="66"/>
       <c r="C16" s="12" t="s">
         <v>4</v>
       </c>
       <c r="D16" s="13" t="s">
         <v>14</v>
       </c>
-      <c r="E16" s="57"/>
+      <c r="E16" s="40"/>
     </row>
     <row r="17" spans="1:5" ht="34.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A17" s="43">
+      <c r="A17" s="58">
         <v>3</v>
       </c>
-      <c r="B17" s="40" t="s">
+      <c r="B17" s="55" t="s">
         <v>34</v>
       </c>
       <c r="C17" s="15" t="s">
@@ -1365,31 +1384,31 @@
       <c r="D17" s="16" t="s">
         <v>13</v>
       </c>
-      <c r="E17" s="61" t="s">
+      <c r="E17" s="44" t="s">
         <v>41</v>
       </c>
     </row>
     <row r="18" spans="1:5" ht="34.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A18" s="44"/>
-      <c r="B18" s="41"/>
+      <c r="A18" s="59"/>
+      <c r="B18" s="56"/>
       <c r="C18" s="15" t="s">
         <v>28</v>
       </c>
       <c r="D18" s="16" t="s">
         <v>14</v>
       </c>
-      <c r="E18" s="62"/>
+      <c r="E18" s="45"/>
     </row>
     <row r="19" spans="1:5" ht="27" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A19" s="45"/>
-      <c r="B19" s="42"/>
+      <c r="A19" s="60"/>
+      <c r="B19" s="57"/>
       <c r="C19" s="8" t="s">
         <v>27</v>
       </c>
       <c r="D19" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="E19" s="62"/>
+      <c r="E19" s="45"/>
     </row>
     <row r="20" spans="1:5" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A20" s="19">
@@ -1404,13 +1423,13 @@
       <c r="D20" s="32" t="s">
         <v>14</v>
       </c>
-      <c r="E20" s="62"/>
+      <c r="E20" s="45"/>
     </row>
     <row r="21" spans="1:5" ht="46.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A21" s="33">
+      <c r="A21" s="46">
         <v>5</v>
       </c>
-      <c r="B21" s="58" t="s">
+      <c r="B21" s="41" t="s">
         <v>40</v>
       </c>
       <c r="C21" s="10" t="s">
@@ -1419,37 +1438,37 @@
       <c r="D21" s="27" t="s">
         <v>13</v>
       </c>
-      <c r="E21" s="52" t="s">
+      <c r="E21" s="35" t="s">
         <v>42</v>
       </c>
     </row>
     <row r="22" spans="1:5" ht="46.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A22" s="34"/>
-      <c r="B22" s="59"/>
+      <c r="A22" s="47"/>
+      <c r="B22" s="42"/>
       <c r="C22" s="7" t="s">
         <v>38</v>
       </c>
       <c r="D22" s="27" t="s">
         <v>13</v>
       </c>
-      <c r="E22" s="53"/>
+      <c r="E22" s="36"/>
     </row>
     <row r="23" spans="1:5" ht="46.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A23" s="35"/>
-      <c r="B23" s="60"/>
+      <c r="A23" s="48"/>
+      <c r="B23" s="43"/>
       <c r="C23" s="29" t="s">
         <v>39</v>
       </c>
       <c r="D23" s="27" t="s">
         <v>13</v>
       </c>
-      <c r="E23" s="54"/>
+      <c r="E23" s="37"/>
     </row>
     <row r="24" spans="1:5" ht="40.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A24" s="38">
+      <c r="A24" s="51">
         <v>6</v>
       </c>
-      <c r="B24" s="36" t="s">
+      <c r="B24" s="49" t="s">
         <v>29</v>
       </c>
       <c r="C24" s="10" t="s">
@@ -1458,26 +1477,26 @@
       <c r="D24" s="27" t="s">
         <v>14</v>
       </c>
-      <c r="E24" s="64" t="s">
+      <c r="E24" s="33" t="s">
         <v>46</v>
       </c>
     </row>
     <row r="25" spans="1:5" ht="40.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A25" s="39"/>
-      <c r="B25" s="37"/>
+      <c r="A25" s="52"/>
+      <c r="B25" s="50"/>
       <c r="C25" s="29" t="s">
         <v>44</v>
       </c>
       <c r="D25" s="30" t="s">
         <v>15</v>
       </c>
-      <c r="E25" s="65"/>
+      <c r="E25" s="34"/>
     </row>
     <row r="26" spans="1:5" ht="42" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A26" s="33">
+      <c r="A26" s="46">
         <v>8</v>
       </c>
-      <c r="B26" s="36" t="s">
+      <c r="B26" s="49" t="s">
         <v>30</v>
       </c>
       <c r="C26" s="10" t="s">
@@ -1486,81 +1505,81 @@
       <c r="D26" s="27" t="s">
         <v>14</v>
       </c>
-      <c r="E26" s="52" t="s">
+      <c r="E26" s="35" t="s">
         <v>53</v>
       </c>
     </row>
     <row r="27" spans="1:5" ht="42" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A27" s="34"/>
-      <c r="B27" s="63"/>
-      <c r="C27" s="7" t="s">
+      <c r="A27" s="47"/>
+      <c r="B27" s="67"/>
+      <c r="C27" s="26" t="s">
         <v>47</v>
       </c>
-      <c r="D27" s="28" t="s">
+      <c r="D27" s="68" t="s">
         <v>14</v>
       </c>
-      <c r="E27" s="53"/>
-    </row>
-    <row r="28" spans="1:5" ht="56.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A28" s="24">
+      <c r="E27" s="36"/>
+    </row>
+    <row r="28" spans="1:5" ht="42" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A28" s="47"/>
+      <c r="B28" s="67"/>
+      <c r="C28" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="D28" s="28" t="s">
+        <v>14</v>
+      </c>
+      <c r="E28" s="36"/>
+    </row>
+    <row r="29" spans="1:5" ht="56.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A29" s="24">
         <v>9</v>
       </c>
-      <c r="B28" s="22" t="s">
+      <c r="B29" s="22" t="s">
         <v>52</v>
       </c>
-      <c r="C28" s="7" t="s">
+      <c r="C29" s="7" t="s">
         <v>50</v>
       </c>
-      <c r="D28" s="5" t="s">
+      <c r="D29" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="E28" s="53"/>
-    </row>
-    <row r="29" spans="1:5" ht="39.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A29" s="21">
+      <c r="E29" s="36"/>
+    </row>
+    <row r="30" spans="1:5" ht="39.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A30" s="21">
         <v>10</v>
       </c>
-      <c r="B29" s="23" t="s">
+      <c r="B30" s="23" t="s">
         <v>45</v>
       </c>
-      <c r="C29" s="26" t="s">
+      <c r="C30" s="26" t="s">
         <v>48</v>
       </c>
-      <c r="D29" s="16" t="s">
+      <c r="D30" s="16" t="s">
         <v>16</v>
       </c>
-      <c r="E29" s="54"/>
-    </row>
-    <row r="30" spans="1:5" ht="59.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A30" s="24">
+      <c r="E30" s="37"/>
+    </row>
+    <row r="31" spans="1:5" ht="59.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A31" s="24">
         <v>11</v>
       </c>
-      <c r="B30" s="22" t="s">
+      <c r="B31" s="22" t="s">
         <v>31</v>
       </c>
-      <c r="C30" s="7" t="s">
+      <c r="C31" s="7" t="s">
         <v>49</v>
       </c>
-      <c r="D30" s="5" t="s">
+      <c r="D31" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="E30" s="20" t="s">
+      <c r="E31" s="20" t="s">
         <v>54</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="19">
-    <mergeCell ref="E24:E25"/>
-    <mergeCell ref="E26:E29"/>
-    <mergeCell ref="E21:E23"/>
-    <mergeCell ref="E3:E10"/>
-    <mergeCell ref="E11:E16"/>
-    <mergeCell ref="B21:B23"/>
-    <mergeCell ref="E17:E20"/>
-    <mergeCell ref="A26:A27"/>
-    <mergeCell ref="A21:A23"/>
-    <mergeCell ref="B24:B25"/>
-    <mergeCell ref="A24:A25"/>
     <mergeCell ref="A1:C1"/>
     <mergeCell ref="B17:B19"/>
     <mergeCell ref="A17:A19"/>
@@ -1568,7 +1587,18 @@
     <mergeCell ref="A3:A10"/>
     <mergeCell ref="B3:B10"/>
     <mergeCell ref="B11:B16"/>
-    <mergeCell ref="B26:B27"/>
+    <mergeCell ref="B21:B23"/>
+    <mergeCell ref="E17:E20"/>
+    <mergeCell ref="A26:A28"/>
+    <mergeCell ref="A21:A23"/>
+    <mergeCell ref="B24:B25"/>
+    <mergeCell ref="A24:A25"/>
+    <mergeCell ref="B26:B28"/>
+    <mergeCell ref="E24:E25"/>
+    <mergeCell ref="E26:E30"/>
+    <mergeCell ref="E21:E23"/>
+    <mergeCell ref="E3:E10"/>
+    <mergeCell ref="E11:E16"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>

--- a/SRS/Gantt Chart.xlsx
+++ b/SRS/Gantt Chart.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="53">
   <si>
     <t>Công việc</t>
   </si>
@@ -122,9 +122,6 @@
     <t>Hệ thống hoàn thành test các chức năng trong website đặt phòng</t>
   </si>
   <si>
-    <t>Thiết kế chi tiết giao diện chức năng đặt phòng</t>
-  </si>
-  <si>
     <t>Phân tích chi tiết  (đặc tả use case)</t>
   </si>
   <si>
@@ -149,12 +146,6 @@
     <t xml:space="preserve">Hệ thống thực hiện chức năng đăng ký, đăng nhập vào website đặt phòng </t>
   </si>
   <si>
-    <t>Tuần 5,6</t>
-  </si>
-  <si>
-    <t>Tuần 7,8</t>
-  </si>
-  <si>
     <t xml:space="preserve">Xử lý chức năng hiển thị danh sách phòng </t>
   </si>
   <si>
@@ -164,12 +155,6 @@
     <t>Hệ thống cho phép admin quản lý thông tin về đặt phòng</t>
   </si>
   <si>
-    <t>Tuần 9,10</t>
-  </si>
-  <si>
-    <t>Xử lý thay đổi thông tin đặt phòng (số lượng, ngày check-in, check-out)</t>
-  </si>
-  <si>
     <t>Giao diện và xử lý thêm, xóa, sửa thông tin đặt phòng</t>
   </si>
   <si>
@@ -192,32 +177,25 @@
   </si>
   <si>
     <t xml:space="preserve">Xử lý điền thông tin khách hàng đặt phòng </t>
+  </si>
+  <si>
+    <t>Tuần 7,8,9 10</t>
+  </si>
+  <si>
+    <t>Xử lý thay đổi thông tin đặt phòng (số lượng phòng, ngày check-in, check-out)</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="8" x14ac:knownFonts="1">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Arial"/>
       <family val="2"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color theme="1"/>
-      <name val="Arial"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="12"/>
-      <color rgb="FFFF0000"/>
-      <name val="Arial"/>
-      <family val="2"/>
     </font>
     <font>
       <b/>
@@ -251,11 +229,31 @@
     </font>
     <font>
       <b/>
-      <sz val="20"/>
+      <sz val="16"/>
       <color rgb="FFFF0000"/>
       <name val="Candara"/>
       <family val="2"/>
       <charset val="163"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="16"/>
+      <color rgb="FFFF0000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="16"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="16"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="3">
@@ -272,7 +270,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="32">
+  <borders count="34">
     <border>
       <left/>
       <right/>
@@ -643,23 +641,10 @@
       <diagonal/>
     </border>
     <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
         <color indexed="64"/>
       </right>
       <top/>
@@ -675,218 +660,238 @@
       <right style="medium">
         <color indexed="64"/>
       </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
       <top/>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
       <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="69">
+  <cellXfs count="64">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1167,10 +1172,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E31"/>
+  <dimension ref="A1:E30"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A17" zoomScale="57" zoomScaleNormal="57" workbookViewId="0">
-      <selection activeCell="D27" sqref="D27"/>
+    <sheetView tabSelected="1" topLeftCell="A10" zoomScale="64" zoomScaleNormal="64" workbookViewId="0">
+      <selection activeCell="R13" sqref="R13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1184,421 +1189,394 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="26.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="53" t="s">
+      <c r="A1" s="58" t="s">
         <v>2</v>
       </c>
-      <c r="B1" s="54"/>
-      <c r="C1" s="54"/>
-      <c r="D1" s="2"/>
-      <c r="E1" s="1"/>
+      <c r="B1" s="59"/>
+      <c r="C1" s="59"/>
+      <c r="D1" s="60"/>
+      <c r="E1" s="61"/>
     </row>
     <row r="2" spans="1:5" ht="21.75" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A2" s="14" t="s">
+      <c r="A2" s="11" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="6" t="s">
+      <c r="B2" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="C2" s="3" t="s">
+      <c r="C2" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="D2" s="3" t="s">
+      <c r="D2" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="E2" s="3" t="s">
+      <c r="E2" s="1" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="3" spans="1:5" ht="25.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="61">
+      <c r="A3" s="44">
         <v>1</v>
       </c>
-      <c r="B3" s="64" t="s">
+      <c r="B3" s="54" t="s">
         <v>22</v>
       </c>
-      <c r="C3" s="10" t="s">
+      <c r="C3" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="D3" s="11" t="s">
+      <c r="D3" s="8"/>
+      <c r="E3" s="25" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" ht="21" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A4" s="45"/>
+      <c r="B4" s="55"/>
+      <c r="C4" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="D4" s="62"/>
+      <c r="E4" s="26"/>
+    </row>
+    <row r="5" spans="1:5" ht="25.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A5" s="45"/>
+      <c r="B5" s="55"/>
+      <c r="C5" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="E5" s="26"/>
+    </row>
+    <row r="6" spans="1:5" ht="25.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A6" s="45"/>
+      <c r="B6" s="55"/>
+      <c r="C6" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="D6" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="E3" s="38" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" ht="21" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A4" s="62"/>
-      <c r="B4" s="65"/>
-      <c r="C4" s="8" t="s">
+      <c r="E6" s="26"/>
+    </row>
+    <row r="7" spans="1:5" ht="25.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A7" s="45"/>
+      <c r="B7" s="55"/>
+      <c r="C7" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="E7" s="26"/>
+    </row>
+    <row r="8" spans="1:5" ht="25.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A8" s="45"/>
+      <c r="B8" s="55"/>
+      <c r="C8" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="E8" s="26"/>
+    </row>
+    <row r="9" spans="1:5" ht="25.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A9" s="45"/>
+      <c r="B9" s="55"/>
+      <c r="C9" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="D9" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="E9" s="26"/>
+    </row>
+    <row r="10" spans="1:5" ht="26.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A10" s="46"/>
+      <c r="B10" s="56"/>
+      <c r="C10" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="D10" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="E10" s="27"/>
+    </row>
+    <row r="11" spans="1:5" ht="23.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A11" s="44">
+        <v>2</v>
+      </c>
+      <c r="B11" s="54" t="s">
+        <v>26</v>
+      </c>
+      <c r="C11" s="14" t="s">
+        <v>3</v>
+      </c>
+      <c r="D11" s="63"/>
+      <c r="E11" s="25" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" ht="24.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A12" s="45"/>
+      <c r="B12" s="55"/>
+      <c r="C12" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="D12" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="E12" s="26"/>
+    </row>
+    <row r="13" spans="1:5" ht="25.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A13" s="45"/>
+      <c r="B13" s="55"/>
+      <c r="C13" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="D13" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="E13" s="26"/>
+    </row>
+    <row r="14" spans="1:5" ht="25.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A14" s="45"/>
+      <c r="B14" s="55"/>
+      <c r="C14" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="D14" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="E14" s="26"/>
+    </row>
+    <row r="15" spans="1:5" ht="25.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A15" s="45"/>
+      <c r="B15" s="55"/>
+      <c r="C15" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="D15" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="E15" s="26"/>
+    </row>
+    <row r="16" spans="1:5" ht="25.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A16" s="46"/>
+      <c r="B16" s="56"/>
+      <c r="C16" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="D16" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="E16" s="27"/>
+    </row>
+    <row r="17" spans="1:5" ht="34.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A17" s="42">
+        <v>3</v>
+      </c>
+      <c r="B17" s="34" t="s">
         <v>33</v>
       </c>
-      <c r="D4" s="4"/>
-      <c r="E4" s="39"/>
-    </row>
-    <row r="5" spans="1:5" ht="25.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A5" s="62"/>
-      <c r="B5" s="65"/>
-      <c r="C5" s="9" t="s">
+      <c r="C17" s="12" t="s">
+        <v>28</v>
+      </c>
+      <c r="D17" s="47" t="s">
+        <v>13</v>
+      </c>
+      <c r="E17" s="49" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" ht="27" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A18" s="43"/>
+      <c r="B18" s="57"/>
+      <c r="C18" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="D18" s="48"/>
+      <c r="E18" s="40"/>
+    </row>
+    <row r="19" spans="1:5" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A19" s="22">
+        <v>4</v>
+      </c>
+      <c r="B19" s="23" t="s">
+        <v>35</v>
+      </c>
+      <c r="C19" s="20" t="s">
+        <v>34</v>
+      </c>
+      <c r="D19" s="21" t="s">
+        <v>14</v>
+      </c>
+      <c r="E19" s="40"/>
+    </row>
+    <row r="20" spans="1:5" ht="46.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A20" s="31">
+        <v>5</v>
+      </c>
+      <c r="B20" s="28" t="s">
+        <v>39</v>
+      </c>
+      <c r="C20" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="D20" s="50" t="s">
+        <v>13</v>
+      </c>
+      <c r="E20" s="40"/>
+    </row>
+    <row r="21" spans="1:5" ht="46.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A21" s="32"/>
+      <c r="B21" s="29"/>
+      <c r="C21" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="D21" s="51"/>
+      <c r="E21" s="40"/>
+    </row>
+    <row r="22" spans="1:5" ht="46.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A22" s="33"/>
+      <c r="B22" s="30"/>
+      <c r="C22" s="19" t="s">
+        <v>38</v>
+      </c>
+      <c r="D22" s="52"/>
+      <c r="E22" s="40"/>
+    </row>
+    <row r="23" spans="1:5" ht="40.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A23" s="36">
         <v>6</v>
       </c>
-      <c r="D5" s="5" t="s">
+      <c r="B23" s="34" t="s">
+        <v>29</v>
+      </c>
+      <c r="C23" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="D23" s="50" t="s">
+        <v>15</v>
+      </c>
+      <c r="E23" s="40"/>
+    </row>
+    <row r="24" spans="1:5" ht="40.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A24" s="37"/>
+      <c r="B24" s="35"/>
+      <c r="C24" s="19" t="s">
+        <v>41</v>
+      </c>
+      <c r="D24" s="52"/>
+      <c r="E24" s="41"/>
+    </row>
+    <row r="25" spans="1:5" ht="42" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A25" s="31">
+        <v>7</v>
+      </c>
+      <c r="B25" s="34" t="s">
+        <v>30</v>
+      </c>
+      <c r="C25" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="D25" s="50" t="s">
+        <v>14</v>
+      </c>
+      <c r="E25" s="39" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" ht="42" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A26" s="32"/>
+      <c r="B26" s="38"/>
+      <c r="C26" s="18" t="s">
+        <v>52</v>
+      </c>
+      <c r="D26" s="51"/>
+      <c r="E26" s="40"/>
+    </row>
+    <row r="27" spans="1:5" ht="42" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A27" s="32"/>
+      <c r="B27" s="38"/>
+      <c r="C27" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="D27" s="53"/>
+      <c r="E27" s="40"/>
+    </row>
+    <row r="28" spans="1:5" ht="56.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A28" s="17">
+        <v>8</v>
+      </c>
+      <c r="B28" s="15" t="s">
+        <v>47</v>
+      </c>
+      <c r="C28" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="D28" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="E5" s="39"/>
-    </row>
-    <row r="6" spans="1:5" ht="25.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A6" s="62"/>
-      <c r="B6" s="65"/>
-      <c r="C6" s="9" t="s">
-        <v>7</v>
-      </c>
-      <c r="D6" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="E6" s="39"/>
-    </row>
-    <row r="7" spans="1:5" ht="25.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A7" s="62"/>
-      <c r="B7" s="65"/>
-      <c r="C7" s="9" t="s">
-        <v>8</v>
-      </c>
-      <c r="D7" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="E7" s="39"/>
-    </row>
-    <row r="8" spans="1:5" ht="25.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A8" s="62"/>
-      <c r="B8" s="65"/>
-      <c r="C8" s="9" t="s">
-        <v>9</v>
-      </c>
-      <c r="D8" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="E8" s="39"/>
-    </row>
-    <row r="9" spans="1:5" ht="25.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A9" s="62"/>
-      <c r="B9" s="65"/>
-      <c r="C9" s="8" t="s">
-        <v>24</v>
-      </c>
-      <c r="D9" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="E9" s="39"/>
-    </row>
-    <row r="10" spans="1:5" ht="26.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A10" s="63"/>
-      <c r="B10" s="66"/>
-      <c r="C10" s="12" t="s">
-        <v>25</v>
-      </c>
-      <c r="D10" s="13" t="s">
-        <v>14</v>
-      </c>
-      <c r="E10" s="40"/>
-    </row>
-    <row r="11" spans="1:5" ht="23.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A11" s="61">
-        <v>2</v>
-      </c>
-      <c r="B11" s="64" t="s">
-        <v>26</v>
-      </c>
-      <c r="C11" s="17" t="s">
-        <v>3</v>
-      </c>
-      <c r="D11" s="18"/>
-      <c r="E11" s="38" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" ht="24.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A12" s="62"/>
-      <c r="B12" s="65"/>
-      <c r="C12" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="D12" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="E12" s="39"/>
-    </row>
-    <row r="13" spans="1:5" ht="25.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A13" s="62"/>
-      <c r="B13" s="65"/>
-      <c r="C13" s="9" t="s">
-        <v>18</v>
-      </c>
-      <c r="D13" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="E13" s="39"/>
-    </row>
-    <row r="14" spans="1:5" ht="25.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A14" s="62"/>
-      <c r="B14" s="65"/>
-      <c r="C14" s="9" t="s">
-        <v>19</v>
-      </c>
-      <c r="D14" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="E14" s="39"/>
-    </row>
-    <row r="15" spans="1:5" ht="25.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A15" s="62"/>
-      <c r="B15" s="65"/>
-      <c r="C15" s="9" t="s">
-        <v>20</v>
-      </c>
-      <c r="D15" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="E15" s="39"/>
-    </row>
-    <row r="16" spans="1:5" ht="25.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A16" s="63"/>
-      <c r="B16" s="66"/>
-      <c r="C16" s="12" t="s">
-        <v>4</v>
-      </c>
-      <c r="D16" s="13" t="s">
-        <v>14</v>
-      </c>
-      <c r="E16" s="40"/>
-    </row>
-    <row r="17" spans="1:5" ht="34.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A17" s="58">
-        <v>3</v>
-      </c>
-      <c r="B17" s="55" t="s">
-        <v>34</v>
-      </c>
-      <c r="C17" s="15" t="s">
-        <v>32</v>
-      </c>
-      <c r="D17" s="16" t="s">
-        <v>13</v>
-      </c>
-      <c r="E17" s="44" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5" ht="34.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A18" s="59"/>
-      <c r="B18" s="56"/>
-      <c r="C18" s="15" t="s">
-        <v>28</v>
-      </c>
-      <c r="D18" s="16" t="s">
-        <v>14</v>
-      </c>
-      <c r="E18" s="45"/>
-    </row>
-    <row r="19" spans="1:5" ht="27" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A19" s="60"/>
-      <c r="B19" s="57"/>
-      <c r="C19" s="8" t="s">
-        <v>27</v>
-      </c>
-      <c r="D19" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="E19" s="45"/>
-    </row>
-    <row r="20" spans="1:5" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A20" s="19">
-        <v>4</v>
-      </c>
-      <c r="B20" s="25" t="s">
-        <v>36</v>
-      </c>
-      <c r="C20" s="31" t="s">
-        <v>35</v>
-      </c>
-      <c r="D20" s="32" t="s">
-        <v>14</v>
-      </c>
-      <c r="E20" s="45"/>
-    </row>
-    <row r="21" spans="1:5" ht="46.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A21" s="46">
-        <v>5</v>
-      </c>
-      <c r="B21" s="41" t="s">
-        <v>40</v>
-      </c>
-      <c r="C21" s="10" t="s">
-        <v>37</v>
-      </c>
-      <c r="D21" s="27" t="s">
-        <v>13</v>
-      </c>
-      <c r="E21" s="35" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5" ht="46.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A22" s="47"/>
-      <c r="B22" s="42"/>
-      <c r="C22" s="7" t="s">
-        <v>38</v>
-      </c>
-      <c r="D22" s="27" t="s">
-        <v>13</v>
-      </c>
-      <c r="E22" s="36"/>
-    </row>
-    <row r="23" spans="1:5" ht="46.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A23" s="48"/>
-      <c r="B23" s="43"/>
-      <c r="C23" s="29" t="s">
-        <v>39</v>
-      </c>
-      <c r="D23" s="27" t="s">
-        <v>13</v>
-      </c>
-      <c r="E23" s="37"/>
-    </row>
-    <row r="24" spans="1:5" ht="40.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A24" s="51">
-        <v>6</v>
-      </c>
-      <c r="B24" s="49" t="s">
-        <v>29</v>
-      </c>
-      <c r="C24" s="10" t="s">
-        <v>43</v>
-      </c>
-      <c r="D24" s="27" t="s">
-        <v>14</v>
-      </c>
-      <c r="E24" s="33" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="25" spans="1:5" ht="40.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A25" s="52"/>
-      <c r="B25" s="50"/>
-      <c r="C25" s="29" t="s">
-        <v>44</v>
-      </c>
-      <c r="D25" s="30" t="s">
-        <v>15</v>
-      </c>
-      <c r="E25" s="34"/>
-    </row>
-    <row r="26" spans="1:5" ht="42" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A26" s="46">
-        <v>8</v>
-      </c>
-      <c r="B26" s="49" t="s">
-        <v>30</v>
-      </c>
-      <c r="C26" s="10" t="s">
-        <v>51</v>
-      </c>
-      <c r="D26" s="27" t="s">
-        <v>14</v>
-      </c>
-      <c r="E26" s="35" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="27" spans="1:5" ht="42" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A27" s="47"/>
-      <c r="B27" s="67"/>
-      <c r="C27" s="26" t="s">
-        <v>47</v>
-      </c>
-      <c r="D27" s="68" t="s">
-        <v>14</v>
-      </c>
-      <c r="E27" s="36"/>
-    </row>
-    <row r="28" spans="1:5" ht="42" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A28" s="47"/>
-      <c r="B28" s="67"/>
-      <c r="C28" s="7" t="s">
-        <v>55</v>
-      </c>
-      <c r="D28" s="28" t="s">
-        <v>14</v>
-      </c>
-      <c r="E28" s="36"/>
-    </row>
-    <row r="29" spans="1:5" ht="56.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="E28" s="40"/>
+    </row>
+    <row r="29" spans="1:5" ht="39.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A29" s="24">
         <v>9</v>
       </c>
-      <c r="B29" s="22" t="s">
-        <v>52</v>
-      </c>
-      <c r="C29" s="7" t="s">
-        <v>50</v>
-      </c>
-      <c r="D29" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="E29" s="36"/>
-    </row>
-    <row r="30" spans="1:5" ht="39.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A30" s="21">
+      <c r="B29" s="16" t="s">
+        <v>42</v>
+      </c>
+      <c r="C29" s="18" t="s">
+        <v>43</v>
+      </c>
+      <c r="D29" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="E29" s="41"/>
+    </row>
+    <row r="30" spans="1:5" ht="59.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A30" s="17">
         <v>10</v>
       </c>
-      <c r="B30" s="23" t="s">
-        <v>45</v>
-      </c>
-      <c r="C30" s="26" t="s">
-        <v>48</v>
-      </c>
-      <c r="D30" s="16" t="s">
-        <v>16</v>
-      </c>
-      <c r="E30" s="37"/>
-    </row>
-    <row r="31" spans="1:5" ht="59.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A31" s="24">
-        <v>11</v>
-      </c>
-      <c r="B31" s="22" t="s">
+      <c r="B30" s="15" t="s">
         <v>31</v>
       </c>
-      <c r="C31" s="7" t="s">
+      <c r="C30" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="D30" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="E30" s="24" t="s">
         <v>49</v>
       </c>
-      <c r="D31" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="E31" s="20" t="s">
-        <v>54</v>
-      </c>
     </row>
   </sheetData>
-  <mergeCells count="19">
+  <mergeCells count="21">
     <mergeCell ref="A1:C1"/>
-    <mergeCell ref="B17:B19"/>
-    <mergeCell ref="A17:A19"/>
     <mergeCell ref="A11:A16"/>
     <mergeCell ref="A3:A10"/>
     <mergeCell ref="B3:B10"/>
     <mergeCell ref="B11:B16"/>
-    <mergeCell ref="B21:B23"/>
-    <mergeCell ref="E17:E20"/>
-    <mergeCell ref="A26:A28"/>
-    <mergeCell ref="A21:A23"/>
-    <mergeCell ref="B24:B25"/>
-    <mergeCell ref="A24:A25"/>
-    <mergeCell ref="B26:B28"/>
-    <mergeCell ref="E24:E25"/>
-    <mergeCell ref="E26:E30"/>
-    <mergeCell ref="E21:E23"/>
+    <mergeCell ref="B20:B22"/>
+    <mergeCell ref="A25:A27"/>
+    <mergeCell ref="A20:A22"/>
+    <mergeCell ref="B23:B24"/>
+    <mergeCell ref="A23:A24"/>
+    <mergeCell ref="B25:B27"/>
+    <mergeCell ref="E25:E29"/>
+    <mergeCell ref="A17:A18"/>
+    <mergeCell ref="B17:B18"/>
+    <mergeCell ref="E17:E24"/>
     <mergeCell ref="E3:E10"/>
     <mergeCell ref="E11:E16"/>
+    <mergeCell ref="D25:D27"/>
+    <mergeCell ref="D23:D24"/>
+    <mergeCell ref="D20:D22"/>
+    <mergeCell ref="D17:D18"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
